--- a/coba_rnn.xlsx
+++ b/coba_rnn.xlsx
@@ -1,39 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WALL-M 2\Documents\Agung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pambu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2409F464-359E-4123-93AB-3BAEC56937E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="565" activeTab="1" xr2:uid="{568DF21A-8F31-422C-BB75-3433F4E5EF0B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7770" tabRatio="565" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="iNPUT" sheetId="1" r:id="rId1"/>
-    <sheet name="FORWARD 1" sheetId="2" r:id="rId2"/>
-    <sheet name="BACKPRO 1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="FORWARD 1" sheetId="2" r:id="rId3"/>
+    <sheet name="BACKPRO 1" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="194">
   <si>
     <t xml:space="preserve">input </t>
   </si>
@@ -149,9 +143,6 @@
     <t>Zt (Mengabaikan non-linear dengan mempersiapkan input f_t,i_t,C ̌_t,o_t)</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>Perkalian matriks  I[0]  x  Inisial bobot Random (z)</t>
   </si>
   <si>
@@ -237,16 +228,397 @@
   </si>
   <si>
     <t>langkah 2</t>
+  </si>
+  <si>
+    <t>dE_dW = </t>
+  </si>
+  <si>
+    <t>dE_dh_t =</t>
+  </si>
+  <si>
+    <t>dE_dc_t = </t>
+  </si>
+  <si>
+    <t>E =</t>
+  </si>
+  <si>
+    <t>discount = </t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>abs(y-h)</t>
+  </si>
+  <si>
+    <t>penjumlahan dari anggota abs(y-h)</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>backwardStep [0]</t>
+  </si>
+  <si>
+    <t>transpose(self,I[t])</t>
+  </si>
+  <si>
+    <t>dE_dh_t (dE_dh_t -= discount * lessThan)</t>
+  </si>
+  <si>
+    <t>dE_do_t</t>
+  </si>
+  <si>
+    <t>tanh (c[t])</t>
+  </si>
+  <si>
+    <t>dE_dh_t (dE_dh_t += discount * greatThan)</t>
+  </si>
+  <si>
+    <t>dE_dh_t</t>
+  </si>
+  <si>
+    <t>dE_dh_t =</t>
+  </si>
+  <si>
+    <t>np,multiply(dE_dh_t, np,tanh(self,C[t]))</t>
+  </si>
+  <si>
+    <t>dE_do_t =</t>
+  </si>
+  <si>
+    <t>o[t]</t>
+  </si>
+  <si>
+    <t>c[t]</t>
+  </si>
+  <si>
+    <t>dE_dc_t</t>
+  </si>
+  <si>
+    <t>numcell</t>
+  </si>
+  <si>
+    <t>step 1</t>
+  </si>
+  <si>
+    <t>np,multiply(dE_dh_t, self,o[t])</t>
+  </si>
+  <si>
+    <t>C_bar[t]</t>
+  </si>
+  <si>
+    <t>i[t]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> step 2</t>
+  </si>
+  <si>
+    <t>np,square(np,tanh(self,C[t]))</t>
+  </si>
+  <si>
+    <t>c[t-1]</t>
+  </si>
+  <si>
+    <t>f[t]</t>
+  </si>
+  <si>
+    <t>step 3</t>
+  </si>
+  <si>
+    <t>step 4</t>
+  </si>
+  <si>
+    <t>step 1 x step 3</t>
+  </si>
+  <si>
+    <t>step 5</t>
+  </si>
+  <si>
+    <t>dE_dc_tplus1 + step 4</t>
+  </si>
+  <si>
+    <t>dE_dc_t =</t>
+  </si>
+  <si>
+    <t>dE_di_t</t>
+  </si>
+  <si>
+    <t>np,multiply(dE_dc_t, self,C_bar[t])</t>
+  </si>
+  <si>
+    <t>dE_di_t =</t>
+  </si>
+  <si>
+    <t>dE_dcbar_t</t>
+  </si>
+  <si>
+    <t>np,multiply(dE_dc_t, self,i[t])</t>
+  </si>
+  <si>
+    <t>dE_dcbar_t =</t>
+  </si>
+  <si>
+    <t>dE_df_t</t>
+  </si>
+  <si>
+    <t>np,multiply(dE_dc_t, self,C[t - 1])</t>
+  </si>
+  <si>
+    <t>dE_df_t =</t>
+  </si>
+  <si>
+    <t>dE_dc_tminus1</t>
+  </si>
+  <si>
+    <t>np,multiply(dE_dc_t, self,f[t])</t>
+  </si>
+  <si>
+    <t>dE_dc_tminus1 =</t>
+  </si>
+  <si>
+    <t>dE_dzcbar_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">step1 = </t>
+  </si>
+  <si>
+    <t>np,tanh(self,z[t][0:self,numCells])</t>
+  </si>
+  <si>
+    <t>step 2</t>
+  </si>
+  <si>
+    <t>np,square(step 1)</t>
+  </si>
+  <si>
+    <t>np,multiply(dE_dcbar_t, step3)</t>
+  </si>
+  <si>
+    <t>dE_dzi_t</t>
+  </si>
+  <si>
+    <t>np,multiply(dE_di_t, self,i[t])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numcell - self,i[t] </t>
+  </si>
+  <si>
+    <t>np,multiply(step1,step2)</t>
+  </si>
+  <si>
+    <t>dE_dzf_t</t>
+  </si>
+  <si>
+    <t>np,multiply(dE_df_t, self,f[t])</t>
+  </si>
+  <si>
+    <t>step2 =</t>
+  </si>
+  <si>
+    <t>(np,ones(self,numCells) - self,f[t]))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dE_dzf_t = </t>
+  </si>
+  <si>
+    <t>dE_dzo_t</t>
+  </si>
+  <si>
+    <t>np,multiply(dE_do_t, self,o[t])</t>
+  </si>
+  <si>
+    <t>(np,ones(self,numCells) - self,o[t])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dE_dz_t </t>
+  </si>
+  <si>
+    <t>np,concatenate((dE_dzcbar_t, dE_dzi_t, dE_dzf_t, dE_dzo_t))</t>
+  </si>
+  <si>
+    <t>dE_dz_t =</t>
+  </si>
+  <si>
+    <t>dE_dI_t </t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>np,dot(np,transpose(self,W), dE_dz_t)</t>
+  </si>
+  <si>
+    <t>dE_dI_t  =</t>
+  </si>
+  <si>
+    <t>tranpose</t>
+  </si>
+  <si>
+    <t>dE_dh_tminus1</t>
+  </si>
+  <si>
+    <t>dE_dh_tminus1 = dE_dI_t[self,inputSize:]</t>
+  </si>
+  <si>
+    <t>self,I[t],shape</t>
+  </si>
+  <si>
+    <t>self,I[4],shape</t>
+  </si>
+  <si>
+    <t>(9, 1)</t>
+  </si>
+  <si>
+    <t>dE_dW_t</t>
+  </si>
+  <si>
+    <t>dE_dW_t = np,dot(dE_dz_t, np,transpose(self,I[t]))</t>
+  </si>
+  <si>
+    <t>MENGHASILKAN :</t>
+  </si>
+  <si>
+    <t>less than or greater than y</t>
+  </si>
+  <si>
+    <t>less than</t>
+  </si>
+  <si>
+    <t>greater than</t>
+  </si>
+  <si>
+    <t>dE_dc_tplus1</t>
+  </si>
+  <si>
+    <t>zi[t]</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>[ 0.86394079 -0.37913677  0.22818877 -0.94887844  0.21775601 -0.6956835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.22480547 -0.76817613 -0.77118395  0.9443432 ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 0.0913609  -0.85060627 -0.56545819 -0.77423161 -0.17196644 -0.87482022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.90297997  0.69329915  0.58182642  0.30196174]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 0.31899029  0.34327539  0.96107502  0.97837236 -0.84615996 -0.00125245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.20377116  0.78665058 -0.13707303 -0.05495177]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 0.76637926  0.19841454 -0.4868709   0.68627332 -0.18571367  0.45071876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.31414895 -0.11047331 -0.68725735  0.51708726]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-0.4042913  -0.08003587 -0.32195363  0.11004523 -0.40267145  0.95673443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.11629696 -0.03777653 -0.09562636  0.22961933]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 0.61015215  0.47654208  0.86653959  0.70575628 -0.04925937 -0.56939865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.94711339 -0.94098468  0.29828675 -0.49361885]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-0.52840149  0.13801146 -0.74134151  0.11258179 -0.33614299  0.8810676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.18566519 -0.70965298  0.02901104  0.43625473]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 0.90619516  0.60396889 -0.65245974 -0.58041795  0.78114252 -0.8576428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.86511696  0.84445154 -0.60953393  0.70765862]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 0.54609857  0.40275178 -0.25452422 -0.80014237  0.55607412 -0.29276106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.59033336 -0.89989086 -0.95767799 -0.42478185]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 0.01323623 -0.78017491 -0.64055545 -0.92962197  0.10742327  0.86868587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.76147181  0.81380442  0.24889323  0.90875058]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 0.22631616  0.87865746 -0.11547678  0.88445239  0.89685521  0.73290902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.71073403 -0.24645075  0.41202151 -0.3684214 ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 0.05524159  0.69346987  0.79065758  0.24706117  0.91721483  0.09717648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.32184797  0.80701442  0.89988506  0.84621035]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-0.49532413 -0.19076519 -0.66832841  0.12146568  0.1371827  -0.75405023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.01146835 -0.79758559 -0.5281087   0.74890449]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-0.6131006  -0.92246515 -0.0300005  -0.63864717 -0.19854442 -0.43800601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -0.04884519 -0.46246336  0.51938548 -0.58453034]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 0.09108148 -0.41123875 -0.00812223 -0.30472052 -0.46737418 -0.43823415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.38208499 -0.47844094 -0.72955685  0.96414357]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 0.9774099   0.72993854  0.5713537  -0.3316033  -0.62884863 -0.18298888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.86951078  0.40118368  0.24264538 -0.69678731]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">output </t>
+  </si>
+  <si>
+    <t>1 - step 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dE_dzo_t = </t>
+  </si>
+  <si>
+    <t>W Transpose</t>
+  </si>
+  <si>
+    <t>self,I[t] = h-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,8 +776,16 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="41">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -633,8 +1013,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -844,12 +1248,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -892,7 +1309,7 @@
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -910,24 +1327,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -942,14 +1347,8 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -968,53 +1367,161 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="44" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="44" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="43" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="45">
-    <cellStyle name="20% - Accent1 2" xfId="22" xr:uid="{447ABFBE-B5F1-4CAF-AB10-969A2B064948}"/>
-    <cellStyle name="20% - Accent2 2" xfId="26" xr:uid="{6E4E7C76-456D-4984-B3B1-EDE947E67E48}"/>
-    <cellStyle name="20% - Accent3 2" xfId="30" xr:uid="{2A3E0CDE-AF54-4C54-9E27-4F2FAA41BDFA}"/>
-    <cellStyle name="20% - Accent4 2" xfId="34" xr:uid="{4E2B6874-FEF2-4FEF-BF65-D8519E2ECBC8}"/>
-    <cellStyle name="20% - Accent5 2" xfId="38" xr:uid="{76704CBA-8A58-4AE7-8217-91579DBEB646}"/>
-    <cellStyle name="20% - Accent6 2" xfId="42" xr:uid="{B1D72A9F-0951-4F94-BBD7-9A6215410BC6}"/>
-    <cellStyle name="40% - Accent1 2" xfId="23" xr:uid="{D556BEAB-7D62-46D6-9FF2-A178143D1AA1}"/>
-    <cellStyle name="40% - Accent2 2" xfId="27" xr:uid="{8A3A7A2B-1E5F-4ABA-B1F3-64BE1BEF0E35}"/>
-    <cellStyle name="40% - Accent3 2" xfId="31" xr:uid="{86905CA7-4D9B-4310-AB85-4D570A618C48}"/>
-    <cellStyle name="40% - Accent4 2" xfId="35" xr:uid="{10F54E13-4577-45B6-981C-A48005DD73E2}"/>
-    <cellStyle name="40% - Accent5 2" xfId="39" xr:uid="{DD34090A-AD51-4B1C-9597-B4FFE41567B6}"/>
-    <cellStyle name="40% - Accent6 2" xfId="43" xr:uid="{2A8DC2D1-E3B2-419C-8722-68C76761A3D7}"/>
-    <cellStyle name="60% - Accent1 2" xfId="24" xr:uid="{08F120BD-0728-46BC-A67D-1D457CAB21F4}"/>
-    <cellStyle name="60% - Accent2 2" xfId="28" xr:uid="{88D0CEC7-0485-4CCA-8E96-0430D166DD1A}"/>
-    <cellStyle name="60% - Accent3 2" xfId="32" xr:uid="{F18C3A6C-3174-44EF-8C23-AF0D2FF57DD7}"/>
-    <cellStyle name="60% - Accent4 2" xfId="36" xr:uid="{3560A207-BFE4-44B9-A227-A978A4276AE4}"/>
-    <cellStyle name="60% - Accent5 2" xfId="40" xr:uid="{67FCA566-A473-467B-8FE3-E0C04CD95299}"/>
-    <cellStyle name="60% - Accent6 2" xfId="44" xr:uid="{98645519-B9D1-4E61-9004-175A996C8511}"/>
-    <cellStyle name="Accent1 2" xfId="21" xr:uid="{DF5BF87A-1E6F-4AD5-B3AB-67A9A792AAB1}"/>
-    <cellStyle name="Accent2 2" xfId="25" xr:uid="{16F556CC-E987-4814-93BD-5AA4707367A1}"/>
-    <cellStyle name="Accent3 2" xfId="29" xr:uid="{1ABF2154-19F8-4CB5-853B-7A569909C440}"/>
-    <cellStyle name="Accent4 2" xfId="33" xr:uid="{C65613CC-DC46-4B47-BB8A-F47EA7323B0B}"/>
-    <cellStyle name="Accent5 2" xfId="37" xr:uid="{B8D629F8-6E58-481E-81A9-D31AB07A21DD}"/>
-    <cellStyle name="Accent6 2" xfId="41" xr:uid="{29B0B692-C92A-453A-8D68-598D2A05E9DD}"/>
-    <cellStyle name="Bad 2" xfId="10" xr:uid="{89428D6C-FF6D-4A58-93A1-B95692480E92}"/>
-    <cellStyle name="Calculation 2" xfId="14" xr:uid="{71478048-6376-442E-BEF3-841441B789E8}"/>
-    <cellStyle name="Check Cell 2" xfId="16" xr:uid="{3EBF0A15-2744-43E2-A46D-ECBBCD8C0862}"/>
-    <cellStyle name="Comma [0] 2" xfId="3" xr:uid="{3AE9C166-F66A-44F3-9B7E-BB4B8FF145A3}"/>
-    <cellStyle name="Explanatory Text 2" xfId="19" xr:uid="{2D51D124-3540-478E-B0B9-A96E4BC6E614}"/>
-    <cellStyle name="Good 2" xfId="9" xr:uid="{BE691476-0673-4AC9-8675-B0A5CF1EB9DC}"/>
-    <cellStyle name="Heading 1 2" xfId="5" xr:uid="{BB1CC9E5-9FF7-44CD-9F38-4D0E9642DBE2}"/>
-    <cellStyle name="Heading 2 2" xfId="6" xr:uid="{3542EF52-DD5D-4280-94A5-0100C3A04C20}"/>
-    <cellStyle name="Heading 3 2" xfId="7" xr:uid="{1257B074-B468-41EA-8AE8-8A9A93134CB1}"/>
-    <cellStyle name="Heading 4 2" xfId="8" xr:uid="{798A769B-AEF8-446C-858C-EF06EA27C269}"/>
-    <cellStyle name="Input 2" xfId="12" xr:uid="{7D7E51B3-8391-4848-BAF1-7751861E6415}"/>
-    <cellStyle name="Linked Cell 2" xfId="15" xr:uid="{C3FEC8BE-8CF1-473A-9E43-CECABD59C1BC}"/>
-    <cellStyle name="Neutral 2" xfId="11" xr:uid="{5E983915-33B7-4666-90BF-8E26E63DE98D}"/>
+    <cellStyle name="20% - Accent1 2" xfId="22"/>
+    <cellStyle name="20% - Accent2 2" xfId="26"/>
+    <cellStyle name="20% - Accent3 2" xfId="30"/>
+    <cellStyle name="20% - Accent4 2" xfId="34"/>
+    <cellStyle name="20% - Accent5 2" xfId="38"/>
+    <cellStyle name="20% - Accent6 2" xfId="42"/>
+    <cellStyle name="40% - Accent1 2" xfId="23"/>
+    <cellStyle name="40% - Accent2 2" xfId="27"/>
+    <cellStyle name="40% - Accent3 2" xfId="31"/>
+    <cellStyle name="40% - Accent4 2" xfId="35"/>
+    <cellStyle name="40% - Accent5 2" xfId="39"/>
+    <cellStyle name="40% - Accent6 2" xfId="43"/>
+    <cellStyle name="60% - Accent1 2" xfId="24"/>
+    <cellStyle name="60% - Accent2 2" xfId="28"/>
+    <cellStyle name="60% - Accent3 2" xfId="32"/>
+    <cellStyle name="60% - Accent4 2" xfId="36"/>
+    <cellStyle name="60% - Accent5 2" xfId="40"/>
+    <cellStyle name="60% - Accent6 2" xfId="44"/>
+    <cellStyle name="Accent1 2" xfId="21"/>
+    <cellStyle name="Accent2 2" xfId="25"/>
+    <cellStyle name="Accent3 2" xfId="29"/>
+    <cellStyle name="Accent4 2" xfId="33"/>
+    <cellStyle name="Accent5 2" xfId="37"/>
+    <cellStyle name="Accent6 2" xfId="41"/>
+    <cellStyle name="Bad 2" xfId="10"/>
+    <cellStyle name="Calculation 2" xfId="14"/>
+    <cellStyle name="Check Cell 2" xfId="16"/>
+    <cellStyle name="Comma [0] 2" xfId="3"/>
+    <cellStyle name="Explanatory Text 2" xfId="19"/>
+    <cellStyle name="Good 2" xfId="9"/>
+    <cellStyle name="Heading 1 2" xfId="5"/>
+    <cellStyle name="Heading 2 2" xfId="6"/>
+    <cellStyle name="Heading 3 2" xfId="7"/>
+    <cellStyle name="Heading 4 2" xfId="8"/>
+    <cellStyle name="Input 2" xfId="12"/>
+    <cellStyle name="Linked Cell 2" xfId="15"/>
+    <cellStyle name="Neutral 2" xfId="11"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{611268CF-9521-4067-9CD8-A7059F9DD0E7}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{9A120E55-0484-4D30-80F3-B48B48174A45}"/>
-    <cellStyle name="Note 2" xfId="18" xr:uid="{ACE0077B-7F98-443C-A63F-2B06EFD29038}"/>
-    <cellStyle name="Output 2" xfId="13" xr:uid="{C8204C57-D118-44B9-8D00-3B437679ED9F}"/>
-    <cellStyle name="Title 2" xfId="4" xr:uid="{DFA54139-6277-489D-86D6-82D5A768E6FB}"/>
-    <cellStyle name="Total 2" xfId="20" xr:uid="{60EC27B3-0D9E-4D48-A4B1-2D7780D89B43}"/>
-    <cellStyle name="Warning Text 2" xfId="17" xr:uid="{6D22105B-F432-4E22-95B0-D12FDA10FFF0}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Note 2" xfId="18"/>
+    <cellStyle name="Output 2" xfId="13"/>
+    <cellStyle name="Title 2" xfId="4"/>
+    <cellStyle name="Total 2" xfId="20"/>
+    <cellStyle name="Warning Text 2" xfId="17"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1187,8 +1694,8 @@
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="327846" cy="174984"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11">
@@ -1230,6 +1737,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1275,7 +1783,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11">
@@ -1393,16 +1901,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>36087</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>87871</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>150102</xdr:rowOff>
+      <xdr:colOff>363559</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2532</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1425,8 +1933,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13601700" y="3095625"/>
-          <a:ext cx="2771775" cy="1054977"/>
+          <a:off x="13773552" y="2341674"/>
+          <a:ext cx="2742261" cy="1041562"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1437,16 +1945,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>5368</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>183526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>489165</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>113532</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>52859</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1469,8 +1977,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13611226" y="4267201"/>
-          <a:ext cx="3156164" cy="438150"/>
+          <a:off x="13742833" y="3376413"/>
+          <a:ext cx="3126650" cy="432784"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2921,11 +3429,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3327D5CC-AB68-4502-BCC9-0E8237AFEFC7}">
-  <dimension ref="A1:W46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG46"/>
   <sheetViews>
-    <sheetView topLeftCell="H22" workbookViewId="0">
-      <selection activeCell="X41" sqref="X41"/>
+    <sheetView topLeftCell="A9" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2939,7 +3447,7 @@
     <col min="14" max="14" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2950,7 +3458,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:33">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2958,13 +3466,13 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
+        <v>60</v>
+      </c>
+      <c r="T2" t="s">
         <v>61</v>
       </c>
-      <c r="T2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+    </row>
+    <row r="3" spans="1:33">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2975,10 +3483,10 @@
         <v>28</v>
       </c>
       <c r="N3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
       <c r="M4" s="4" t="s">
         <v>29</v>
       </c>
@@ -2987,153 +3495,157 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:33">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>0.5</v>
       </c>
-      <c r="M5" s="14">
-        <v>9.2070269999999996E-2</v>
-      </c>
-      <c r="N5" s="14">
-        <v>-0.18060661</v>
-      </c>
-      <c r="O5" s="14">
-        <v>0.98946575000000003</v>
-      </c>
-      <c r="P5" s="14">
-        <v>-0.48309076000000001</v>
-      </c>
-      <c r="Q5" s="22">
-        <v>0.94051534000000003</v>
-      </c>
-      <c r="R5">
-        <v>0.64351658</v>
-      </c>
-      <c r="S5">
-        <v>-0.48806959</v>
-      </c>
-      <c r="T5">
-        <v>0.72559264000000001</v>
-      </c>
-      <c r="U5">
-        <v>-0.60016537000000003</v>
-      </c>
-      <c r="V5" s="22">
-        <v>0.94051534000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="M5" s="56">
+        <v>-0.24571428566790501</v>
+      </c>
+      <c r="N5" s="56">
+        <v>0.85036060194095398</v>
+      </c>
+      <c r="O5" s="56">
+        <v>2.92620451446696E-2</v>
+      </c>
+      <c r="P5" s="56">
+        <v>0.184398086691373</v>
+      </c>
+      <c r="Q5" s="56">
+        <v>0.95933570867949003</v>
+      </c>
+      <c r="R5" s="56">
+        <v>-9.9485081832568698E-2</v>
+      </c>
+      <c r="S5" s="56">
+        <v>0.39216633927922701</v>
+      </c>
+      <c r="T5" s="56">
+        <v>-0.115332029515086</v>
+      </c>
+      <c r="U5" s="56">
+        <v>0.43777571266936699</v>
+      </c>
+      <c r="V5" s="56">
+        <v>-0.37798765435810799</v>
+      </c>
+      <c r="AG5" s="56"/>
+    </row>
+    <row r="6" spans="1:33">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="M6" s="14">
-        <v>0.46416453000000002</v>
-      </c>
-      <c r="N6" s="14">
-        <v>-0.72592599000000002</v>
-      </c>
-      <c r="O6" s="14">
-        <v>0.97322607999999999</v>
-      </c>
-      <c r="P6" s="14">
-        <v>-0.13671361000000001</v>
-      </c>
-      <c r="Q6" s="22">
-        <v>0.78195893999999999</v>
-      </c>
-      <c r="R6">
-        <v>0.75862401999999995</v>
-      </c>
-      <c r="S6">
-        <v>-9.9313380000000007E-2</v>
-      </c>
-      <c r="T6">
-        <v>-8.5406860000000001E-2</v>
-      </c>
-      <c r="U6">
-        <v>0.79411673999999999</v>
-      </c>
-      <c r="V6" s="22">
-        <v>0.78195893999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="M7" s="14">
-        <v>-0.36402844000000001</v>
-      </c>
-      <c r="N7" s="14">
-        <v>0.10979514999999999</v>
-      </c>
-      <c r="O7" s="14">
-        <v>0.99232940000000003</v>
-      </c>
-      <c r="P7" s="14">
-        <v>0.98477932999999995</v>
-      </c>
-      <c r="Q7" s="22">
-        <v>-0.24125406999999999</v>
-      </c>
-      <c r="R7">
-        <v>-0.91229965999999996</v>
-      </c>
-      <c r="S7">
-        <v>0.69716758000000001</v>
-      </c>
-      <c r="T7">
-        <v>-0.91751813999999998</v>
-      </c>
-      <c r="U7">
-        <v>-0.30359578999999998</v>
-      </c>
-      <c r="V7" s="22">
-        <v>-0.24125406999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="M6" s="56">
+        <v>0.86802039774552897</v>
+      </c>
+      <c r="N6" s="56">
+        <v>0.86042975449316705</v>
+      </c>
+      <c r="O6" s="56">
+        <v>-0.37958092521959402</v>
+      </c>
+      <c r="P6" s="56">
+        <v>7.9506914225139003E-2</v>
+      </c>
+      <c r="Q6" s="56">
+        <v>0.40254345863788299</v>
+      </c>
+      <c r="R6" s="56">
+        <v>0.75986215578417904</v>
+      </c>
+      <c r="S6" s="56">
+        <v>-0.242968242321522</v>
+      </c>
+      <c r="T6" s="56">
+        <v>-0.86908489349029905</v>
+      </c>
+      <c r="U6" s="56">
+        <v>0.69643092862904399</v>
+      </c>
+      <c r="V6" s="56">
+        <v>0.77122355462346104</v>
+      </c>
+      <c r="AG6" s="56"/>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="M7" s="56">
+        <v>-0.20644416090359599</v>
+      </c>
+      <c r="N7" s="56">
+        <v>-0.248561659698114</v>
+      </c>
+      <c r="O7" s="56">
+        <v>-8.52532467742039E-2</v>
+      </c>
+      <c r="P7" s="56">
+        <v>0.25112624003832001</v>
+      </c>
+      <c r="Q7" s="56">
+        <v>-0.20415488921559699</v>
+      </c>
+      <c r="R7" s="56">
+        <v>0.89488657964323504</v>
+      </c>
+      <c r="S7" s="56">
+        <v>-1.0754663727889E-2</v>
+      </c>
+      <c r="T7" s="56">
+        <v>0.47624777903135401</v>
+      </c>
+      <c r="U7" s="56">
+        <v>0.98462066896193601</v>
+      </c>
+      <c r="V7" s="56">
+        <v>0.85811756102465997</v>
+      </c>
+      <c r="AG7" s="56"/>
+    </row>
+    <row r="8" spans="1:33">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="G8" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="14">
-        <v>0.32902436000000002</v>
-      </c>
-      <c r="N8" s="14">
-        <v>-0.31113299</v>
-      </c>
-      <c r="O8" s="14">
-        <v>0.76189837000000005</v>
-      </c>
-      <c r="P8" s="14">
-        <v>-0.24283255000000001</v>
-      </c>
-      <c r="Q8" s="22">
-        <v>-0.27988010000000002</v>
-      </c>
-      <c r="R8">
-        <v>0.28109382999999999</v>
-      </c>
-      <c r="S8">
-        <v>0.87780007000000004</v>
-      </c>
-      <c r="T8">
-        <v>-0.30435860999999997</v>
-      </c>
-      <c r="U8">
-        <v>0.22550630999999999</v>
-      </c>
-      <c r="V8" s="22">
-        <v>-0.27988010000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="M8" s="56">
+        <v>0.84287438280084104</v>
+      </c>
+      <c r="N8" s="56">
+        <v>-0.32420606505682098</v>
+      </c>
+      <c r="O8" s="56">
+        <v>0.90772282903366497</v>
+      </c>
+      <c r="P8" s="56">
+        <v>-0.59373879210080704</v>
+      </c>
+      <c r="Q8" s="56">
+        <v>0.62190803906297498</v>
+      </c>
+      <c r="R8" s="56">
+        <v>0.54049934907390895</v>
+      </c>
+      <c r="S8" s="56">
+        <v>0.49659237129921802</v>
+      </c>
+      <c r="T8" s="56">
+        <v>-8.2000833192932499E-2</v>
+      </c>
+      <c r="U8" s="56">
+        <v>-7.8056646290275797E-2</v>
+      </c>
+      <c r="V8" s="56">
+        <v>-0.912741137728037</v>
+      </c>
+      <c r="AG8" s="56"/>
+    </row>
+    <row r="9" spans="1:33">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -3164,791 +3676,811 @@
       <c r="K9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="14">
-        <v>-0.70578598999999997</v>
-      </c>
-      <c r="N9" s="14">
-        <v>0.13712289</v>
-      </c>
-      <c r="O9" s="14">
-        <v>-0.96032757000000002</v>
-      </c>
-      <c r="P9" s="14">
-        <v>-6.0287640000000003E-2</v>
-      </c>
-      <c r="Q9" s="22">
-        <v>0.51723034999999995</v>
-      </c>
-      <c r="R9">
-        <v>-0.20469428000000001</v>
-      </c>
-      <c r="S9">
-        <v>-0.15315317000000001</v>
-      </c>
-      <c r="T9">
-        <v>0.58772740000000001</v>
-      </c>
-      <c r="U9">
-        <v>0.51960251999999996</v>
-      </c>
-      <c r="V9" s="22">
-        <v>0.51723034999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10" s="25">
+      <c r="M9" s="56">
+        <v>-3.3688638013480598E-2</v>
+      </c>
+      <c r="N9" s="56">
+        <v>-0.37633417815307302</v>
+      </c>
+      <c r="O9" s="56">
+        <v>0.106290154056943</v>
+      </c>
+      <c r="P9" s="56">
+        <v>-0.476211950266822</v>
+      </c>
+      <c r="Q9" s="56">
+        <v>-0.281579612441484</v>
+      </c>
+      <c r="R9" s="56">
+        <v>-0.77199317520024102</v>
+      </c>
+      <c r="S9" s="56">
+        <v>-0.72069876899548801</v>
+      </c>
+      <c r="T9" s="56">
+        <v>-0.42186846550169199</v>
+      </c>
+      <c r="U9" s="56">
+        <v>0.23591815774516101</v>
+      </c>
+      <c r="V9" s="56">
+        <v>0.16129818738304899</v>
+      </c>
+      <c r="AG9" s="56"/>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="A10" s="21">
         <v>41047</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="22">
         <v>42.049999</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="22">
         <v>45</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="22">
         <v>38</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="22">
         <v>38.229999999999997</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="16">
         <f>A10</f>
         <v>41047</v>
       </c>
       <c r="H10">
-        <f>(B10-B$20)/B$21</f>
+        <f t="shared" ref="H10:H19" si="0">(B10-B$20)/B$21</f>
         <v>0.32104638099991395</v>
       </c>
       <c r="I10">
-        <f>(C10-C$20)/C$21</f>
+        <f t="shared" ref="I10:I19" si="1">(C10-C$20)/C$21</f>
         <v>0.35222222222222227</v>
       </c>
       <c r="J10">
-        <f>(D10-D$20)/D$21</f>
+        <f t="shared" ref="J10:J19" si="2">(D10-D$20)/D$21</f>
         <v>0.29394736842105268</v>
       </c>
       <c r="K10">
-        <f>(E10-E$20)/E$21</f>
+        <f t="shared" ref="K10:K19" si="3">(E10-E$20)/E$21</f>
         <v>0.27491501438660726</v>
       </c>
-      <c r="M10" s="14">
-        <v>-0.37942954000000001</v>
-      </c>
-      <c r="N10" s="14">
-        <v>-3.6462420000000002E-2</v>
-      </c>
-      <c r="O10" s="14">
-        <v>-0.82212567999999997</v>
-      </c>
-      <c r="P10" s="14">
-        <v>-1.5787249999999999E-2</v>
-      </c>
-      <c r="Q10" s="22">
-        <v>-0.12805424000000001</v>
-      </c>
-      <c r="R10">
-        <v>0.19358212</v>
-      </c>
-      <c r="S10">
-        <v>-0.53030670999999996</v>
-      </c>
-      <c r="T10">
-        <v>0.92523288000000004</v>
-      </c>
-      <c r="U10">
-        <v>-0.81812600999999996</v>
-      </c>
-      <c r="V10" s="22">
-        <v>-0.12805424000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" s="25">
+      <c r="M10" s="56">
+        <v>0.63718613541014402</v>
+      </c>
+      <c r="N10" s="56">
+        <v>6.4674992228903605E-2</v>
+      </c>
+      <c r="O10" s="56">
+        <v>0.79265583347785296</v>
+      </c>
+      <c r="P10" s="56">
+        <v>-0.62277947400202505</v>
+      </c>
+      <c r="Q10" s="56">
+        <v>-0.75087270017404195</v>
+      </c>
+      <c r="R10" s="56">
+        <v>-4.0263882830577198E-2</v>
+      </c>
+      <c r="S10" s="56">
+        <v>-0.90475694619612901</v>
+      </c>
+      <c r="T10" s="56">
+        <v>-0.52496061466262001</v>
+      </c>
+      <c r="U10" s="56">
+        <v>-0.64859607081584503</v>
+      </c>
+      <c r="V10" s="56">
+        <v>5.6959619118414198E-2</v>
+      </c>
+      <c r="AG10" s="56"/>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="A11" s="21">
         <v>41050</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="22">
         <v>36.529998999999997</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="22">
         <v>36.659999999999997</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="22">
         <v>33</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="22">
         <v>34.029998999999997</v>
       </c>
-      <c r="G11" s="19">
-        <f t="shared" ref="G11:G18" si="0">A11</f>
+      <c r="G11" s="16">
+        <f t="shared" ref="G11:G18" si="4">A11</f>
         <v>41050</v>
       </c>
       <c r="H11">
-        <f>(B11-B$20)/B$21</f>
+        <f t="shared" si="0"/>
         <v>0.18977408299106016</v>
       </c>
       <c r="I11">
-        <f>(C11-C$20)/C$21</f>
+        <f t="shared" si="1"/>
         <v>0.16688888888888884</v>
       </c>
       <c r="J11">
-        <f>(D11-D$20)/D$21</f>
+        <f t="shared" si="2"/>
         <v>0.16236842105263163</v>
       </c>
       <c r="K11">
-        <f>(E11-E$20)/E$21</f>
+        <f t="shared" si="3"/>
         <v>0.16505362280931193</v>
       </c>
-      <c r="M11" s="14">
-        <v>0.85010693000000004</v>
-      </c>
-      <c r="N11" s="14">
-        <v>0.57612326000000003</v>
-      </c>
-      <c r="O11" s="14">
-        <v>-0.19705865</v>
-      </c>
-      <c r="P11" s="14">
-        <v>-0.14078874</v>
-      </c>
-      <c r="Q11" s="22">
-        <v>-0.71352917999999999</v>
-      </c>
-      <c r="R11">
-        <v>1.6759179999999999E-2</v>
-      </c>
-      <c r="S11">
-        <v>0.18472474999999999</v>
-      </c>
-      <c r="T11" s="17">
-        <v>0.87480990999999997</v>
-      </c>
-      <c r="U11">
-        <v>0.56895532999999998</v>
-      </c>
-      <c r="V11" s="22">
-        <v>-0.71352917999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="25">
+      <c r="M11" s="56">
+        <v>-0.91169719770305402</v>
+      </c>
+      <c r="N11" s="56">
+        <v>-0.91663759835016501</v>
+      </c>
+      <c r="O11" s="56">
+        <v>0.58263103190466103</v>
+      </c>
+      <c r="P11" s="56">
+        <v>0.54204509846008997</v>
+      </c>
+      <c r="Q11" s="56">
+        <v>0.13065204355176299</v>
+      </c>
+      <c r="R11" s="56">
+        <v>-0.232408057101884</v>
+      </c>
+      <c r="S11" s="56">
+        <v>-0.29982545778926001</v>
+      </c>
+      <c r="T11" s="56">
+        <v>0.387831388002504</v>
+      </c>
+      <c r="U11" s="56">
+        <v>-0.70537503491824105</v>
+      </c>
+      <c r="V11" s="56">
+        <v>5.4400065890228097E-2</v>
+      </c>
+      <c r="AG11" s="56"/>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="A12" s="21">
         <v>41051</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="22">
         <v>32.610000999999997</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="22">
         <v>33.590000000000003</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="22">
         <v>30.940000999999999</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="22">
         <v>31</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="16">
+        <f t="shared" si="4"/>
+        <v>41051</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="0"/>
-        <v>41051</v>
-      </c>
-      <c r="H12">
-        <f>(B12-B$20)/B$21</f>
         <v>9.6551773996474938E-2</v>
       </c>
       <c r="I12">
-        <f>(C12-C$20)/C$21</f>
+        <f t="shared" si="1"/>
         <v>9.8666666666666777E-2</v>
       </c>
       <c r="J12">
-        <f>(D12-D$20)/D$21</f>
+        <f t="shared" si="2"/>
         <v>0.1081579210526316</v>
       </c>
       <c r="K12">
-        <f>(E12-E$20)/E$21</f>
+        <f t="shared" si="3"/>
         <v>8.5796521056761679E-2</v>
       </c>
-      <c r="M12" s="14">
-        <v>-0.39285850999999999</v>
-      </c>
-      <c r="N12" s="14">
-        <v>0.44274956999999998</v>
-      </c>
-      <c r="O12" s="14">
-        <v>-9.7187120000000002E-2</v>
-      </c>
-      <c r="P12" s="14">
-        <v>0.30892256000000001</v>
-      </c>
-      <c r="Q12" s="22">
-        <v>-0.15118586000000001</v>
-      </c>
-      <c r="R12">
-        <v>0.19277667000000001</v>
-      </c>
-      <c r="S12">
-        <v>-0.44200490999999997</v>
-      </c>
-      <c r="T12" s="17">
-        <v>0.21791457</v>
-      </c>
-      <c r="U12">
-        <v>-0.57602991999999997</v>
-      </c>
-      <c r="V12" s="22">
-        <v>-0.15118586000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="A13" s="25">
+      <c r="M12" s="56">
+        <v>-0.73101821009060897</v>
+      </c>
+      <c r="N12" s="56">
+        <v>0.43617224360187501</v>
+      </c>
+      <c r="O12" s="56">
+        <v>-0.312168511613377</v>
+      </c>
+      <c r="P12" s="56">
+        <v>-0.32548577581627902</v>
+      </c>
+      <c r="Q12" s="56">
+        <v>-0.59304823356445002</v>
+      </c>
+      <c r="R12" s="56">
+        <v>4.4100620359316597E-2</v>
+      </c>
+      <c r="S12" s="56">
+        <v>-0.66962364949557396</v>
+      </c>
+      <c r="T12" s="56">
+        <v>0.45575040903341901</v>
+      </c>
+      <c r="U12" s="56">
+        <v>-0.32761969644373001</v>
+      </c>
+      <c r="V12" s="56">
+        <v>-4.3612854880400898E-2</v>
+      </c>
+      <c r="AG12" s="56"/>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="A13" s="21">
         <v>41052</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="22">
         <v>31.370000999999998</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="22">
         <v>32.5</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="22">
         <v>31.360001</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="22">
         <v>32</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="16">
+        <f t="shared" si="4"/>
+        <v>41052</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="0"/>
-        <v>41052</v>
-      </c>
-      <c r="H13">
-        <f>(B13-B$20)/B$21</f>
         <v>6.7063069371297704E-2</v>
       </c>
       <c r="I13">
-        <f>(C13-C$20)/C$21</f>
+        <f t="shared" si="1"/>
         <v>7.444444444444448E-2</v>
       </c>
       <c r="J13">
-        <f>(D13-D$20)/D$21</f>
+        <f t="shared" si="2"/>
         <v>0.11921055263157901</v>
       </c>
       <c r="K13">
-        <f>(E13-E$20)/E$21</f>
+        <f t="shared" si="3"/>
         <v>0.11195398901386343</v>
       </c>
-      <c r="M13" s="14">
-        <v>-0.82451772999999995</v>
-      </c>
-      <c r="N13" s="14">
-        <v>0.56976585999999996</v>
-      </c>
-      <c r="O13" s="14">
-        <v>0.51111094999999995</v>
-      </c>
-      <c r="P13" s="14">
-        <v>0.46611578999999997</v>
-      </c>
-      <c r="Q13" s="22">
-        <v>-5.9235719999999999E-2</v>
-      </c>
-      <c r="R13">
-        <v>5.0274609999999997E-2</v>
-      </c>
-      <c r="S13">
-        <v>-9.292947E-2</v>
-      </c>
-      <c r="T13" s="17">
-        <v>0.96217925999999998</v>
-      </c>
-      <c r="U13">
-        <v>-0.97011537999999997</v>
-      </c>
-      <c r="V13" s="22">
-        <v>-5.9235719999999999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="A14" s="25">
+      <c r="M13" s="56">
+        <v>0.422948332023037</v>
+      </c>
+      <c r="N13" s="56">
+        <v>-0.43776731755294501</v>
+      </c>
+      <c r="O13" s="56">
+        <v>0.90236966873465996</v>
+      </c>
+      <c r="P13" s="56">
+        <v>0.98390974381523899</v>
+      </c>
+      <c r="Q13" s="56">
+        <v>-0.58665370366138203</v>
+      </c>
+      <c r="R13" s="56">
+        <v>0.18483402433478699</v>
+      </c>
+      <c r="S13" s="56">
+        <v>0.26953863477411599</v>
+      </c>
+      <c r="T13" s="56">
+        <v>-0.48213197379355999</v>
+      </c>
+      <c r="U13" s="56">
+        <v>0.64127493451894502</v>
+      </c>
+      <c r="V13" s="56">
+        <v>-0.46089027443845998</v>
+      </c>
+      <c r="AG13" s="56"/>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="A14" s="21">
         <v>41053</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="22">
         <v>32.950001</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="22">
         <v>33.209999000000003</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="22">
         <v>31.77</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="22">
         <v>33.029998999999997</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="16">
+        <f t="shared" si="4"/>
+        <v>41053</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="0"/>
-        <v>41053</v>
-      </c>
-      <c r="H14">
-        <f>(B14-B$20)/B$21</f>
         <v>0.10463738655499137</v>
       </c>
       <c r="I14">
-        <f>(C14-C$20)/C$21</f>
+        <f t="shared" si="1"/>
         <v>9.0222200000000113E-2</v>
       </c>
       <c r="J14">
-        <f>(D14-D$20)/D$21</f>
+        <f t="shared" si="2"/>
         <v>0.13000000000000003</v>
       </c>
       <c r="K14">
-        <f>(E14-E$20)/E$21</f>
+        <f t="shared" si="3"/>
         <v>0.13889615485221019</v>
       </c>
-      <c r="M14" s="14">
-        <v>-0.29835630000000002</v>
-      </c>
-      <c r="N14" s="14">
-        <v>0.62251087999999999</v>
-      </c>
-      <c r="O14" s="14">
-        <v>-0.47986506000000001</v>
-      </c>
-      <c r="P14" s="14">
-        <v>-0.58596497000000003</v>
-      </c>
-      <c r="Q14" s="22">
-        <v>-8.0542989999999995E-2</v>
-      </c>
-      <c r="R14">
-        <v>0.76385080999999999</v>
-      </c>
-      <c r="S14">
-        <v>-0.32009015000000002</v>
-      </c>
-      <c r="T14" s="17">
-        <v>-0.17905731999999999</v>
-      </c>
-      <c r="U14">
-        <v>0.77038983999999999</v>
-      </c>
-      <c r="V14" s="22">
-        <v>-8.0542989999999995E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="A15" s="25">
+      <c r="M14" s="56">
+        <v>-0.32251625653697003</v>
+      </c>
+      <c r="N14" s="56">
+        <v>-0.71297747540941403</v>
+      </c>
+      <c r="O14" s="56">
+        <v>-0.29056653558819001</v>
+      </c>
+      <c r="P14" s="56">
+        <v>-0.49684985298294598</v>
+      </c>
+      <c r="Q14" s="56">
+        <v>-0.58580241667415001</v>
+      </c>
+      <c r="R14" s="56">
+        <v>0.324760846625892</v>
+      </c>
+      <c r="S14" s="56">
+        <v>-0.136000234636562</v>
+      </c>
+      <c r="T14" s="56">
+        <v>-0.79160649393643101</v>
+      </c>
+      <c r="U14" s="56">
+        <v>0.62867453942059603</v>
+      </c>
+      <c r="V14" s="56">
+        <v>0.16489798712270701</v>
+      </c>
+      <c r="AG14" s="56"/>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="A15" s="21">
         <v>41054</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="22">
         <v>32.900002000000001</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="22">
         <v>32.950001</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="22">
         <v>31.110001</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="22">
         <v>31.91</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="16">
+        <f t="shared" si="4"/>
+        <v>41054</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="0"/>
-        <v>41054</v>
-      </c>
-      <c r="H15">
-        <f>(B15-B$20)/B$21</f>
         <v>0.10344834966583473</v>
       </c>
       <c r="I15">
-        <f>(C15-C$20)/C$21</f>
+        <f t="shared" si="1"/>
         <v>8.4444466666666704E-2</v>
       </c>
       <c r="J15">
-        <f>(D15-D$20)/D$21</f>
+        <f t="shared" si="2"/>
         <v>0.11263160526315795</v>
       </c>
       <c r="K15">
-        <f>(E15-E$20)/E$21</f>
+        <f t="shared" si="3"/>
         <v>0.10959981689772427</v>
       </c>
-      <c r="M15" s="14">
-        <v>-0.66281316999999995</v>
-      </c>
-      <c r="N15" s="14">
-        <v>0.91078820999999999</v>
-      </c>
-      <c r="O15" s="14">
-        <v>0.13788891</v>
-      </c>
-      <c r="P15" s="14">
-        <v>-0.75973639000000004</v>
-      </c>
-      <c r="Q15" s="22">
-        <v>-0.24872589000000001</v>
-      </c>
-      <c r="R15">
-        <v>0.13412562</v>
-      </c>
-      <c r="S15">
-        <v>0.12609303999999999</v>
-      </c>
-      <c r="T15" s="17">
-        <v>0.53684158999999998</v>
-      </c>
-      <c r="U15">
-        <v>0.49328673000000001</v>
-      </c>
-      <c r="V15" s="22">
-        <v>-0.24872589000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="A16" s="25">
+      <c r="M15" s="56">
+        <v>-8.5563577975749705E-2</v>
+      </c>
+      <c r="N15" s="56">
+        <v>-0.86354554821761398</v>
+      </c>
+      <c r="O15" s="56">
+        <v>0.20694458527293799</v>
+      </c>
+      <c r="P15" s="56">
+        <v>-0.78311659057955896</v>
+      </c>
+      <c r="Q15" s="56">
+        <v>0.23243438399188701</v>
+      </c>
+      <c r="R15" s="56">
+        <v>-0.75814815425682303</v>
+      </c>
+      <c r="S15" s="56">
+        <v>0.67017113149798302</v>
+      </c>
+      <c r="T15" s="56">
+        <v>2.11558022796221E-3</v>
+      </c>
+      <c r="U15" s="56">
+        <v>0.92332832021988498</v>
+      </c>
+      <c r="V15" s="56">
+        <v>-0.72784152832272997</v>
+      </c>
+      <c r="AG15" s="56"/>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="A16" s="21">
         <v>41058</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="22">
         <v>31.48</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="22">
         <v>31.690000999999999</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="22">
         <v>28.65</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="22">
         <v>28.84</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="16">
+        <f t="shared" si="4"/>
+        <v>41058</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="0"/>
-        <v>41058</v>
-      </c>
-      <c r="H16">
-        <f>(B16-B$20)/B$21</f>
         <v>6.967897906489845E-2</v>
       </c>
       <c r="I16">
-        <f>(C16-C$20)/C$21</f>
+        <f t="shared" si="1"/>
         <v>5.6444466666666672E-2</v>
       </c>
       <c r="J16">
-        <f>(D16-D$20)/D$21</f>
+        <f t="shared" si="2"/>
         <v>4.7894736842105268E-2</v>
       </c>
       <c r="K16">
-        <f>(E16-E$20)/E$21</f>
+        <f t="shared" si="3"/>
         <v>2.9296390269421883E-2</v>
       </c>
-      <c r="M16" s="14">
-        <v>-0.76069925999999999</v>
-      </c>
-      <c r="N16" s="14">
-        <v>-0.36605156</v>
-      </c>
-      <c r="O16" s="14">
-        <v>0.85875714999999997</v>
-      </c>
-      <c r="P16" s="14">
-        <v>0.14243079</v>
-      </c>
-      <c r="Q16" s="22">
-        <v>-0.55055898999999997</v>
-      </c>
-      <c r="R16">
-        <v>-0.80545663000000001</v>
-      </c>
-      <c r="S16">
-        <v>0.67942734999999999</v>
-      </c>
-      <c r="T16" s="17">
-        <v>0.12406855999999999</v>
-      </c>
-      <c r="U16">
-        <v>-0.49728497999999999</v>
-      </c>
-      <c r="V16" s="22">
-        <v>-0.55055898999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23">
-      <c r="A17" s="25">
+      <c r="M16" s="56">
+        <v>-0.27839803785600797</v>
+      </c>
+      <c r="N16" s="56">
+        <v>-0.56810615556787003</v>
+      </c>
+      <c r="O16" s="56">
+        <v>0.16909449788559699</v>
+      </c>
+      <c r="P16" s="56">
+        <v>-0.14374156732430901</v>
+      </c>
+      <c r="Q16" s="56">
+        <v>0.62630421594589303</v>
+      </c>
+      <c r="R16" s="56">
+        <v>0.59097555657809597</v>
+      </c>
+      <c r="S16" s="56">
+        <v>0.188457129018791</v>
+      </c>
+      <c r="T16" s="56">
+        <v>-8.8438995884666305E-2</v>
+      </c>
+      <c r="U16" s="56">
+        <v>0.90578063072025505</v>
+      </c>
+      <c r="V16" s="56">
+        <v>-0.88197478195644097</v>
+      </c>
+      <c r="AG16" s="56"/>
+    </row>
+    <row r="17" spans="1:33">
+      <c r="A17" s="21">
         <v>41059</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="22">
         <v>28.700001</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="22">
         <v>29.549999</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="22">
         <v>27.860001</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="22">
         <v>28.190000999999999</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="16">
+        <f t="shared" si="4"/>
+        <v>41059</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="0"/>
-        <v>41059</v>
-      </c>
-      <c r="H17">
-        <f>(B17-B$20)/B$21</f>
         <v>3.5672295735369847E-3</v>
       </c>
       <c r="I17">
-        <f>(C17-C$20)/C$21</f>
+        <f t="shared" si="1"/>
         <v>8.8888666666666911E-3</v>
       </c>
       <c r="J17">
-        <f>(D17-D$20)/D$21</f>
+        <f t="shared" si="2"/>
         <v>2.7105289473684267E-2</v>
       </c>
       <c r="K17">
-        <f>(E17-E$20)/E$21</f>
+        <f t="shared" si="3"/>
         <v>1.2294062254773671E-2</v>
       </c>
-      <c r="M17" s="14">
-        <v>9.2070269999999996E-2</v>
-      </c>
-      <c r="N17" s="14">
-        <v>-0.36402844000000001</v>
-      </c>
-      <c r="O17" s="14">
-        <v>0.46416453000000002</v>
-      </c>
-      <c r="P17" s="14">
-        <v>0.32902436000000002</v>
-      </c>
-      <c r="Q17" s="14">
-        <v>-0.70578598999999997</v>
-      </c>
-      <c r="R17" s="14">
-        <v>-0.37942954000000001</v>
-      </c>
-      <c r="S17" s="14">
-        <v>0.85010693000000004</v>
-      </c>
-      <c r="T17" s="14">
-        <v>-0.39285850999999999</v>
-      </c>
-      <c r="U17" s="14">
-        <v>-0.39285850999999999</v>
-      </c>
-      <c r="V17">
-        <v>-0.49728497999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23">
-      <c r="A18" s="25">
+      <c r="M17" s="56">
+        <v>0.10084364551318201</v>
+      </c>
+      <c r="N17" s="56">
+        <v>-0.295229906505664</v>
+      </c>
+      <c r="O17" s="56">
+        <v>0.59368906530708698</v>
+      </c>
+      <c r="P17" s="56">
+        <v>-0.97344654545605402</v>
+      </c>
+      <c r="Q17" s="56">
+        <v>0.25539685132158702</v>
+      </c>
+      <c r="R17" s="56">
+        <v>0.82321609192014</v>
+      </c>
+      <c r="S17" s="56">
+        <v>0.55397886876325297</v>
+      </c>
+      <c r="T17" s="56">
+        <v>-6.1636168391381897E-2</v>
+      </c>
+      <c r="U17" s="56">
+        <v>-0.95446925122432003</v>
+      </c>
+      <c r="V17" s="56">
+        <v>0.25833182189588599</v>
+      </c>
+      <c r="AG17" s="56"/>
+    </row>
+    <row r="18" spans="1:33">
+      <c r="A18" s="21">
         <v>41060</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="22">
         <v>28.549999</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="22">
         <v>29.67</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="22">
         <v>26.83</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="22">
         <v>29.6</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="16">
+        <f t="shared" si="4"/>
+        <v>41060</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="0"/>
-        <v>41060</v>
-      </c>
-      <c r="H18">
-        <f>(B18-B$20)/B$21</f>
         <v>0</v>
       </c>
       <c r="I18">
-        <f>(C18-C$20)/C$21</f>
+        <f t="shared" si="1"/>
         <v>1.1555555555555624E-2</v>
       </c>
       <c r="J18">
-        <f>(D18-D$20)/D$21</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K18">
-        <f>(E18-E$20)/E$21</f>
+        <f t="shared" si="3"/>
         <v>4.9176065916819257E-2</v>
       </c>
-      <c r="M18" s="14">
-        <v>9.2070269999999996E-2</v>
-      </c>
-      <c r="N18" s="14">
-        <v>-0.18060661</v>
-      </c>
-      <c r="O18" s="14">
-        <v>0.98946575000000003</v>
-      </c>
-      <c r="P18" s="14">
-        <v>-0.48309076000000001</v>
-      </c>
-      <c r="Q18" s="22">
-        <v>0.94051534000000003</v>
-      </c>
-      <c r="R18">
-        <v>0.64351658</v>
-      </c>
-      <c r="S18">
-        <v>-0.48806959</v>
-      </c>
-      <c r="T18">
-        <v>0.72559264000000001</v>
-      </c>
-      <c r="U18">
-        <v>-0.60016537000000003</v>
-      </c>
-      <c r="V18" s="22">
-        <v>0.94051534000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23">
-      <c r="A19" s="27">
+      <c r="M18" s="56">
+        <v>-0.74387335851811298</v>
+      </c>
+      <c r="N18" s="56">
+        <v>0.84961193364862697</v>
+      </c>
+      <c r="O18" s="56">
+        <v>-0.99958067658662197</v>
+      </c>
+      <c r="P18" s="56">
+        <v>0.80442242644253603</v>
+      </c>
+      <c r="Q18" s="56">
+        <v>-0.584357739910914</v>
+      </c>
+      <c r="R18" s="56">
+        <v>-0.77521831110930295</v>
+      </c>
+      <c r="S18" s="56">
+        <v>0.37434472784919398</v>
+      </c>
+      <c r="T18" s="56">
+        <v>-0.64238117558075902</v>
+      </c>
+      <c r="U18" s="56">
+        <v>0.21701275843269399</v>
+      </c>
+      <c r="V18" s="56">
+        <v>-0.124984937433835</v>
+      </c>
+      <c r="AG18" s="56"/>
+    </row>
+    <row r="19" spans="1:33">
+      <c r="A19" s="23">
         <v>41061</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="24">
         <v>28.889999</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="24">
         <v>29.15</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="24">
         <v>27.389999</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="24">
         <v>27.719999000000001</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="16">
         <f>A19</f>
         <v>41061</v>
       </c>
       <c r="H19">
-        <f>(B19-B$20)/B$21</f>
+        <f t="shared" si="0"/>
         <v>8.0856125585163485E-3</v>
       </c>
       <c r="I19">
-        <f>(C19-C$20)/C$21</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J19">
-        <f>(D19-D$20)/D$21</f>
+        <f t="shared" si="2"/>
         <v>1.4736815789473718E-2</v>
       </c>
       <c r="K19">
-        <f>(E19-E$20)/E$21</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="14">
-        <v>0.46416453000000002</v>
-      </c>
-      <c r="N19" s="14">
-        <v>-0.72592599000000002</v>
-      </c>
-      <c r="O19" s="14">
-        <v>0.97322607999999999</v>
-      </c>
-      <c r="P19" s="14">
-        <v>-0.13671361000000001</v>
-      </c>
-      <c r="Q19" s="22">
-        <v>0.78195893999999999</v>
-      </c>
-      <c r="R19">
-        <v>0.75862401999999995</v>
-      </c>
-      <c r="S19">
-        <v>-9.9313380000000007E-2</v>
-      </c>
-      <c r="T19">
-        <v>-8.5406860000000001E-2</v>
-      </c>
-      <c r="U19">
-        <v>0.79411673999999999</v>
-      </c>
-      <c r="V19" s="22">
-        <v>0.78195893999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="56">
+        <v>-0.69024293478626797</v>
+      </c>
+      <c r="N19" s="56">
+        <v>0.220126548897839</v>
+      </c>
+      <c r="O19" s="56">
+        <v>-0.42138024293502901</v>
+      </c>
+      <c r="P19" s="56">
+        <v>0.70010880369407502</v>
+      </c>
+      <c r="Q19" s="56">
+        <v>-0.52137237014203397</v>
+      </c>
+      <c r="R19" s="56">
+        <v>0.83425682437096704</v>
+      </c>
+      <c r="S19" s="56">
+        <v>0.79766220000757304</v>
+      </c>
+      <c r="T19" s="56">
+        <v>0.97835733304528905</v>
+      </c>
+      <c r="U19" s="56">
+        <v>-0.32973610570879203</v>
+      </c>
+      <c r="V19" s="56">
+        <v>-0.60402167308474297</v>
+      </c>
+      <c r="AG19" s="56"/>
+    </row>
+    <row r="20" spans="1:33">
       <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="14">
         <f>MIN(B10:B19)</f>
         <v>28.549999</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="14">
         <f>MIN(C10:C19)</f>
         <v>29.15</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="14">
         <f>MIN(D10:D19)</f>
         <v>26.83</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="14">
         <f>MIN(E10:E19)</f>
         <v>27.719999000000001</v>
       </c>
-      <c r="M20" s="14">
-        <v>-0.36402844000000001</v>
-      </c>
-      <c r="N20" s="14">
-        <v>0.10979514999999999</v>
-      </c>
-      <c r="O20" s="14">
-        <v>0.99232940000000003</v>
-      </c>
-      <c r="P20" s="14">
-        <v>0.98477932999999995</v>
-      </c>
-      <c r="Q20" s="22">
-        <v>-0.24125406999999999</v>
-      </c>
-      <c r="R20">
-        <v>-0.91229965999999996</v>
-      </c>
-      <c r="S20">
-        <v>0.69716758000000001</v>
-      </c>
-      <c r="T20">
-        <v>-0.91751813999999998</v>
-      </c>
-      <c r="U20">
-        <v>-0.30359578999999998</v>
-      </c>
-      <c r="V20" s="22">
-        <v>-0.24125406999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="M20" s="56">
+        <v>0.34674523325583501</v>
+      </c>
+      <c r="N20" s="56">
+        <v>0.63582599694530895</v>
+      </c>
+      <c r="O20" s="56">
+        <v>-0.74845881874345699</v>
+      </c>
+      <c r="P20" s="56">
+        <v>0.107733446188696</v>
+      </c>
+      <c r="Q20" s="56">
+        <v>0.68142855183136697</v>
+      </c>
+      <c r="R20" s="56">
+        <v>0.19680125107297</v>
+      </c>
+      <c r="S20" s="56">
+        <v>0.43054744456285499</v>
+      </c>
+      <c r="T20" s="56">
+        <v>0.3177671688257</v>
+      </c>
+      <c r="U20" s="56">
+        <v>-0.548290639848664</v>
+      </c>
+      <c r="V20" s="56">
+        <v>0.46099053413924401</v>
+      </c>
+      <c r="AG20" s="56"/>
+    </row>
+    <row r="21" spans="1:33">
       <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="14">
         <f>MAX(B10:B19)</f>
         <v>42.049999</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="14">
         <f>MAX(C10:C19)</f>
         <v>45</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="14">
         <f>MAX(D10:D19)</f>
         <v>38</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="14">
         <f>MAX(E10:E19)</f>
         <v>38.229999999999997</v>
       </c>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="AG21" s="56"/>
+    </row>
+    <row r="22" spans="1:33">
+      <c r="AG22" s="56"/>
+    </row>
+    <row r="23" spans="1:33">
+      <c r="AG23" s="56"/>
+    </row>
+    <row r="24" spans="1:33">
       <c r="A24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23">
+        <v>64</v>
+      </c>
+      <c r="AG24" s="56"/>
+    </row>
+    <row r="25" spans="1:33">
       <c r="A25" s="4" t="s">
         <v>17</v>
       </c>
@@ -3958,7 +4490,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:33">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -3989,21 +4521,21 @@
       <c r="J26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M26" s="7" t="s">
+      <c r="M26" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
       <c r="V26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="15" customHeight="1">
+    <row r="27" spans="1:33" ht="15" customHeight="1">
       <c r="A27">
         <v>1</v>
       </c>
@@ -4011,19 +4543,19 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <f>H10</f>
+        <f t="shared" ref="C27:C36" si="5">H10</f>
         <v>0.32104638099991395</v>
       </c>
       <c r="D27">
-        <f>I10</f>
+        <f t="shared" ref="D27:D36" si="6">I10</f>
         <v>0.35222222222222227</v>
       </c>
       <c r="E27">
-        <f>J10</f>
+        <f t="shared" ref="E27:E36" si="7">J10</f>
         <v>0.29394736842105268</v>
       </c>
       <c r="F27">
-        <f>K10</f>
+        <f t="shared" ref="F27:F36" si="8">K10</f>
         <v>0.27491501438660726</v>
       </c>
       <c r="G27">
@@ -4039,21 +4571,21 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>66</v>
-      </c>
-      <c r="U27" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="V27" s="24">
-        <f t="array" ref="V27:V42">MMULT(M5:V20,N30:N39)</f>
-        <v>0.69295374613999527</v>
-      </c>
-      <c r="W27" s="24">
-        <f t="array" ref="W27:W42">MMULT(M5:V20,O30:O39)</f>
-        <v>0.48369100091515937</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23">
+        <v>65</v>
+      </c>
+      <c r="U27" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="V27" s="20">
+        <f t="array" ref="V27:V42">MMULT($M5:$V20,N30:N39)</f>
+        <v>8.327355618983695E-2</v>
+      </c>
+      <c r="W27" s="90">
+        <f t="array" ref="W27:W42">MMULT($M5:$V20,O30:O39)</f>
+        <v>-0.11994709143285631</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33">
       <c r="A28">
         <v>1</v>
       </c>
@@ -4061,49 +4593,49 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <f>H11</f>
+        <f t="shared" si="5"/>
         <v>0.18977408299106016</v>
       </c>
       <c r="D28">
-        <f>I11</f>
+        <f t="shared" si="6"/>
         <v>0.16688888888888884</v>
       </c>
       <c r="E28">
-        <f>J11</f>
+        <f t="shared" si="7"/>
         <v>0.16236842105263163</v>
       </c>
       <c r="F28">
-        <f>K11</f>
+        <f t="shared" si="8"/>
         <v>0.16505362280931193</v>
       </c>
       <c r="G28">
         <f>'FORWARD 1'!E57</f>
-        <v>-6.6003686867875569E-2</v>
+        <v>1.8042808179765397E-2</v>
       </c>
       <c r="H28">
         <f>'FORWARD 1'!F57</f>
-        <v>-0.10097161982612768</v>
+        <v>0.1073770866692443</v>
       </c>
       <c r="I28">
         <f>'FORWARD 1'!G57</f>
-        <v>-0.32673363213985618</v>
+        <v>5.5681266008060304E-3</v>
       </c>
       <c r="J28">
         <f>'FORWARD 1'!H57</f>
-        <v>-0.13769133982411982</v>
+        <v>0.12443470364555562</v>
       </c>
       <c r="K28" t="s">
-        <v>67</v>
-      </c>
-      <c r="U28" s="13"/>
-      <c r="V28" s="24">
-        <v>1.1668735753551522</v>
-      </c>
-      <c r="W28" s="24">
-        <v>0.52626581296751207</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23">
+        <v>66</v>
+      </c>
+      <c r="U28" s="38"/>
+      <c r="V28" s="20">
+        <v>1.1013855232485499</v>
+      </c>
+      <c r="W28" s="90">
+        <v>1.0021741004692162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33">
       <c r="A29">
         <v>1</v>
       </c>
@@ -4111,30 +4643,30 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <f>H12</f>
+        <f t="shared" si="5"/>
         <v>9.6551773996474938E-2</v>
       </c>
       <c r="D29">
-        <f>I12</f>
+        <f t="shared" si="6"/>
         <v>9.8666666666666777E-2</v>
       </c>
       <c r="E29">
-        <f>J12</f>
+        <f t="shared" si="7"/>
         <v>0.1081579210526316</v>
       </c>
       <c r="F29">
-        <f>K12</f>
+        <f t="shared" si="8"/>
         <v>8.5796521056761679E-2</v>
       </c>
-      <c r="U29" s="13"/>
-      <c r="V29" s="24">
-        <v>-2.0304386510238137E-2</v>
-      </c>
-      <c r="W29" s="24">
-        <v>-2.2070502818319064E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23">
+      <c r="U29" s="38"/>
+      <c r="V29" s="20">
+        <v>4.0644799557446987E-2</v>
+      </c>
+      <c r="W29" s="90">
+        <v>9.7049278148202467E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33">
       <c r="A30">
         <v>1</v>
       </c>
@@ -4142,19 +4674,19 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <f>H13</f>
+        <f t="shared" si="5"/>
         <v>6.7063069371297704E-2</v>
       </c>
       <c r="D30">
-        <f>I13</f>
+        <f t="shared" si="6"/>
         <v>7.444444444444448E-2</v>
       </c>
       <c r="E30">
-        <f>J13</f>
+        <f t="shared" si="7"/>
         <v>0.11921055263157901</v>
       </c>
       <c r="F30">
-        <f>K13</f>
+        <f t="shared" si="8"/>
         <v>0.11195398901386343</v>
       </c>
       <c r="M30" t="s">
@@ -4168,15 +4700,15 @@
         <f t="array" ref="O30:O39">TRANSPOSE(A28:J28)</f>
         <v>1</v>
       </c>
-      <c r="U30" s="13"/>
-      <c r="V30" s="24">
-        <v>0.48310494943935994</v>
-      </c>
-      <c r="W30" s="24">
-        <v>0.37168884624257192</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23">
+      <c r="U30" s="38"/>
+      <c r="V30" s="20">
+        <v>1.2565671330488828</v>
+      </c>
+      <c r="W30" s="90">
+        <v>0.99238145307944292</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33">
       <c r="A31">
         <v>1</v>
       </c>
@@ -4184,19 +4716,19 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <f>H14</f>
+        <f t="shared" si="5"/>
         <v>0.10463738655499137</v>
       </c>
       <c r="D31">
-        <f>I14</f>
+        <f t="shared" si="6"/>
         <v>9.0222200000000113E-2</v>
       </c>
       <c r="E31">
-        <f>J14</f>
+        <f t="shared" si="7"/>
         <v>0.13000000000000003</v>
       </c>
       <c r="F31">
-        <f>K14</f>
+        <f t="shared" si="8"/>
         <v>0.13889615485221019</v>
       </c>
       <c r="N31">
@@ -4205,17 +4737,17 @@
       <c r="O31">
         <v>0</v>
       </c>
-      <c r="U31" s="13" t="s">
+      <c r="U31" s="38" t="s">
         <v>30</v>
       </c>
       <c r="V31" s="11">
-        <v>-0.93956535813733111</v>
-      </c>
-      <c r="W31" s="11">
-        <v>-1.1381211406899769</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" ht="15" customHeight="1">
+        <v>-0.46229910103406519</v>
+      </c>
+      <c r="W31" s="89">
+        <v>-0.30304963428783172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" ht="15" customHeight="1">
       <c r="A32">
         <v>1</v>
       </c>
@@ -4223,19 +4755,19 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <f>H15</f>
+        <f t="shared" si="5"/>
         <v>0.10344834966583473</v>
       </c>
       <c r="D32">
-        <f>I15</f>
+        <f t="shared" si="6"/>
         <v>8.4444466666666704E-2</v>
       </c>
       <c r="E32">
-        <f>J15</f>
+        <f t="shared" si="7"/>
         <v>0.11263160526315795</v>
       </c>
       <c r="F32">
-        <f>K15</f>
+        <f t="shared" si="8"/>
         <v>0.10959981689772427</v>
       </c>
       <c r="N32">
@@ -4244,12 +4776,12 @@
       <c r="O32">
         <v>0.18977408299106016</v>
       </c>
-      <c r="U32" s="13"/>
+      <c r="U32" s="38"/>
       <c r="V32" s="11">
-        <v>-0.63335321012723922</v>
-      </c>
-      <c r="W32" s="11">
-        <v>-0.30040176008537295</v>
+        <v>0.44052245167630055</v>
+      </c>
+      <c r="W32" s="89">
+        <v>0.48589617127015244</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -4260,19 +4792,19 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <f>H16</f>
+        <f t="shared" si="5"/>
         <v>6.967897906489845E-2</v>
       </c>
       <c r="D33">
-        <f>I16</f>
+        <f t="shared" si="6"/>
         <v>5.6444466666666672E-2</v>
       </c>
       <c r="E33">
-        <f>J16</f>
+        <f t="shared" si="7"/>
         <v>4.7894736842105268E-2</v>
       </c>
       <c r="F33">
-        <f>K16</f>
+        <f t="shared" si="8"/>
         <v>2.9296390269421883E-2</v>
       </c>
       <c r="N33">
@@ -4281,12 +4813,12 @@
       <c r="O33">
         <v>0.16688888888888884</v>
       </c>
-      <c r="U33" s="13"/>
+      <c r="U33" s="38"/>
       <c r="V33" s="11">
-        <v>0.53212036616428071</v>
-      </c>
-      <c r="W33" s="11">
-        <v>0.48795224515004115</v>
+        <v>-0.55921292430839542</v>
+      </c>
+      <c r="W33" s="89">
+        <v>-0.68873749954530628</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -4297,19 +4829,19 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <f>H17</f>
+        <f t="shared" si="5"/>
         <v>3.5672295735369847E-3</v>
       </c>
       <c r="D34">
-        <f>I17</f>
+        <f t="shared" si="6"/>
         <v>8.8888666666666911E-3</v>
       </c>
       <c r="E34">
-        <f>J17</f>
+        <f t="shared" si="7"/>
         <v>2.7105289473684267E-2</v>
       </c>
       <c r="F34">
-        <f>K17</f>
+        <f t="shared" si="8"/>
         <v>1.2294062254773671E-2</v>
       </c>
       <c r="N34">
@@ -4318,12 +4850,12 @@
       <c r="O34">
         <v>0.16236842105263163</v>
       </c>
-      <c r="U34" s="13"/>
+      <c r="U34" s="38"/>
       <c r="V34" s="11">
-        <v>-0.30669417726104797</v>
-      </c>
-      <c r="W34" s="11">
-        <v>-0.13627958721671801</v>
+        <v>-1.1080831491884311</v>
+      </c>
+      <c r="W34" s="89">
+        <v>-0.90398892123836094</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -4334,19 +4866,19 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <f>H18</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D35">
-        <f>I18</f>
+        <f t="shared" si="6"/>
         <v>1.1555555555555624E-2</v>
       </c>
       <c r="E35">
-        <f>J18</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F35">
-        <f>K18</f>
+        <f t="shared" si="8"/>
         <v>4.9176065916819257E-2</v>
       </c>
       <c r="N35">
@@ -4355,14 +4887,14 @@
       <c r="O35">
         <v>0.16505362280931193</v>
       </c>
-      <c r="U35" s="13" t="s">
-        <v>38</v>
+      <c r="U35" s="38" t="s">
+        <v>31</v>
       </c>
       <c r="V35" s="9">
-        <v>-0.49984200872550061</v>
+        <v>0.93757406102049679</v>
       </c>
       <c r="W35" s="9">
-        <v>-0.41694611913312835</v>
+        <v>0.59296506456176123</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -4373,33 +4905,33 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <f>H19</f>
+        <f t="shared" si="5"/>
         <v>8.0856125585163485E-3</v>
       </c>
       <c r="D36">
-        <f>I19</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E36">
-        <f>J19</f>
+        <f t="shared" si="7"/>
         <v>1.4736815789473718E-2</v>
       </c>
       <c r="F36">
-        <f>K19</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="O36">
-        <v>-6.6003686867875569E-2</v>
-      </c>
-      <c r="U36" s="13"/>
+        <v>1.8042808179765397E-2</v>
+      </c>
+      <c r="U36" s="38"/>
       <c r="V36" s="9">
-        <v>-0.47248646829397589</v>
+        <v>-0.67371659652937421</v>
       </c>
       <c r="W36" s="9">
-        <v>-0.57562994983697702</v>
+        <v>-0.56552448711475367</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="15" customHeight="1">
@@ -4407,14 +4939,14 @@
         <v>0</v>
       </c>
       <c r="O37">
-        <v>-0.10097161982612768</v>
-      </c>
-      <c r="U37" s="13"/>
+        <v>0.1073770866692443</v>
+      </c>
+      <c r="U37" s="38"/>
       <c r="V37" s="9">
-        <v>-0.92237964812513762</v>
+        <v>-0.43505866882907795</v>
       </c>
       <c r="W37" s="9">
-        <v>-0.97113863546429235</v>
+        <v>-0.33748801418901325</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -4422,14 +4954,14 @@
         <v>0</v>
       </c>
       <c r="O38">
-        <v>-0.32673363213985618</v>
-      </c>
-      <c r="U38" s="13"/>
+        <v>5.5681266008060304E-3</v>
+      </c>
+      <c r="U38" s="38"/>
       <c r="V38" s="9">
-        <v>-0.81809858276332403</v>
+        <v>7.182869421559368E-2</v>
       </c>
       <c r="W38" s="9">
-        <v>-0.61538140258223373</v>
+        <v>-0.18186326708037942</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -4437,16 +4969,16 @@
         <v>0</v>
       </c>
       <c r="O39">
-        <v>-0.13769133982411982</v>
-      </c>
-      <c r="U39" s="13" t="s">
+        <v>0.12443470364555562</v>
+      </c>
+      <c r="U39" s="38" t="s">
         <v>32</v>
       </c>
       <c r="V39" s="8">
-        <v>4.5203491912719315E-2</v>
+        <v>0.24996356201668229</v>
       </c>
       <c r="W39" s="8">
-        <v>0.23823289248547563</v>
+        <v>0.25860407325886314</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -4458,35 +4990,35 @@
         <f>K28</f>
         <v>langkah 2</v>
       </c>
-      <c r="U40" s="13"/>
+      <c r="U40" s="38"/>
       <c r="V40" s="8">
-        <v>0.69295374613999527</v>
+        <v>-1.1663392356213738</v>
       </c>
       <c r="W40" s="8">
-        <v>0.48369100091515937</v>
+        <v>-1.0987194323066811</v>
       </c>
     </row>
     <row r="41" spans="1:23">
-      <c r="U41" s="13"/>
+      <c r="U41" s="38"/>
       <c r="V41" s="8">
-        <v>1.1668735753551522</v>
+        <v>-0.50283796746758314</v>
       </c>
       <c r="W41" s="8">
-        <v>0.52626581296751207</v>
+        <v>-0.55787894499094515</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="15" customHeight="1">
-      <c r="U42" s="13"/>
+      <c r="U42" s="38"/>
       <c r="V42" s="8">
-        <v>-2.0304386510238137E-2</v>
+        <v>0.39880910034284534</v>
       </c>
       <c r="W42" s="8">
-        <v>-2.2070502818319064E-2</v>
+        <v>0.46201136647134694</v>
       </c>
     </row>
     <row r="43" spans="1:23">
       <c r="U43" s="12"/>
-      <c r="V43" s="42" t="str">
+      <c r="V43" s="36" t="str">
         <f>N40</f>
         <v>langkah 1</v>
       </c>
@@ -4497,15 +5029,15 @@
     </row>
     <row r="44" spans="1:23">
       <c r="U44" s="12"/>
-      <c r="V44" s="42"/>
+      <c r="V44" s="36"/>
     </row>
     <row r="45" spans="1:23">
       <c r="U45" s="12"/>
-      <c r="V45" s="42"/>
+      <c r="V45" s="36"/>
     </row>
     <row r="46" spans="1:23">
       <c r="U46" s="12"/>
-      <c r="V46" s="42"/>
+      <c r="V46" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4522,11 +5054,186 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{746C4ED9-DC0F-42A6-86B0-F2B5383B5B5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4536,1147 +5243,5480 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13">
-      <c r="B2" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="18"/>
+      <c r="B2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="15"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="20"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="17"/>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="23"/>
-      <c r="C3" s="33" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="18"/>
+    </row>
+    <row r="4" spans="2:13" ht="15" customHeight="1">
+      <c r="B4" s="39" t="str">
+        <f>iNPUT!U27</f>
+        <v>C</v>
+      </c>
+      <c r="C4" s="25">
+        <f>iNPUT!V27</f>
+        <v>8.327355618983695E-2</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="21"/>
-    </row>
-    <row r="4" spans="2:13" ht="15" customHeight="1">
-      <c r="B4" s="29" t="str">
-        <f>iNPUT!U27</f>
-        <v>f</v>
-      </c>
-      <c r="C4" s="30">
-        <f>iNPUT!V27</f>
-        <v>0.69295374613999527</v>
-      </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="31">
+      <c r="G4" s="26">
         <f t="array" ref="G4:J4">TRANSPOSE(C4:C7)</f>
-        <v>0.69295374613999527</v>
-      </c>
-      <c r="H4" s="31">
-        <v>1.1668735753551522</v>
-      </c>
-      <c r="I4" s="31">
-        <v>-2.0304386510238137E-2</v>
-      </c>
-      <c r="J4" s="31">
-        <v>0.48310494943935994</v>
-      </c>
-      <c r="K4" s="31"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="21"/>
+        <v>8.327355618983695E-2</v>
+      </c>
+      <c r="H4" s="26">
+        <v>1.1013855232485499</v>
+      </c>
+      <c r="I4" s="26">
+        <v>4.0644799557446987E-2</v>
+      </c>
+      <c r="J4" s="26">
+        <v>1.2565671330488828</v>
+      </c>
+      <c r="K4" s="26"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" spans="2:13" ht="15" customHeight="1">
-      <c r="B5" s="29"/>
-      <c r="C5" s="30">
+      <c r="B5" s="39"/>
+      <c r="C5" s="25">
         <f>iNPUT!V28</f>
-        <v>1.1668735753551522</v>
-      </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="31">
+        <v>1.1013855232485499</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26">
         <f t="array" ref="G5:J5">TRANSPOSE(C8:C11)</f>
-        <v>-0.93956535813733111</v>
-      </c>
-      <c r="H5" s="31">
-        <v>-0.63335321012723922</v>
-      </c>
-      <c r="I5" s="31">
-        <v>0.53212036616428071</v>
-      </c>
-      <c r="J5" s="31">
-        <v>-0.30669417726104797</v>
-      </c>
-      <c r="K5" s="31"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="21"/>
+        <v>-0.46229910103406519</v>
+      </c>
+      <c r="H5" s="26">
+        <v>0.44052245167630055</v>
+      </c>
+      <c r="I5" s="26">
+        <v>-0.55921292430839542</v>
+      </c>
+      <c r="J5" s="26">
+        <v>-1.1080831491884311</v>
+      </c>
+      <c r="K5" s="26"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="18"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1">
-      <c r="B6" s="29"/>
-      <c r="C6" s="30">
+      <c r="B6" s="39"/>
+      <c r="C6" s="25">
         <f>iNPUT!V29</f>
-        <v>-2.0304386510238137E-2</v>
-      </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30">
+        <v>4.0644799557446987E-2</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25">
         <f t="array" ref="G6:J6">TRANSPOSE(C12:C15)</f>
-        <v>-0.49984200872550061</v>
-      </c>
-      <c r="H6" s="30">
-        <v>-0.47248646829397589</v>
-      </c>
-      <c r="I6" s="30">
-        <v>-0.92237964812513762</v>
-      </c>
-      <c r="J6" s="30">
-        <v>-0.81809858276332403</v>
-      </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="21"/>
+        <v>0.93757406102049679</v>
+      </c>
+      <c r="H6" s="25">
+        <v>-0.67371659652937421</v>
+      </c>
+      <c r="I6" s="25">
+        <v>-0.43505866882907795</v>
+      </c>
+      <c r="J6" s="25">
+        <v>7.182869421559368E-2</v>
+      </c>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="18"/>
     </row>
     <row r="7" spans="2:13" ht="15" customHeight="1">
-      <c r="B7" s="29"/>
-      <c r="C7" s="30">
+      <c r="B7" s="39"/>
+      <c r="C7" s="25">
         <f>iNPUT!V30</f>
-        <v>0.48310494943935994</v>
-      </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30">
+        <v>1.2565671330488828</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25">
         <f t="array" ref="G7:J7">TRANSPOSE(C16:C19)</f>
-        <v>4.5203491912719315E-2</v>
-      </c>
-      <c r="H7" s="30">
-        <v>0.69295374613999527</v>
-      </c>
-      <c r="I7" s="30">
-        <v>1.1668735753551522</v>
-      </c>
-      <c r="J7" s="30">
-        <v>-2.0304386510238137E-2</v>
-      </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="21"/>
+        <v>0.24996356201668229</v>
+      </c>
+      <c r="H7" s="25">
+        <v>-1.1663392356213738</v>
+      </c>
+      <c r="I7" s="25">
+        <v>-0.50283796746758314</v>
+      </c>
+      <c r="J7" s="25">
+        <v>0.39880910034284534</v>
+      </c>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="18"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1">
-      <c r="B8" s="29" t="str">
+      <c r="B8" s="39" t="str">
         <f>iNPUT!U31</f>
         <v>i</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="25">
         <f>iNPUT!V31</f>
-        <v>-0.93956535813733111</v>
-      </c>
-      <c r="D8" s="33" t="s">
+        <v>-0.46229910103406519</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="30" t="s">
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="18"/>
+    </row>
+    <row r="9" spans="2:13" ht="15" customHeight="1">
+      <c r="B9" s="39"/>
+      <c r="C9" s="25">
+        <f>iNPUT!V32</f>
+        <v>0.44052245167630055</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="21"/>
-    </row>
-    <row r="9" spans="2:13" ht="15" customHeight="1">
-      <c r="B9" s="29"/>
-      <c r="C9" s="30">
-        <f>iNPUT!V32</f>
-        <v>-0.63335321012723922</v>
-      </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30" t="s">
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="18"/>
+    </row>
+    <row r="10" spans="2:13" ht="15" customHeight="1">
+      <c r="B10" s="39"/>
+      <c r="C10" s="25">
+        <f>iNPUT!V33</f>
+        <v>-0.55921292430839542</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25">
+        <f>G4</f>
+        <v>8.327355618983695E-2</v>
+      </c>
+      <c r="F10" s="64">
+        <f t="shared" ref="F10:H10" si="0">H4</f>
+        <v>1.1013855232485499</v>
+      </c>
+      <c r="G10" s="64">
+        <f>I4</f>
+        <v>4.0644799557446987E-2</v>
+      </c>
+      <c r="H10" s="64">
+        <f t="shared" si="0"/>
+        <v>1.2565671330488828</v>
+      </c>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="18"/>
+    </row>
+    <row r="11" spans="2:13" ht="15" customHeight="1">
+      <c r="B11" s="39"/>
+      <c r="C11" s="25">
+        <f>iNPUT!V34</f>
+        <v>-1.1080831491884311</v>
+      </c>
+      <c r="D11" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="21"/>
-    </row>
-    <row r="10" spans="2:13" ht="15" customHeight="1">
-      <c r="B10" s="29"/>
-      <c r="C10" s="30">
-        <f>iNPUT!V33</f>
-        <v>0.53212036616428071</v>
-      </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30">
-        <f>G6</f>
-        <v>-0.49984200872550061</v>
-      </c>
-      <c r="F10" s="30">
-        <f>H6</f>
-        <v>-0.47248646829397589</v>
-      </c>
-      <c r="G10" s="30">
-        <f>I6</f>
-        <v>-0.92237964812513762</v>
-      </c>
-      <c r="H10" s="30">
-        <f>J6</f>
-        <v>-0.81809858276332403</v>
-      </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="21"/>
-    </row>
-    <row r="11" spans="2:13" ht="15" customHeight="1">
-      <c r="B11" s="29"/>
-      <c r="C11" s="30">
-        <f>iNPUT!V34</f>
-        <v>-0.30669417726104797</v>
-      </c>
-      <c r="D11" s="30" t="s">
+      <c r="E11" s="25">
+        <f>TANH(E10)</f>
+        <v>8.3081602199878188E-2</v>
+      </c>
+      <c r="F11" s="25">
+        <f t="shared" ref="F11:G11" si="1">TANH(F10)</f>
+        <v>0.80099615184501971</v>
+      </c>
+      <c r="G11" s="25">
+        <f t="shared" si="1"/>
+        <v>4.0622432604764627E-2</v>
+      </c>
+      <c r="H11" s="25">
+        <f>TANH(H10)</f>
+        <v>0.85011493361129919</v>
+      </c>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="18"/>
+    </row>
+    <row r="12" spans="2:13" ht="15" customHeight="1">
+      <c r="B12" s="39" t="str">
+        <f>iNPUT!U35</f>
+        <v>f</v>
+      </c>
+      <c r="C12" s="25">
+        <f>iNPUT!V35</f>
+        <v>0.93757406102049679</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="18"/>
+    </row>
+    <row r="13" spans="2:13" ht="15" customHeight="1">
+      <c r="B13" s="39"/>
+      <c r="C13" s="25">
+        <f>iNPUT!V36</f>
+        <v>-0.67371659652937421</v>
+      </c>
+      <c r="D13" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="30">
-        <f>TANH(E10)</f>
-        <v>-0.46199289630903367</v>
-      </c>
-      <c r="F11" s="30">
-        <f t="shared" ref="F11:H11" si="0">TANH(F10)</f>
-        <v>-0.44020614415354981</v>
-      </c>
-      <c r="G11" s="30">
-        <f t="shared" si="0"/>
-        <v>-0.72702121863330005</v>
-      </c>
-      <c r="H11" s="30">
-        <f>TANH(H10)</f>
-        <v>-0.67403364135270349</v>
-      </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="21"/>
-    </row>
-    <row r="12" spans="2:13" ht="15" customHeight="1">
-      <c r="B12" s="29" t="str">
-        <f>iNPUT!U35</f>
-        <v>c</v>
-      </c>
-      <c r="C12" s="30">
-        <f>iNPUT!V35</f>
-        <v>-0.49984200872550061</v>
-      </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="21"/>
-    </row>
-    <row r="13" spans="2:13" ht="15" customHeight="1">
-      <c r="B13" s="29"/>
-      <c r="C13" s="30">
-        <f>iNPUT!V36</f>
-        <v>-0.47248646829397589</v>
-      </c>
-      <c r="D13" s="33" t="s">
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="18"/>
+    </row>
+    <row r="14" spans="2:13" ht="15" customHeight="1">
+      <c r="B14" s="39"/>
+      <c r="C14" s="25">
+        <f>iNPUT!V37</f>
+        <v>-0.43505866882907795</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="21"/>
-    </row>
-    <row r="14" spans="2:13" ht="15" customHeight="1">
-      <c r="B14" s="29"/>
-      <c r="C14" s="30">
-        <f>iNPUT!V37</f>
-        <v>-0.92237964812513762</v>
-      </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="21"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="18"/>
     </row>
     <row r="15" spans="2:13" ht="15" customHeight="1">
-      <c r="B15" s="29"/>
-      <c r="C15" s="30">
+      <c r="B15" s="39"/>
+      <c r="C15" s="25">
         <f>iNPUT!V38</f>
-        <v>-0.81809858276332403</v>
-      </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30">
+        <v>7.182869421559368E-2</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25">
         <f>G5</f>
-        <v>-0.93956535813733111</v>
-      </c>
-      <c r="F15" s="30">
+        <v>-0.46229910103406519</v>
+      </c>
+      <c r="F15" s="25">
         <f>H5</f>
-        <v>-0.63335321012723922</v>
-      </c>
-      <c r="G15" s="30">
+        <v>0.44052245167630055</v>
+      </c>
+      <c r="G15" s="25">
         <f>I5</f>
-        <v>0.53212036616428071</v>
-      </c>
-      <c r="H15" s="30">
+        <v>-0.55921292430839542</v>
+      </c>
+      <c r="H15" s="25">
         <f>J5</f>
-        <v>-0.30669417726104797</v>
-      </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="21"/>
+        <v>-1.1080831491884311</v>
+      </c>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="18"/>
     </row>
     <row r="16" spans="2:13" ht="15" customHeight="1">
-      <c r="B16" s="29" t="str">
+      <c r="B16" s="39" t="str">
         <f>iNPUT!U39</f>
         <v>o</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="25">
         <f>iNPUT!V39</f>
-        <v>4.5203491912719315E-2</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="30">
+        <v>0.24996356201668229</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="25">
         <f>1/(1+EXP(-E15))</f>
-        <v>0.28098814657467786</v>
-      </c>
-      <c r="F16" s="30">
-        <f t="shared" ref="F16:H16" si="1">1/(1+EXP(-F15))</f>
-        <v>0.34675059688357462</v>
-      </c>
-      <c r="G16" s="30">
-        <f t="shared" si="1"/>
-        <v>0.62997751778652755</v>
-      </c>
-      <c r="H16" s="30">
-        <f t="shared" si="1"/>
-        <v>0.42392185710875585</v>
-      </c>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="21"/>
+        <v>0.38644055510750658</v>
+      </c>
+      <c r="F16" s="25">
+        <f t="shared" ref="F16:H16" si="2">1/(1+EXP(-F15))</f>
+        <v>0.60838351347908715</v>
+      </c>
+      <c r="G16" s="25">
+        <f t="shared" si="2"/>
+        <v>0.36372959339773314</v>
+      </c>
+      <c r="H16" s="25">
+        <f t="shared" si="2"/>
+        <v>0.24822842148780322</v>
+      </c>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="18"/>
     </row>
     <row r="17" spans="2:13" ht="15" customHeight="1">
-      <c r="B17" s="29"/>
-      <c r="C17" s="30">
+      <c r="B17" s="39"/>
+      <c r="C17" s="25">
         <f>iNPUT!V40</f>
-        <v>0.69295374613999527</v>
-      </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="21"/>
+        <v>-1.1663392356213738</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="18"/>
     </row>
     <row r="18" spans="2:13" ht="15" customHeight="1">
-      <c r="B18" s="29"/>
-      <c r="C18" s="30">
+      <c r="B18" s="39"/>
+      <c r="C18" s="25">
         <f>iNPUT!V41</f>
-        <v>1.1668735753551522</v>
-      </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="21"/>
+        <v>-0.50283796746758314</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="18"/>
     </row>
     <row r="19" spans="2:13" ht="15" customHeight="1">
-      <c r="B19" s="29"/>
-      <c r="C19" s="30">
+      <c r="B19" s="39"/>
+      <c r="C19" s="25">
         <f>iNPUT!V42</f>
-        <v>-2.0304386510238137E-2</v>
-      </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="21"/>
+        <v>0.39880910034284534</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="18"/>
     </row>
     <row r="20" spans="2:13" ht="15" customHeight="1">
-      <c r="B20" s="41"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="33" t="s">
+      <c r="B20" s="35"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="18"/>
+    </row>
+    <row r="21" spans="2:13" ht="15" customHeight="1">
+      <c r="B21" s="35"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="21"/>
-    </row>
-    <row r="21" spans="2:13" ht="15" customHeight="1">
-      <c r="B21" s="41"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30" t="s">
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="18"/>
+    </row>
+    <row r="22" spans="2:13" ht="15" customHeight="1">
+      <c r="B22" s="35"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25">
+        <f>G6</f>
+        <v>0.93757406102049679</v>
+      </c>
+      <c r="F22" s="64">
+        <f t="shared" ref="F22:H22" si="3">H6</f>
+        <v>-0.67371659652937421</v>
+      </c>
+      <c r="G22" s="64">
+        <f t="shared" si="3"/>
+        <v>-0.43505866882907795</v>
+      </c>
+      <c r="H22" s="64">
+        <f t="shared" si="3"/>
+        <v>7.182869421559368E-2</v>
+      </c>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="18"/>
+    </row>
+    <row r="23" spans="2:13" ht="15" customHeight="1">
+      <c r="B23" s="35"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="21"/>
-    </row>
-    <row r="22" spans="2:13" ht="15" customHeight="1">
-      <c r="B22" s="41"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30">
-        <f>G4</f>
-        <v>0.69295374613999527</v>
-      </c>
-      <c r="F22" s="30">
-        <f>H4</f>
-        <v>1.1668735753551522</v>
-      </c>
-      <c r="G22" s="30">
-        <f>I4</f>
-        <v>-2.0304386510238137E-2</v>
-      </c>
-      <c r="H22" s="30">
-        <f>J4</f>
-        <v>0.48310494943935994</v>
-      </c>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="21"/>
-    </row>
-    <row r="23" spans="2:13" ht="15" customHeight="1">
-      <c r="B23" s="41"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30" t="s">
+      <c r="E23" s="25">
+        <f>1/(1+EXP(-E22))</f>
+        <v>0.71860936868812064</v>
+      </c>
+      <c r="F23" s="25">
+        <f t="shared" ref="F23:H23" si="4">1/(1+EXP(-F22))</f>
+        <v>0.33766513284055399</v>
+      </c>
+      <c r="G23" s="25">
+        <f t="shared" si="4"/>
+        <v>0.39291901734966911</v>
+      </c>
+      <c r="H23" s="25">
+        <f t="shared" si="4"/>
+        <v>0.51794945690629457</v>
+      </c>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="18"/>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24" s="19"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="18"/>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" s="19"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="18"/>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" s="19"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="18"/>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="B27" s="19"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="30">
-        <f>1/(1+EXP(-E22))</f>
-        <v>0.66662367985429027</v>
-      </c>
-      <c r="F23" s="30">
-        <f t="shared" ref="F23:H23" si="2">1/(1+EXP(-F22))</f>
-        <v>0.762579434931559</v>
-      </c>
-      <c r="G23" s="30">
-        <f t="shared" si="2"/>
-        <v>0.49492407775798203</v>
-      </c>
-      <c r="H23" s="30">
-        <f t="shared" si="2"/>
-        <v>0.61848079481976992</v>
-      </c>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="21"/>
-    </row>
-    <row r="24" spans="2:13">
-      <c r="B24" s="23"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="21"/>
-    </row>
-    <row r="25" spans="2:13">
-      <c r="B25" s="23"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="21"/>
-    </row>
-    <row r="26" spans="2:13">
-      <c r="B26" s="23"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="21"/>
-    </row>
-    <row r="27" spans="2:13">
-      <c r="B27" s="23"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="33" t="s">
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="18"/>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28" s="19"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="21"/>
-    </row>
-    <row r="28" spans="2:13">
-      <c r="B28" s="23"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30" t="s">
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="18"/>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" s="19"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25">
+        <f>G7</f>
+        <v>0.24996356201668229</v>
+      </c>
+      <c r="F29" s="25">
+        <f>H7</f>
+        <v>-1.1663392356213738</v>
+      </c>
+      <c r="G29" s="25">
+        <f>I7</f>
+        <v>-0.50283796746758314</v>
+      </c>
+      <c r="H29" s="25">
+        <f>J7</f>
+        <v>0.39880910034284534</v>
+      </c>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="18"/>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="B30" s="19"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="21"/>
-    </row>
-    <row r="29" spans="2:13">
-      <c r="B29" s="23"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30">
-        <f>G7</f>
-        <v>4.5203491912719315E-2</v>
-      </c>
-      <c r="F29" s="30">
-        <f>H7</f>
-        <v>0.69295374613999527</v>
-      </c>
-      <c r="G29" s="30">
-        <f>I7</f>
-        <v>1.1668735753551522</v>
-      </c>
-      <c r="H29" s="30">
-        <f>J7</f>
-        <v>-2.0304386510238137E-2</v>
-      </c>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="21"/>
-    </row>
-    <row r="30" spans="2:13">
-      <c r="B30" s="23"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30" t="s">
+      <c r="E30" s="25">
+        <f>1/(1+EXP(-E29))</f>
+        <v>0.56216753223587912</v>
+      </c>
+      <c r="F30" s="25">
+        <f t="shared" ref="F30:H30" si="5">1/(1+EXP(-F29))</f>
+        <v>0.23751732194081029</v>
+      </c>
+      <c r="G30" s="25">
+        <f t="shared" si="5"/>
+        <v>0.3768739680578671</v>
+      </c>
+      <c r="H30" s="25">
+        <f t="shared" si="5"/>
+        <v>0.59840150007498161</v>
+      </c>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="18"/>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" s="19"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="18"/>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="B32" s="19"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="18"/>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="19"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="18"/>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" s="19"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="30">
-        <f>1/(1+EXP(-E29))</f>
-        <v>0.51129894906271978</v>
-      </c>
-      <c r="F30" s="30">
-        <f t="shared" ref="F30:H30" si="3">1/(1+EXP(-F29))</f>
-        <v>0.66662367985429027</v>
-      </c>
-      <c r="G30" s="30">
-        <f t="shared" si="3"/>
-        <v>0.762579434931559</v>
-      </c>
-      <c r="H30" s="30">
-        <f t="shared" si="3"/>
-        <v>0.49492407775798203</v>
-      </c>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="21"/>
-    </row>
-    <row r="31" spans="2:13">
-      <c r="B31" s="23"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="21"/>
-    </row>
-    <row r="32" spans="2:13">
-      <c r="B32" s="23"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="21"/>
-    </row>
-    <row r="33" spans="2:13">
-      <c r="B33" s="23"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="21"/>
-    </row>
-    <row r="34" spans="2:13">
-      <c r="B34" s="23"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="33" t="s">
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="18"/>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="19"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="21"/>
-    </row>
-    <row r="35" spans="2:13">
-      <c r="B35" s="23"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="34" t="s">
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="18"/>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="19"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="18"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="19"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="18"/>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="19"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="18"/>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="19"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="18"/>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="19"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="18"/>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41" s="19"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="18"/>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42" s="19"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="18"/>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="19"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="18"/>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" s="19"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="18"/>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" s="19"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="18"/>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46" s="19"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="18"/>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" s="19"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25">
+        <v>0</v>
+      </c>
+      <c r="E47" s="25">
+        <v>0</v>
+      </c>
+      <c r="F47" s="25">
+        <v>0</v>
+      </c>
+      <c r="G47" s="25">
+        <v>0</v>
+      </c>
+      <c r="H47" s="25">
+        <v>0</v>
+      </c>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="18"/>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="B48" s="19"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="21"/>
-    </row>
-    <row r="36" spans="2:13">
-      <c r="B36" s="23"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="21"/>
-    </row>
-    <row r="37" spans="2:13">
-      <c r="B37" s="23"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="21"/>
-    </row>
-    <row r="38" spans="2:13">
-      <c r="B38" s="23"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="21"/>
-    </row>
-    <row r="39" spans="2:13">
-      <c r="B39" s="23"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="21"/>
-    </row>
-    <row r="40" spans="2:13">
-      <c r="B40" s="23"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="21"/>
-    </row>
-    <row r="41" spans="2:13">
-      <c r="B41" s="23"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="21"/>
-    </row>
-    <row r="42" spans="2:13">
-      <c r="B42" s="23"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="21"/>
-    </row>
-    <row r="43" spans="2:13">
-      <c r="B43" s="23"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="21"/>
-    </row>
-    <row r="44" spans="2:13">
-      <c r="B44" s="23"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="21"/>
-    </row>
-    <row r="45" spans="2:13">
-      <c r="B45" s="23"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="21"/>
-    </row>
-    <row r="46" spans="2:13">
-      <c r="B46" s="23"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="21"/>
-    </row>
-    <row r="47" spans="2:13">
-      <c r="B47" s="23"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30">
-        <v>0</v>
-      </c>
-      <c r="E47" s="30">
-        <v>0</v>
-      </c>
-      <c r="F47" s="30">
-        <v>0</v>
-      </c>
-      <c r="G47" s="30">
-        <v>0</v>
-      </c>
-      <c r="H47" s="30">
-        <v>0</v>
-      </c>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="21"/>
-    </row>
-    <row r="48" spans="2:13">
-      <c r="B48" s="23"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="32" t="s">
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="32" t="s">
+      <c r="J48" s="40"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="41"/>
+    </row>
+    <row r="49" spans="2:13">
+      <c r="B49" s="19"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="34">
+        <f>PRODUCT(D47,E23)</f>
+        <v>0</v>
+      </c>
+      <c r="E49" s="34">
+        <f t="shared" ref="E49:H49" si="6">PRODUCT(E47,F23)</f>
+        <v>0</v>
+      </c>
+      <c r="F49" s="34">
+        <f>PRODUCT(F47,G23)</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="25">
+        <f>PRODUCT(E16,E11)</f>
+        <v>3.2106100473341968E-2</v>
+      </c>
+      <c r="J49" s="25">
+        <f t="shared" ref="J49:L49" si="7">PRODUCT(F16,F11)</f>
+        <v>0.48731285314270151</v>
+      </c>
+      <c r="K49" s="25">
+        <f t="shared" si="7"/>
+        <v>1.4775580894157855E-2</v>
+      </c>
+      <c r="L49" s="25">
+        <f t="shared" si="7"/>
+        <v>0.21102268805354144</v>
+      </c>
+      <c r="M49" s="18"/>
+    </row>
+    <row r="50" spans="2:13">
+      <c r="B50" s="19"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="25">
+        <f>SUM(D49,I49)</f>
+        <v>3.2106100473341968E-2</v>
+      </c>
+      <c r="F50" s="25">
+        <f t="shared" ref="F50:H50" si="8">SUM(E49,J49)</f>
+        <v>0.48731285314270151</v>
+      </c>
+      <c r="G50" s="25">
+        <f t="shared" si="8"/>
+        <v>1.4775580894157855E-2</v>
+      </c>
+      <c r="H50" s="25">
+        <f t="shared" si="8"/>
+        <v>0.21102268805354144</v>
+      </c>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="18"/>
+    </row>
+    <row r="51" spans="2:13">
+      <c r="B51" s="19"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="18"/>
+    </row>
+    <row r="52" spans="2:13">
+      <c r="B52" s="19"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="J48" s="32"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="32"/>
-      <c r="M48" s="35"/>
-    </row>
-    <row r="49" spans="2:13">
-      <c r="B49" s="23"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="40">
-        <f>PRODUCT(D47,E23)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="40">
-        <f t="shared" ref="E49:H49" si="4">PRODUCT(E47,F23)</f>
-        <v>0</v>
-      </c>
-      <c r="F49" s="40">
-        <f>PRODUCT(F47,G23)</f>
-        <v>0</v>
-      </c>
-      <c r="G49" s="40">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H49" s="40">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="30">
-        <f>PRODUCT(E16,E11)</f>
-        <v>-0.12981452766454271</v>
-      </c>
-      <c r="J49" s="30">
-        <f t="shared" ref="J49:L49" si="5">PRODUCT(F16,F11)</f>
-        <v>-0.15264174323706028</v>
-      </c>
-      <c r="K49" s="30">
-        <f t="shared" si="5"/>
-        <v>-0.45800702269274274</v>
-      </c>
-      <c r="L49" s="30">
-        <f t="shared" si="5"/>
-        <v>-0.28573759299601514</v>
-      </c>
-      <c r="M49" s="21"/>
-    </row>
-    <row r="50" spans="2:13">
-      <c r="B50" s="23"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E50" s="30">
-        <f>SUM(D49,I49)</f>
-        <v>-0.12981452766454271</v>
-      </c>
-      <c r="F50" s="30">
-        <f t="shared" ref="F50:H50" si="6">SUM(E49,J49)</f>
-        <v>-0.15264174323706028</v>
-      </c>
-      <c r="G50" s="30">
-        <f t="shared" si="6"/>
-        <v>-0.45800702269274274</v>
-      </c>
-      <c r="H50" s="30">
-        <f t="shared" si="6"/>
-        <v>-0.28573759299601514</v>
-      </c>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="21"/>
-    </row>
-    <row r="51" spans="2:13">
-      <c r="B51" s="23"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="21"/>
-    </row>
-    <row r="52" spans="2:13">
-      <c r="B52" s="23"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="36" t="s">
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="18"/>
+    </row>
+    <row r="53" spans="2:13">
+      <c r="B53" s="19"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="21"/>
-    </row>
-    <row r="53" spans="2:13">
-      <c r="B53" s="23"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30" t="s">
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="18"/>
+    </row>
+    <row r="54" spans="2:13">
+      <c r="B54" s="19"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="18"/>
+    </row>
+    <row r="55" spans="2:13">
+      <c r="B55" s="19"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="21"/>
-    </row>
-    <row r="54" spans="2:13">
-      <c r="B54" s="23"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="21"/>
-    </row>
-    <row r="55" spans="2:13">
-      <c r="B55" s="23"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30" t="s">
+      <c r="H55" s="25">
+        <f>TANH(E50)</f>
+        <v>3.2095073345848865E-2</v>
+      </c>
+      <c r="I55" s="25">
+        <f t="shared" ref="I55:K55" si="9">TANH(F50)</f>
+        <v>0.4520810768319577</v>
+      </c>
+      <c r="J55" s="25">
+        <f t="shared" si="9"/>
+        <v>1.4774505730656019E-2</v>
+      </c>
+      <c r="K55" s="25">
+        <f t="shared" si="9"/>
+        <v>0.20794517331584822</v>
+      </c>
+      <c r="L55" s="25"/>
+      <c r="M55" s="18"/>
+    </row>
+    <row r="56" spans="2:13">
+      <c r="B56" s="19"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="18"/>
+    </row>
+    <row r="57" spans="2:13">
+      <c r="B57" s="19"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="H55" s="30">
-        <f>TANH(E50)</f>
-        <v>-0.12909020640247601</v>
-      </c>
-      <c r="I55" s="30">
-        <f t="shared" ref="I55:K55" si="7">TANH(F50)</f>
-        <v>-0.15146719637711928</v>
-      </c>
-      <c r="J55" s="30">
-        <f t="shared" si="7"/>
-        <v>-0.42845848861526187</v>
-      </c>
-      <c r="K55" s="30">
-        <f t="shared" si="7"/>
-        <v>-0.27820699378350089</v>
-      </c>
-      <c r="L55" s="30"/>
-      <c r="M55" s="21"/>
-    </row>
-    <row r="56" spans="2:13">
-      <c r="B56" s="23"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
-      <c r="M56" s="21"/>
-    </row>
-    <row r="57" spans="2:13">
-      <c r="B57" s="23"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="E57" s="30">
+      <c r="E57" s="25">
         <f>PRODUCT(E30,H55)</f>
-        <v>-6.6003686867875569E-2</v>
-      </c>
-      <c r="F57" s="30">
-        <f t="shared" ref="F57:H57" si="8">PRODUCT(F30,I55)</f>
-        <v>-0.10097161982612768</v>
-      </c>
-      <c r="G57" s="30">
-        <f t="shared" si="8"/>
-        <v>-0.32673363213985618</v>
-      </c>
-      <c r="H57" s="30">
-        <f t="shared" si="8"/>
-        <v>-0.13769133982411982</v>
-      </c>
-      <c r="I57" s="30"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="21"/>
+        <v>1.8042808179765397E-2</v>
+      </c>
+      <c r="F57" s="25">
+        <f t="shared" ref="F57:H57" si="10">PRODUCT(F30,I55)</f>
+        <v>0.1073770866692443</v>
+      </c>
+      <c r="G57" s="25">
+        <f t="shared" si="10"/>
+        <v>5.5681266008060304E-3</v>
+      </c>
+      <c r="H57" s="25">
+        <f t="shared" si="10"/>
+        <v>0.12443470364555562</v>
+      </c>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="18"/>
     </row>
     <row r="58" spans="2:13">
-      <c r="B58" s="37"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="38"/>
-      <c r="J58" s="38"/>
-      <c r="K58" s="38"/>
-      <c r="L58" s="38"/>
-      <c r="M58" s="39"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="33"/>
     </row>
     <row r="60" spans="2:13">
-      <c r="J60" s="30"/>
-      <c r="K60" s="30"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
     </row>
     <row r="61" spans="2:13">
-      <c r="J61" s="30"/>
-      <c r="K61" s="30"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D35:I35"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B16:B19"/>
     <mergeCell ref="D48:H48"/>
     <mergeCell ref="I48:M48"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="D35:I35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7169A181-4DFC-4451-9306-AF39D978BD0C}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="T114" sqref="T114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="21" max="27" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="7">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="56">
+        <v>-0.24571428566790501</v>
+      </c>
+      <c r="E2" s="56">
+        <v>0.86802039774552897</v>
+      </c>
+      <c r="F2" s="56">
+        <v>-0.20644416090359599</v>
+      </c>
+      <c r="G2" s="56">
+        <v>0.84287438280084104</v>
+      </c>
+      <c r="H2" s="56">
+        <v>-3.3688638013480598E-2</v>
+      </c>
+      <c r="I2" s="56">
+        <v>0.63718613541014402</v>
+      </c>
+      <c r="J2" s="56">
+        <v>-0.91169719770305402</v>
+      </c>
+      <c r="K2" s="56">
+        <v>-0.73101821009060897</v>
+      </c>
+      <c r="L2" s="56">
+        <v>0.422948332023037</v>
+      </c>
+      <c r="M2" s="56">
+        <v>-0.32251625653697003</v>
+      </c>
+      <c r="N2" s="56">
+        <v>-8.5563577975749705E-2</v>
+      </c>
+      <c r="O2" s="56">
+        <v>-0.27839803785600797</v>
+      </c>
+      <c r="P2" s="56">
+        <v>0.10084364551318201</v>
+      </c>
+      <c r="Q2" s="56">
+        <v>-0.74387335851811298</v>
+      </c>
+      <c r="R2" s="56">
+        <v>-0.69024293478626797</v>
+      </c>
+      <c r="S2" s="56">
+        <v>0.34674523325583501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="56">
+        <v>0.85036060194095398</v>
+      </c>
+      <c r="E3" s="56">
+        <v>0.86042975449316705</v>
+      </c>
+      <c r="F3" s="56">
+        <v>-0.248561659698114</v>
+      </c>
+      <c r="G3" s="56">
+        <v>-0.32420606505682098</v>
+      </c>
+      <c r="H3" s="56">
+        <v>-0.37633417815307302</v>
+      </c>
+      <c r="I3" s="56">
+        <v>6.4674992228903605E-2</v>
+      </c>
+      <c r="J3" s="56">
+        <v>-0.91663759835016501</v>
+      </c>
+      <c r="K3" s="56">
+        <v>0.43617224360187501</v>
+      </c>
+      <c r="L3" s="56">
+        <v>-0.43776731755294501</v>
+      </c>
+      <c r="M3" s="56">
+        <v>-0.71297747540941403</v>
+      </c>
+      <c r="N3" s="56">
+        <v>-0.86354554821761398</v>
+      </c>
+      <c r="O3" s="56">
+        <v>-0.56810615556787003</v>
+      </c>
+      <c r="P3" s="56">
+        <v>-0.295229906505664</v>
+      </c>
+      <c r="Q3" s="56">
+        <v>0.84961193364862697</v>
+      </c>
+      <c r="R3" s="56">
+        <v>0.220126548897839</v>
+      </c>
+      <c r="S3" s="56">
+        <v>0.63582599694530895</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="56">
+        <v>2.92620451446696E-2</v>
+      </c>
+      <c r="E4" s="56">
+        <v>-0.37958092521959402</v>
+      </c>
+      <c r="F4" s="56">
+        <v>-8.52532467742039E-2</v>
+      </c>
+      <c r="G4" s="56">
+        <v>0.90772282903366497</v>
+      </c>
+      <c r="H4" s="56">
+        <v>0.106290154056943</v>
+      </c>
+      <c r="I4" s="56">
+        <v>0.79265583347785296</v>
+      </c>
+      <c r="J4" s="56">
+        <v>0.58263103190466103</v>
+      </c>
+      <c r="K4" s="56">
+        <v>-0.312168511613377</v>
+      </c>
+      <c r="L4" s="56">
+        <v>0.90236966873465996</v>
+      </c>
+      <c r="M4" s="56">
+        <v>-0.29056653558819001</v>
+      </c>
+      <c r="N4" s="56">
+        <v>0.20694458527293799</v>
+      </c>
+      <c r="O4" s="56">
+        <v>0.16909449788559699</v>
+      </c>
+      <c r="P4" s="56">
+        <v>0.59368906530708698</v>
+      </c>
+      <c r="Q4" s="56">
+        <v>-0.99958067658662197</v>
+      </c>
+      <c r="R4" s="56">
+        <v>-0.42138024293502901</v>
+      </c>
+      <c r="S4" s="56">
+        <v>-0.74845881874345699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="56">
+        <v>0.184398086691373</v>
+      </c>
+      <c r="E5" s="56">
+        <v>7.9506914225139003E-2</v>
+      </c>
+      <c r="F5" s="56">
+        <v>0.25112624003832001</v>
+      </c>
+      <c r="G5" s="56">
+        <v>-0.59373879210080704</v>
+      </c>
+      <c r="H5" s="56">
+        <v>-0.476211950266822</v>
+      </c>
+      <c r="I5" s="56">
+        <v>-0.62277947400202505</v>
+      </c>
+      <c r="J5" s="56">
+        <v>0.54204509846008997</v>
+      </c>
+      <c r="K5" s="56">
+        <v>-0.32548577581627902</v>
+      </c>
+      <c r="L5" s="56">
+        <v>0.98390974381523899</v>
+      </c>
+      <c r="M5" s="56">
+        <v>-0.49684985298294598</v>
+      </c>
+      <c r="N5" s="56">
+        <v>-0.78311659057955896</v>
+      </c>
+      <c r="O5" s="56">
+        <v>-0.14374156732430901</v>
+      </c>
+      <c r="P5" s="56">
+        <v>-0.97344654545605402</v>
+      </c>
+      <c r="Q5" s="56">
+        <v>0.80442242644253603</v>
+      </c>
+      <c r="R5" s="56">
+        <v>0.70010880369407502</v>
+      </c>
+      <c r="S5" s="56">
+        <v>0.107733446188696</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="71" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" s="75">
+        <v>4</v>
+      </c>
+      <c r="D6" s="56">
+        <v>0.95933570867949003</v>
+      </c>
+      <c r="E6" s="56">
+        <v>0.40254345863788299</v>
+      </c>
+      <c r="F6" s="56">
+        <v>-0.20415488921559699</v>
+      </c>
+      <c r="G6" s="56">
+        <v>0.62190803906297498</v>
+      </c>
+      <c r="H6" s="56">
+        <v>-0.281579612441484</v>
+      </c>
+      <c r="I6" s="56">
+        <v>-0.75087270017404195</v>
+      </c>
+      <c r="J6" s="56">
+        <v>0.13065204355176299</v>
+      </c>
+      <c r="K6" s="56">
+        <v>-0.59304823356445002</v>
+      </c>
+      <c r="L6" s="56">
+        <v>-0.58665370366138203</v>
+      </c>
+      <c r="M6" s="56">
+        <v>-0.58580241667415001</v>
+      </c>
+      <c r="N6" s="56">
+        <v>0.23243438399188701</v>
+      </c>
+      <c r="O6" s="56">
+        <v>0.62630421594589303</v>
+      </c>
+      <c r="P6" s="56">
+        <v>0.25539685132158702</v>
+      </c>
+      <c r="Q6" s="56">
+        <v>-0.584357739910914</v>
+      </c>
+      <c r="R6" s="56">
+        <v>-0.52137237014203397</v>
+      </c>
+      <c r="S6" s="56">
+        <v>0.68142855183136697</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="D7" s="56">
+        <v>-9.9485081832568698E-2</v>
+      </c>
+      <c r="E7" s="56">
+        <v>0.75986215578417904</v>
+      </c>
+      <c r="F7" s="56">
+        <v>0.89488657964323504</v>
+      </c>
+      <c r="G7" s="56">
+        <v>0.54049934907390895</v>
+      </c>
+      <c r="H7" s="56">
+        <v>-0.77199317520024102</v>
+      </c>
+      <c r="I7" s="56">
+        <v>-4.0263882830577198E-2</v>
+      </c>
+      <c r="J7" s="56">
+        <v>-0.232408057101884</v>
+      </c>
+      <c r="K7" s="56">
+        <v>4.4100620359316597E-2</v>
+      </c>
+      <c r="L7" s="56">
+        <v>0.18483402433478699</v>
+      </c>
+      <c r="M7" s="56">
+        <v>0.324760846625892</v>
+      </c>
+      <c r="N7" s="56">
+        <v>-0.75814815425682303</v>
+      </c>
+      <c r="O7" s="56">
+        <v>0.59097555657809597</v>
+      </c>
+      <c r="P7" s="56">
+        <v>0.82321609192014</v>
+      </c>
+      <c r="Q7" s="56">
+        <v>-0.77521831110930295</v>
+      </c>
+      <c r="R7" s="56">
+        <v>0.83425682437096704</v>
+      </c>
+      <c r="S7" s="56">
+        <v>0.19680125107297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="D8" s="56">
+        <v>0.39216633927922701</v>
+      </c>
+      <c r="E8" s="56">
+        <v>-0.242968242321522</v>
+      </c>
+      <c r="F8" s="56">
+        <v>-1.0754663727889E-2</v>
+      </c>
+      <c r="G8" s="56">
+        <v>0.49659237129921802</v>
+      </c>
+      <c r="H8" s="56">
+        <v>-0.72069876899548801</v>
+      </c>
+      <c r="I8" s="56">
+        <v>-0.90475694619612901</v>
+      </c>
+      <c r="J8" s="56">
+        <v>-0.29982545778926001</v>
+      </c>
+      <c r="K8" s="56">
+        <v>-0.66962364949557396</v>
+      </c>
+      <c r="L8" s="56">
+        <v>0.26953863477411599</v>
+      </c>
+      <c r="M8" s="56">
+        <v>-0.136000234636562</v>
+      </c>
+      <c r="N8" s="56">
+        <v>0.67017113149798302</v>
+      </c>
+      <c r="O8" s="56">
+        <v>0.188457129018791</v>
+      </c>
+      <c r="P8" s="56">
+        <v>0.55397886876325297</v>
+      </c>
+      <c r="Q8" s="56">
+        <v>0.37434472784919398</v>
+      </c>
+      <c r="R8" s="56">
+        <v>0.79766220000757304</v>
+      </c>
+      <c r="S8" s="56">
+        <v>0.43054744456285499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="D9" s="56">
+        <v>-0.115332029515086</v>
+      </c>
+      <c r="E9" s="56">
+        <v>-0.86908489349029905</v>
+      </c>
+      <c r="F9" s="56">
+        <v>0.47624777903135401</v>
+      </c>
+      <c r="G9" s="56">
+        <v>-8.2000833192932499E-2</v>
+      </c>
+      <c r="H9" s="56">
+        <v>-0.42186846550169199</v>
+      </c>
+      <c r="I9" s="56">
+        <v>-0.52496061466262001</v>
+      </c>
+      <c r="J9" s="56">
+        <v>0.387831388002504</v>
+      </c>
+      <c r="K9" s="56">
+        <v>0.45575040903341901</v>
+      </c>
+      <c r="L9" s="56">
+        <v>-0.48213197379355999</v>
+      </c>
+      <c r="M9" s="56">
+        <v>-0.79160649393643101</v>
+      </c>
+      <c r="N9" s="56">
+        <v>2.11558022796221E-3</v>
+      </c>
+      <c r="O9" s="56">
+        <v>-8.8438995884666305E-2</v>
+      </c>
+      <c r="P9" s="56">
+        <v>-6.1636168391381897E-2</v>
+      </c>
+      <c r="Q9" s="56">
+        <v>-0.64238117558075902</v>
+      </c>
+      <c r="R9" s="56">
+        <v>0.97835733304528905</v>
+      </c>
+      <c r="S9" s="56">
+        <v>0.3177671688257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="D10" s="56">
+        <v>0.43777571266936699</v>
+      </c>
+      <c r="E10" s="56">
+        <v>0.69643092862904399</v>
+      </c>
+      <c r="F10" s="56">
+        <v>0.98462066896193601</v>
+      </c>
+      <c r="G10" s="56">
+        <v>-7.8056646290275797E-2</v>
+      </c>
+      <c r="H10" s="56">
+        <v>0.23591815774516101</v>
+      </c>
+      <c r="I10" s="56">
+        <v>-0.64859607081584503</v>
+      </c>
+      <c r="J10" s="56">
+        <v>-0.70537503491824105</v>
+      </c>
+      <c r="K10" s="56">
+        <v>-0.32761969644373001</v>
+      </c>
+      <c r="L10" s="56">
+        <v>0.64127493451894502</v>
+      </c>
+      <c r="M10" s="56">
+        <v>0.62867453942059603</v>
+      </c>
+      <c r="N10" s="56">
+        <v>0.92332832021988498</v>
+      </c>
+      <c r="O10" s="56">
+        <v>0.90578063072025505</v>
+      </c>
+      <c r="P10" s="56">
+        <v>-0.95446925122432003</v>
+      </c>
+      <c r="Q10" s="56">
+        <v>0.21701275843269399</v>
+      </c>
+      <c r="R10" s="56">
+        <v>-0.32973610570879203</v>
+      </c>
+      <c r="S10" s="56">
+        <v>-0.548290639848664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="D11" s="56">
+        <v>-0.37798765435810799</v>
+      </c>
+      <c r="E11" s="56">
+        <v>0.77122355462346104</v>
+      </c>
+      <c r="F11" s="56">
+        <v>0.85811756102465997</v>
+      </c>
+      <c r="G11" s="56">
+        <v>-0.912741137728037</v>
+      </c>
+      <c r="H11" s="56">
+        <v>0.16129818738304899</v>
+      </c>
+      <c r="I11" s="56">
+        <v>5.6959619118414198E-2</v>
+      </c>
+      <c r="J11" s="56">
+        <v>5.4400065890228097E-2</v>
+      </c>
+      <c r="K11" s="56">
+        <v>-4.3612854880400898E-2</v>
+      </c>
+      <c r="L11" s="56">
+        <v>-0.46089027443845998</v>
+      </c>
+      <c r="M11" s="56">
+        <v>0.16489798712270701</v>
+      </c>
+      <c r="N11" s="56">
+        <v>-0.72784152832272997</v>
+      </c>
+      <c r="O11" s="56">
+        <v>-0.88197478195644097</v>
+      </c>
+      <c r="P11" s="56">
+        <v>0.25833182189588599</v>
+      </c>
+      <c r="Q11" s="56">
+        <v>-0.124984937433835</v>
+      </c>
+      <c r="R11" s="56">
+        <v>-0.60402167308474297</v>
+      </c>
+      <c r="S11" s="56">
+        <v>0.46099053413924401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="U13" s="55"/>
+      <c r="V13" s="55"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="55"/>
+      <c r="Y13" s="55"/>
+      <c r="Z13" s="55"/>
+      <c r="AA13" s="55"/>
+      <c r="AB13" s="55"/>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="U14" s="55"/>
+      <c r="V14" s="55"/>
+      <c r="W14" s="55"/>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="B15" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="62"/>
+      <c r="H15" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="69"/>
+      <c r="U15" s="55"/>
+      <c r="V15" s="55"/>
+      <c r="W15" s="55"/>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="B16" s="63">
+        <f>(B27*B5)+B4</f>
+        <v>0.21433114532326061</v>
+      </c>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="64">
+        <v>8.5720866046634821E-3</v>
+      </c>
+      <c r="I16" s="64">
+        <v>1.3406917819166643E-2</v>
+      </c>
+      <c r="J16" s="64">
+        <v>1.1317006145904945E-2</v>
+      </c>
+      <c r="K16" s="64">
+        <v>0</v>
+      </c>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="65"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="55"/>
+    </row>
+    <row r="17" spans="2:23">
+      <c r="B17" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="82">
+        <v>1</v>
+      </c>
+      <c r="H17" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="82">
+        <v>2</v>
+      </c>
+      <c r="M17" s="84" t="s">
+        <v>80</v>
+      </c>
+      <c r="N17" s="84"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
+      <c r="S17" s="65"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="55"/>
+    </row>
+    <row r="18" spans="2:23">
+      <c r="B18" s="63">
+        <f>iNPUT!C28</f>
+        <v>0.18977408299106016</v>
+      </c>
+      <c r="C18" s="64">
+        <f>iNPUT!D28</f>
+        <v>0.16688888888888884</v>
+      </c>
+      <c r="D18" s="64">
+        <f>iNPUT!E28</f>
+        <v>0.16236842105263163</v>
+      </c>
+      <c r="E18" s="64">
+        <f>iNPUT!F28</f>
+        <v>0.16505362280931193</v>
+      </c>
+      <c r="F18" s="64"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="58">
+        <f>B36-$B5*B31</f>
+        <v>-0.5</v>
+      </c>
+      <c r="I18" s="58">
+        <f>C36-$B5*C31</f>
+        <v>-0.5</v>
+      </c>
+      <c r="J18" s="58">
+        <f>D36-$B5*D31</f>
+        <v>-0.5</v>
+      </c>
+      <c r="K18" s="58">
+        <f>E36-$B5*E31</f>
+        <v>-0.5</v>
+      </c>
+      <c r="L18" s="63"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="O18" s="64"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="65"/>
+      <c r="U18" s="55"/>
+      <c r="V18" s="55"/>
+      <c r="W18" s="55"/>
+    </row>
+    <row r="19" spans="2:23">
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="64">
+        <f>TANH(B44)</f>
+        <v>3.2095073345848865E-2</v>
+      </c>
+      <c r="N19" s="64">
+        <f t="shared" ref="N19:P19" si="0">TANH(C44)</f>
+        <v>0.4520810768319577</v>
+      </c>
+      <c r="O19" s="64">
+        <f>TANH(D44)</f>
+        <v>1.4774505730656019E-2</v>
+      </c>
+      <c r="P19" s="64">
+        <f t="shared" si="0"/>
+        <v>0.20794517331584822</v>
+      </c>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="65"/>
+      <c r="U19" s="55"/>
+      <c r="V19" s="55"/>
+      <c r="W19" s="55"/>
+    </row>
+    <row r="20" spans="2:23">
+      <c r="B20" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="78" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="58">
+        <f>B36+$B5*H18</f>
+        <v>-0.25</v>
+      </c>
+      <c r="I20" s="58">
+        <f>C36+$B5*I18</f>
+        <v>-0.25</v>
+      </c>
+      <c r="J20" s="58">
+        <f>D36+$B5*J18</f>
+        <v>-0.25</v>
+      </c>
+      <c r="K20" s="58">
+        <f>E36+$B5*K18</f>
+        <v>-0.25</v>
+      </c>
+      <c r="L20" s="63"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="O20" s="40"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="64"/>
+      <c r="R20" s="64"/>
+      <c r="S20" s="65"/>
+      <c r="U20" s="55"/>
+      <c r="V20" s="55"/>
+      <c r="W20" s="55"/>
+    </row>
+    <row r="21" spans="2:23">
+      <c r="B21" s="63">
+        <f>'FORWARD 1'!E57</f>
+        <v>1.8042808179765397E-2</v>
+      </c>
+      <c r="C21" s="64">
+        <f>'FORWARD 1'!F57</f>
+        <v>0.1073770866692443</v>
+      </c>
+      <c r="D21" s="64">
+        <f>'FORWARD 1'!G57</f>
+        <v>5.5681266008060304E-3</v>
+      </c>
+      <c r="E21" s="64">
+        <f>'FORWARD 1'!H57</f>
+        <v>0.12443470364555562</v>
+      </c>
+      <c r="F21" s="64"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="M21" s="64">
+        <f>PRODUCT(M19,H20)</f>
+        <v>-8.0237683364622163E-3</v>
+      </c>
+      <c r="N21" s="64">
+        <f t="shared" ref="N21:P21" si="1">PRODUCT(N19,I20)</f>
+        <v>-0.11302026920798942</v>
+      </c>
+      <c r="O21" s="64">
+        <f t="shared" si="1"/>
+        <v>-3.6936264326640047E-3</v>
+      </c>
+      <c r="P21" s="64">
+        <f t="shared" si="1"/>
+        <v>-5.1986293328962055E-2</v>
+      </c>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="65"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="55"/>
+    </row>
+    <row r="22" spans="2:23">
+      <c r="B22" s="63"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="68"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="65"/>
+      <c r="U22" s="55"/>
+      <c r="V22" s="55"/>
+      <c r="W22" s="55"/>
+    </row>
+    <row r="23" spans="2:23">
+      <c r="B23" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="82">
+        <v>3</v>
+      </c>
+      <c r="H23" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="69"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="64"/>
+      <c r="S23" s="65"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="55"/>
+    </row>
+    <row r="24" spans="2:23">
+      <c r="B24" s="63">
+        <f>B18-B21</f>
+        <v>0.17173127481129477</v>
+      </c>
+      <c r="C24" s="64">
+        <f>C18-C21</f>
+        <v>5.9511802219644541E-2</v>
+      </c>
+      <c r="D24" s="64">
+        <f>D18-D21</f>
+        <v>0.15680029445182561</v>
+      </c>
+      <c r="E24" s="64">
+        <f>E18-E21</f>
+        <v>4.0618919163756317E-2</v>
+      </c>
+      <c r="F24" s="64"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="J24" s="42"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="64"/>
+      <c r="S24" s="65"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="55"/>
+    </row>
+    <row r="25" spans="2:23">
+      <c r="B25" s="63"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64">
+        <f>PRODUCT(H20,B41)</f>
+        <v>-0.14054188305896978</v>
+      </c>
+      <c r="J25" s="64">
+        <f t="shared" ref="J25:L25" si="2">PRODUCT(I20,C41)</f>
+        <v>-5.9379330485202574E-2</v>
+      </c>
+      <c r="K25" s="64">
+        <f t="shared" si="2"/>
+        <v>-9.4218492014466776E-2</v>
+      </c>
+      <c r="L25" s="64">
+        <f t="shared" si="2"/>
+        <v>-0.1496003750187454</v>
+      </c>
+      <c r="M25" s="64"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="65"/>
+      <c r="Q25" s="64"/>
+      <c r="R25" s="64"/>
+      <c r="S25" s="65"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="55"/>
+    </row>
+    <row r="26" spans="2:23">
+      <c r="B26" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="I26" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="J26" s="42"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="65"/>
+      <c r="Q26" s="64"/>
+      <c r="R26" s="64"/>
+      <c r="S26" s="65"/>
+      <c r="U26" s="55"/>
+      <c r="V26" s="55"/>
+      <c r="W26" s="55"/>
+    </row>
+    <row r="27" spans="2:23">
+      <c r="B27" s="63">
+        <f>SUM(B24:E24)</f>
+        <v>0.42866229064652123</v>
+      </c>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64">
+        <f>SQRT(M19)</f>
+        <v>0.17915097919310646</v>
+      </c>
+      <c r="J27" s="64">
+        <f>SQRT(N19)</f>
+        <v>0.67236974711237396</v>
+      </c>
+      <c r="K27" s="64">
+        <f t="shared" ref="K27:L27" si="3">SQRT(O19)</f>
+        <v>0.12155042464202262</v>
+      </c>
+      <c r="L27" s="64">
+        <f t="shared" si="3"/>
+        <v>0.45601005834942743</v>
+      </c>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="65"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="64"/>
+      <c r="S27" s="65"/>
+      <c r="U27" s="55"/>
+      <c r="V27" s="55"/>
+      <c r="W27" s="55"/>
+    </row>
+    <row r="28" spans="2:23">
+      <c r="B28" s="63"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="I28" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="65"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="65"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="55"/>
+      <c r="W28" s="55"/>
+    </row>
+    <row r="29" spans="2:23">
+      <c r="B29" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64">
+        <f>1-I27</f>
+        <v>0.82084902080689348</v>
+      </c>
+      <c r="J29" s="64">
+        <f>1-J27</f>
+        <v>0.32763025288762604</v>
+      </c>
+      <c r="K29" s="64">
+        <f t="shared" ref="J29:L29" si="4">1-K27</f>
+        <v>0.87844957535797741</v>
+      </c>
+      <c r="L29" s="64">
+        <f t="shared" si="4"/>
+        <v>0.54398994165057257</v>
+      </c>
+      <c r="M29" s="64"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="64"/>
+      <c r="P29" s="65"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="65"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="55"/>
+    </row>
+    <row r="30" spans="2:23">
+      <c r="B30" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="I30" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="65"/>
+      <c r="Q30" s="64"/>
+      <c r="R30" s="64"/>
+      <c r="S30" s="65"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="55"/>
+    </row>
+    <row r="31" spans="2:23">
+      <c r="B31" s="63" t="str">
+        <f>IF(B21&lt;B18,"1","0")</f>
+        <v>1</v>
+      </c>
+      <c r="C31" s="64" t="str">
+        <f>IF(C21&lt;C18,"1","0")</f>
+        <v>1</v>
+      </c>
+      <c r="D31" s="64" t="str">
+        <f>IF(D21&lt;D18,"1","0")</f>
+        <v>1</v>
+      </c>
+      <c r="E31" s="64" t="str">
+        <f>IF(E21&lt;E18,"1","0")</f>
+        <v>1</v>
+      </c>
+      <c r="F31" s="64"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64">
+        <f>I25*I29</f>
+        <v>-0.11536366709131228</v>
+      </c>
+      <c r="J31" s="64">
+        <f t="shared" ref="J31:L31" si="5">J25*J29</f>
+        <v>-1.9454465063164842E-2</v>
+      </c>
+      <c r="K31" s="64">
+        <f t="shared" si="5"/>
+        <v>-8.2766194300977328E-2</v>
+      </c>
+      <c r="L31" s="64">
+        <f t="shared" si="5"/>
+        <v>-8.1381099277351085E-2</v>
+      </c>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="65"/>
+      <c r="Q31" s="64"/>
+      <c r="R31" s="64"/>
+      <c r="S31" s="65"/>
+      <c r="U31" s="55"/>
+      <c r="V31" s="55"/>
+      <c r="W31" s="55"/>
+    </row>
+    <row r="32" spans="2:23">
+      <c r="B32" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="I32" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="65"/>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="64"/>
+      <c r="S32" s="65"/>
+      <c r="U32" s="55"/>
+      <c r="V32" s="55"/>
+      <c r="W32" s="55"/>
+    </row>
+    <row r="33" spans="2:23">
+      <c r="B33" s="63" t="str">
+        <f>IF(B21&gt;B18,"1","0")</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="64" t="str">
+        <f t="shared" ref="C33:E33" si="6">IF(C21&gt;C18,"1","0")</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="64"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="I33" s="64">
+        <f>B38+I31</f>
+        <v>-0.11536366709131228</v>
+      </c>
+      <c r="J33" s="64">
+        <f t="shared" ref="J33:L33" si="7">C38+J31</f>
+        <v>-1.9454465063164842E-2</v>
+      </c>
+      <c r="K33" s="64">
+        <f t="shared" si="7"/>
+        <v>-8.2766194300977328E-2</v>
+      </c>
+      <c r="L33" s="64">
+        <f t="shared" si="7"/>
+        <v>-8.1381099277351085E-2</v>
+      </c>
+      <c r="M33" s="64"/>
+      <c r="N33" s="64"/>
+      <c r="O33" s="64"/>
+      <c r="P33" s="65"/>
+      <c r="Q33" s="64"/>
+      <c r="R33" s="64"/>
+      <c r="S33" s="65"/>
+      <c r="U33" s="55"/>
+      <c r="V33" s="55"/>
+      <c r="W33" s="55"/>
+    </row>
+    <row r="34" spans="2:23">
+      <c r="B34" s="63"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="66"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="67"/>
+      <c r="P34" s="68"/>
+      <c r="Q34" s="64"/>
+      <c r="R34" s="64"/>
+      <c r="S34" s="65"/>
+      <c r="U34" s="55"/>
+      <c r="V34" s="55"/>
+      <c r="W34" s="55"/>
+    </row>
+    <row r="35" spans="2:23">
+      <c r="B35" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="65"/>
+      <c r="Q35" s="64"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="65"/>
+      <c r="U35" s="55"/>
+      <c r="V35" s="55"/>
+      <c r="W35" s="55"/>
+    </row>
+    <row r="36" spans="2:23">
+      <c r="B36" s="63">
+        <v>0</v>
+      </c>
+      <c r="C36" s="64">
+        <v>0</v>
+      </c>
+      <c r="D36" s="64">
+        <v>0</v>
+      </c>
+      <c r="E36" s="64">
+        <v>0</v>
+      </c>
+      <c r="F36" s="64"/>
+      <c r="G36" s="82">
+        <v>4</v>
+      </c>
+      <c r="H36" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="I36" s="46"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="61"/>
+      <c r="P36" s="69"/>
+      <c r="Q36" s="64"/>
+      <c r="R36" s="64"/>
+      <c r="S36" s="65"/>
+      <c r="U36" s="55"/>
+      <c r="V36" s="55"/>
+      <c r="W36" s="55"/>
+    </row>
+    <row r="37" spans="2:23">
+      <c r="B37" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="J37" s="64"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="64"/>
+      <c r="M37" s="63"/>
+      <c r="N37" s="64"/>
+      <c r="O37" s="64"/>
+      <c r="P37" s="65"/>
+      <c r="Q37" s="64"/>
+      <c r="R37" s="64"/>
+      <c r="S37" s="65"/>
+      <c r="U37" s="55"/>
+      <c r="V37" s="55"/>
+      <c r="W37" s="55"/>
+    </row>
+    <row r="38" spans="2:23">
+      <c r="B38" s="63">
+        <v>0</v>
+      </c>
+      <c r="C38" s="64">
+        <v>0</v>
+      </c>
+      <c r="D38" s="64">
+        <v>0</v>
+      </c>
+      <c r="E38" s="64">
+        <v>0</v>
+      </c>
+      <c r="F38" s="64"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="I38" s="81">
+        <f>PRODUCT(I33,B50)</f>
+        <v>-9.5845982975995853E-3</v>
+      </c>
+      <c r="J38" s="81">
+        <f t="shared" ref="J38:L38" si="8">PRODUCT(J33,C50)</f>
+        <v>-1.5582951651798417E-2</v>
+      </c>
+      <c r="K38" s="81">
+        <f t="shared" si="8"/>
+        <v>-3.3621641499443056E-3</v>
+      </c>
+      <c r="L38" s="81">
+        <f>PRODUCT(L33,E50)</f>
+        <v>-6.9183287809379865E-2</v>
+      </c>
+      <c r="M38" s="63"/>
+      <c r="N38" s="64"/>
+      <c r="O38" s="64"/>
+      <c r="P38" s="65"/>
+      <c r="Q38" s="64"/>
+      <c r="R38" s="64"/>
+      <c r="S38" s="65"/>
+      <c r="U38" s="55"/>
+      <c r="V38" s="55"/>
+      <c r="W38" s="55"/>
+    </row>
+    <row r="39" spans="2:23">
+      <c r="B39" s="63"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="77">
+        <v>5</v>
+      </c>
+      <c r="H39" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="I39" s="47"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="64"/>
+      <c r="L39" s="64"/>
+      <c r="M39" s="63"/>
+      <c r="N39" s="64"/>
+      <c r="O39" s="64"/>
+      <c r="P39" s="65"/>
+      <c r="Q39" s="64"/>
+      <c r="R39" s="64"/>
+      <c r="S39" s="65"/>
+      <c r="U39" s="55"/>
+      <c r="V39" s="55"/>
+      <c r="W39" s="55"/>
+    </row>
+    <row r="40" spans="2:23">
+      <c r="B40" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="J40" s="73"/>
+      <c r="K40" s="64"/>
+      <c r="L40" s="64"/>
+      <c r="M40" s="63"/>
+      <c r="N40" s="64"/>
+      <c r="O40" s="64"/>
+      <c r="P40" s="65"/>
+      <c r="Q40" s="64"/>
+      <c r="R40" s="64"/>
+      <c r="S40" s="65"/>
+      <c r="U40" s="55"/>
+      <c r="V40" s="55"/>
+      <c r="W40" s="55"/>
+    </row>
+    <row r="41" spans="2:23">
+      <c r="B41" s="63">
+        <f>'FORWARD 1'!E30</f>
+        <v>0.56216753223587912</v>
+      </c>
+      <c r="C41" s="64">
+        <f>'FORWARD 1'!F30</f>
+        <v>0.23751732194081029</v>
+      </c>
+      <c r="D41" s="64">
+        <f>'FORWARD 1'!G30</f>
+        <v>0.3768739680578671</v>
+      </c>
+      <c r="E41" s="64">
+        <f>'FORWARD 1'!H30</f>
+        <v>0.59840150007498161</v>
+      </c>
+      <c r="F41" s="64"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="I41" s="81">
+        <f>PRODUCT(I33,B53)</f>
+        <v>-4.4581199550004308E-2</v>
+      </c>
+      <c r="J41" s="81">
+        <f t="shared" ref="J41:L41" si="9">PRODUCT(J33,C53)</f>
+        <v>-1.1835775807984377E-2</v>
+      </c>
+      <c r="K41" s="81">
+        <f t="shared" si="9"/>
+        <v>-3.0104514200172263E-2</v>
+      </c>
+      <c r="L41" s="81">
+        <f t="shared" si="9"/>
+        <v>-2.0201101812559064E-2</v>
+      </c>
+      <c r="M41" s="63"/>
+      <c r="N41" s="64"/>
+      <c r="O41" s="64"/>
+      <c r="P41" s="65"/>
+      <c r="Q41" s="64"/>
+      <c r="R41" s="64"/>
+      <c r="S41" s="65"/>
+      <c r="U41" s="55"/>
+      <c r="V41" s="55"/>
+      <c r="W41" s="55"/>
+    </row>
+    <row r="42" spans="2:23">
+      <c r="B42" s="63"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="77">
+        <v>6</v>
+      </c>
+      <c r="H42" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="I42" s="47"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="64"/>
+      <c r="L42" s="64"/>
+      <c r="M42" s="63"/>
+      <c r="N42" s="64"/>
+      <c r="O42" s="64"/>
+      <c r="P42" s="65"/>
+      <c r="Q42" s="64"/>
+      <c r="R42" s="64"/>
+      <c r="S42" s="65"/>
+      <c r="U42" s="55"/>
+      <c r="V42" s="55"/>
+      <c r="W42" s="55"/>
+    </row>
+    <row r="43" spans="2:23">
+      <c r="B43" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="64"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="J43" s="64"/>
+      <c r="K43" s="64"/>
+      <c r="L43" s="64"/>
+      <c r="M43" s="63"/>
+      <c r="N43" s="64"/>
+      <c r="O43" s="64"/>
+      <c r="P43" s="65"/>
+      <c r="Q43" s="64"/>
+      <c r="R43" s="64"/>
+      <c r="S43" s="65"/>
+      <c r="U43" s="55"/>
+      <c r="V43" s="55"/>
+      <c r="W43" s="55"/>
+    </row>
+    <row r="44" spans="2:23">
+      <c r="B44" s="63">
+        <f>'FORWARD 1'!E50</f>
+        <v>3.2106100473341968E-2</v>
+      </c>
+      <c r="C44" s="64">
+        <f>'FORWARD 1'!F50</f>
+        <v>0.48731285314270151</v>
+      </c>
+      <c r="D44" s="64">
+        <f>'FORWARD 1'!G50</f>
+        <v>1.4775580894157855E-2</v>
+      </c>
+      <c r="E44" s="64">
+        <f>'FORWARD 1'!H50</f>
+        <v>0.21102268805354144</v>
+      </c>
+      <c r="F44" s="64"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="I44" s="81">
+        <f>PRODUCT(I33,B56)</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="81">
+        <f t="shared" ref="J44:L44" si="10">PRODUCT(J33,C56)</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="81">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="81">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="63"/>
+      <c r="N44" s="64"/>
+      <c r="O44" s="64"/>
+      <c r="P44" s="65"/>
+      <c r="Q44" s="64"/>
+      <c r="R44" s="64"/>
+      <c r="S44" s="65"/>
+      <c r="U44" s="55"/>
+      <c r="V44" s="55"/>
+      <c r="W44" s="55"/>
+    </row>
+    <row r="45" spans="2:23">
+      <c r="B45" s="63"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="77">
+        <v>7</v>
+      </c>
+      <c r="H45" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="I45" s="47"/>
+      <c r="J45" s="64"/>
+      <c r="K45" s="64"/>
+      <c r="L45" s="64"/>
+      <c r="M45" s="63"/>
+      <c r="N45" s="64"/>
+      <c r="O45" s="64"/>
+      <c r="P45" s="65"/>
+      <c r="Q45" s="64"/>
+      <c r="R45" s="64"/>
+      <c r="S45" s="65"/>
+      <c r="U45" s="55"/>
+      <c r="V45" s="55"/>
+      <c r="W45" s="55"/>
+    </row>
+    <row r="46" spans="2:23">
+      <c r="B46" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="64"/>
+      <c r="I46" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="J46" s="49"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="64"/>
+      <c r="M46" s="63"/>
+      <c r="N46" s="64"/>
+      <c r="O46" s="64"/>
+      <c r="P46" s="65"/>
+      <c r="Q46" s="64"/>
+      <c r="R46" s="64"/>
+      <c r="S46" s="65"/>
+      <c r="U46" s="55"/>
+      <c r="V46" s="55"/>
+      <c r="W46" s="55"/>
+    </row>
+    <row r="47" spans="2:23">
+      <c r="B47" s="63">
+        <v>4</v>
+      </c>
+      <c r="C47" s="64">
+        <v>4</v>
+      </c>
+      <c r="D47" s="64">
+        <v>4</v>
+      </c>
+      <c r="E47" s="64">
+        <v>4</v>
+      </c>
+      <c r="F47" s="64"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="I47" s="81">
+        <f>PRODUCT(I33,B59)</f>
+        <v>-8.2901411978034439E-2</v>
+      </c>
+      <c r="J47" s="81">
+        <f t="shared" ref="J47:K47" si="11">PRODUCT(J33,C59)</f>
+        <v>-6.5690945298954731E-3</v>
+      </c>
+      <c r="K47" s="81">
+        <f t="shared" si="11"/>
+        <v>-3.2520411734511798E-2</v>
+      </c>
+      <c r="L47" s="81">
+        <f>PRODUCT(L33,E59)</f>
+        <v>-4.2151296173141235E-2</v>
+      </c>
+      <c r="M47" s="63"/>
+      <c r="N47" s="64"/>
+      <c r="O47" s="64"/>
+      <c r="P47" s="65"/>
+      <c r="Q47" s="64"/>
+      <c r="R47" s="64"/>
+      <c r="S47" s="65"/>
+      <c r="U47" s="55"/>
+      <c r="V47" s="55"/>
+      <c r="W47" s="55"/>
+    </row>
+    <row r="48" spans="2:23">
+      <c r="B48" s="63"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="64"/>
+      <c r="K48" s="64"/>
+      <c r="L48" s="64"/>
+      <c r="M48" s="63"/>
+      <c r="N48" s="64"/>
+      <c r="O48" s="64"/>
+      <c r="P48" s="65"/>
+      <c r="Q48" s="64"/>
+      <c r="R48" s="64"/>
+      <c r="S48" s="65"/>
+      <c r="U48" s="55"/>
+      <c r="V48" s="55"/>
+      <c r="W48" s="55"/>
+    </row>
+    <row r="49" spans="2:23">
+      <c r="B49" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="64"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="67"/>
+      <c r="J49" s="67"/>
+      <c r="K49" s="67"/>
+      <c r="L49" s="67"/>
+      <c r="M49" s="66"/>
+      <c r="N49" s="67"/>
+      <c r="O49" s="67"/>
+      <c r="P49" s="68"/>
+      <c r="Q49" s="64"/>
+      <c r="R49" s="64"/>
+      <c r="S49" s="65"/>
+      <c r="U49" s="55"/>
+      <c r="V49" s="55"/>
+      <c r="W49" s="55"/>
+    </row>
+    <row r="50" spans="2:23">
+      <c r="B50" s="63">
+        <f>'FORWARD 1'!E11</f>
+        <v>8.3081602199878188E-2</v>
+      </c>
+      <c r="C50" s="64">
+        <f>'FORWARD 1'!F11</f>
+        <v>0.80099615184501971</v>
+      </c>
+      <c r="D50" s="64">
+        <f>'FORWARD 1'!G11</f>
+        <v>4.0622432604764627E-2</v>
+      </c>
+      <c r="E50" s="64">
+        <f>'FORWARD 1'!H11</f>
+        <v>0.85011493361129919</v>
+      </c>
+      <c r="F50" s="64"/>
+      <c r="G50" s="82">
+        <v>8</v>
+      </c>
+      <c r="H50" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="I50" s="46"/>
+      <c r="J50" s="61"/>
+      <c r="K50" s="61"/>
+      <c r="L50" s="60"/>
+      <c r="M50" s="61"/>
+      <c r="N50" s="61"/>
+      <c r="O50" s="61"/>
+      <c r="P50" s="69"/>
+      <c r="Q50" s="64"/>
+      <c r="R50" s="64"/>
+      <c r="S50" s="65"/>
+      <c r="U50" s="55"/>
+      <c r="V50" s="55"/>
+      <c r="W50" s="55"/>
+    </row>
+    <row r="51" spans="2:23">
+      <c r="B51" s="63"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="80" t="s">
+        <v>118</v>
+      </c>
+      <c r="I51" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="J51" s="73"/>
+      <c r="K51" s="64"/>
+      <c r="L51" s="63"/>
+      <c r="M51" s="64"/>
+      <c r="N51" s="64"/>
+      <c r="O51" s="64"/>
+      <c r="P51" s="65"/>
+      <c r="Q51" s="64"/>
+      <c r="R51" s="64"/>
+      <c r="S51" s="65"/>
+      <c r="U51" s="55"/>
+      <c r="V51" s="55"/>
+      <c r="W51" s="55"/>
+    </row>
+    <row r="52" spans="2:23">
+      <c r="B52" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="64"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="64"/>
+      <c r="I52" s="64">
+        <f>TANH(B62)</f>
+        <v>8.3081602199878188E-2</v>
+      </c>
+      <c r="J52" s="64">
+        <f t="shared" ref="J52:L52" si="12">TANH(C62)</f>
+        <v>0.80099615184501971</v>
+      </c>
+      <c r="K52" s="64">
+        <f t="shared" si="12"/>
+        <v>4.0622432604764627E-2</v>
+      </c>
+      <c r="L52" s="64">
+        <f t="shared" si="12"/>
+        <v>0.85011493361129919</v>
+      </c>
+      <c r="M52" s="64"/>
+      <c r="N52" s="64"/>
+      <c r="O52" s="64"/>
+      <c r="P52" s="65"/>
+      <c r="Q52" s="64"/>
+      <c r="R52" s="64"/>
+      <c r="S52" s="65"/>
+      <c r="U52" s="55"/>
+      <c r="V52" s="55"/>
+      <c r="W52" s="55"/>
+    </row>
+    <row r="53" spans="2:23">
+      <c r="B53" s="63">
+        <f>'FORWARD 1'!E16</f>
+        <v>0.38644055510750658</v>
+      </c>
+      <c r="C53" s="64">
+        <f>'FORWARD 1'!F16</f>
+        <v>0.60838351347908715</v>
+      </c>
+      <c r="D53" s="64">
+        <f>'FORWARD 1'!G16</f>
+        <v>0.36372959339773314</v>
+      </c>
+      <c r="E53" s="64">
+        <f>'FORWARD 1'!H16</f>
+        <v>0.24822842148780322</v>
+      </c>
+      <c r="F53" s="64"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="86" t="s">
+        <v>120</v>
+      </c>
+      <c r="I53" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="J53" s="64"/>
+      <c r="K53" s="64"/>
+      <c r="L53" s="63"/>
+      <c r="M53" s="64"/>
+      <c r="N53" s="64"/>
+      <c r="O53" s="64"/>
+      <c r="P53" s="65"/>
+      <c r="Q53" s="64"/>
+      <c r="R53" s="64"/>
+      <c r="S53" s="65"/>
+      <c r="U53" s="55"/>
+      <c r="V53" s="55"/>
+      <c r="W53" s="55"/>
+    </row>
+    <row r="54" spans="2:23">
+      <c r="B54" s="63"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="64">
+        <f>SQRT(I52)</f>
+        <v>0.28823879371083655</v>
+      </c>
+      <c r="J54" s="64">
+        <f t="shared" ref="J54:L54" si="13">SQRT(J52)</f>
+        <v>0.89498388356719571</v>
+      </c>
+      <c r="K54" s="64">
+        <f t="shared" si="13"/>
+        <v>0.20155007468310357</v>
+      </c>
+      <c r="L54" s="64">
+        <f t="shared" si="13"/>
+        <v>0.92201677512467162</v>
+      </c>
+      <c r="M54" s="64"/>
+      <c r="N54" s="64"/>
+      <c r="O54" s="64"/>
+      <c r="P54" s="65"/>
+      <c r="Q54" s="64"/>
+      <c r="R54" s="64"/>
+      <c r="S54" s="65"/>
+      <c r="U54" s="55"/>
+      <c r="V54" s="55"/>
+      <c r="W54" s="55"/>
+    </row>
+    <row r="55" spans="2:23">
+      <c r="B55" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" s="64"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="64"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="I55" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="J55" s="64"/>
+      <c r="K55" s="64"/>
+      <c r="L55" s="63"/>
+      <c r="M55" s="64"/>
+      <c r="N55" s="64"/>
+      <c r="O55" s="64"/>
+      <c r="P55" s="65"/>
+      <c r="Q55" s="64"/>
+      <c r="R55" s="64"/>
+      <c r="S55" s="65"/>
+      <c r="U55" s="55"/>
+      <c r="V55" s="55"/>
+      <c r="W55" s="55"/>
+    </row>
+    <row r="56" spans="2:23">
+      <c r="B56" s="63">
+        <v>0</v>
+      </c>
+      <c r="C56" s="64">
+        <v>0</v>
+      </c>
+      <c r="D56" s="64">
+        <v>0</v>
+      </c>
+      <c r="E56" s="64">
+        <v>0</v>
+      </c>
+      <c r="F56" s="64"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="64">
+        <f>1-I54</f>
+        <v>0.7117612062891634</v>
+      </c>
+      <c r="J56" s="64">
+        <f t="shared" ref="J56:L56" si="14">1-J54</f>
+        <v>0.10501611643280429</v>
+      </c>
+      <c r="K56" s="64">
+        <f t="shared" si="14"/>
+        <v>0.7984499253168964</v>
+      </c>
+      <c r="L56" s="64">
+        <f t="shared" si="14"/>
+        <v>7.7983224875328383E-2</v>
+      </c>
+      <c r="M56" s="64"/>
+      <c r="N56" s="64"/>
+      <c r="O56" s="64"/>
+      <c r="P56" s="65"/>
+      <c r="Q56" s="64"/>
+      <c r="R56" s="64"/>
+      <c r="S56" s="65"/>
+      <c r="U56" s="55"/>
+      <c r="V56" s="55"/>
+      <c r="W56" s="55"/>
+    </row>
+    <row r="57" spans="2:23">
+      <c r="B57" s="63"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="64"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="I57" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="J57" s="64"/>
+      <c r="K57" s="64"/>
+      <c r="L57" s="63"/>
+      <c r="M57" s="64"/>
+      <c r="N57" s="64"/>
+      <c r="O57" s="64"/>
+      <c r="P57" s="65"/>
+      <c r="Q57" s="64"/>
+      <c r="R57" s="64"/>
+      <c r="S57" s="65"/>
+      <c r="U57" s="55"/>
+      <c r="V57" s="55"/>
+      <c r="W57" s="55"/>
+    </row>
+    <row r="58" spans="2:23">
+      <c r="B58" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="64"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="64">
+        <f>PRODUCT(I41,I56)</f>
+        <v>-3.1731168369528974E-2</v>
+      </c>
+      <c r="J58" s="64">
+        <f t="shared" ref="J58:K58" si="15">PRODUCT(J41,J56)</f>
+        <v>-1.2429472103238557E-3</v>
+      </c>
+      <c r="K58" s="64">
+        <f t="shared" si="15"/>
+        <v>-2.403694711482899E-2</v>
+      </c>
+      <c r="L58" s="64">
+        <f>PRODUCT(L41,L56)</f>
+        <v>-1.5753470653781974E-3</v>
+      </c>
+      <c r="M58" s="64"/>
+      <c r="N58" s="64"/>
+      <c r="O58" s="64"/>
+      <c r="P58" s="65"/>
+      <c r="Q58" s="64"/>
+      <c r="R58" s="64"/>
+      <c r="S58" s="65"/>
+      <c r="U58" s="55"/>
+      <c r="V58" s="55"/>
+      <c r="W58" s="55"/>
+    </row>
+    <row r="59" spans="2:23">
+      <c r="B59" s="63">
+        <f>'FORWARD 1'!E23</f>
+        <v>0.71860936868812064</v>
+      </c>
+      <c r="C59" s="64">
+        <f>'FORWARD 1'!F23</f>
+        <v>0.33766513284055399</v>
+      </c>
+      <c r="D59" s="64">
+        <f>'FORWARD 1'!G23</f>
+        <v>0.39291901734966911</v>
+      </c>
+      <c r="E59" s="64">
+        <f>'FORWARD 1'!H23</f>
+        <v>0.51794945690629457</v>
+      </c>
+      <c r="F59" s="64"/>
+      <c r="G59" s="77">
+        <v>9</v>
+      </c>
+      <c r="H59" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="I59" s="47"/>
+      <c r="J59" s="61"/>
+      <c r="K59" s="69"/>
+      <c r="L59" s="64"/>
+      <c r="M59" s="64"/>
+      <c r="N59" s="64"/>
+      <c r="O59" s="64"/>
+      <c r="P59" s="65"/>
+      <c r="Q59" s="64"/>
+      <c r="R59" s="64"/>
+      <c r="S59" s="65"/>
+      <c r="U59" s="55"/>
+      <c r="V59" s="55"/>
+      <c r="W59" s="55"/>
+    </row>
+    <row r="60" spans="2:23">
+      <c r="B60" s="63"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="64"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="63"/>
+      <c r="H60" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="I60" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="J60" s="64"/>
+      <c r="K60" s="65"/>
+      <c r="L60" s="64"/>
+      <c r="M60" s="64"/>
+      <c r="N60" s="64"/>
+      <c r="O60" s="64"/>
+      <c r="P60" s="65"/>
+      <c r="Q60" s="64"/>
+      <c r="R60" s="64"/>
+      <c r="S60" s="65"/>
+      <c r="U60" s="55"/>
+      <c r="V60" s="55"/>
+      <c r="W60" s="55"/>
+    </row>
+    <row r="61" spans="2:23">
+      <c r="B61" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="C61" s="64"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="64"/>
+      <c r="F61" s="64"/>
+      <c r="G61" s="63"/>
+      <c r="H61" s="64"/>
+      <c r="I61" s="64">
+        <f>PRODUCT(I38,B53)</f>
+        <v>-3.7038774866068463E-3</v>
+      </c>
+      <c r="J61" s="64">
+        <f t="shared" ref="J61:L61" si="16">PRODUCT(J38,C53)</f>
+        <v>-9.4804108762958656E-3</v>
+      </c>
+      <c r="K61" s="64">
+        <f t="shared" si="16"/>
+        <v>-1.2229185991956774E-3</v>
+      </c>
+      <c r="L61" s="64">
+        <f t="shared" si="16"/>
+        <v>-1.7173258326258743E-2</v>
+      </c>
+      <c r="M61" s="64"/>
+      <c r="N61" s="64"/>
+      <c r="O61" s="64"/>
+      <c r="P61" s="65"/>
+      <c r="Q61" s="64"/>
+      <c r="R61" s="64"/>
+      <c r="S61" s="65"/>
+      <c r="U61" s="55"/>
+      <c r="V61" s="55"/>
+      <c r="W61" s="55"/>
+    </row>
+    <row r="62" spans="2:23">
+      <c r="B62" s="63">
+        <f>'FORWARD 1'!E10</f>
+        <v>8.327355618983695E-2</v>
+      </c>
+      <c r="C62" s="64">
+        <f>'FORWARD 1'!F10</f>
+        <v>1.1013855232485499</v>
+      </c>
+      <c r="D62" s="64">
+        <f>'FORWARD 1'!G10</f>
+        <v>4.0644799557446987E-2</v>
+      </c>
+      <c r="E62" s="64">
+        <f>'FORWARD 1'!H10</f>
+        <v>1.2565671330488828</v>
+      </c>
+      <c r="F62" s="64"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="I62" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="J62" s="64"/>
+      <c r="K62" s="65"/>
+      <c r="L62" s="64"/>
+      <c r="M62" s="64"/>
+      <c r="N62" s="64"/>
+      <c r="O62" s="64"/>
+      <c r="P62" s="65"/>
+      <c r="Q62" s="64"/>
+      <c r="R62" s="64"/>
+      <c r="S62" s="65"/>
+      <c r="U62" s="55"/>
+      <c r="V62" s="55"/>
+      <c r="W62" s="55"/>
+    </row>
+    <row r="63" spans="2:23">
+      <c r="B63" s="63"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="64"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="63"/>
+      <c r="H63" s="64"/>
+      <c r="I63" s="64">
+        <f>1-I61</f>
+        <v>1.0037038774866069</v>
+      </c>
+      <c r="J63" s="64">
+        <f t="shared" ref="J63:L63" si="17">1-J61</f>
+        <v>1.0094804108762958</v>
+      </c>
+      <c r="K63" s="64">
+        <f t="shared" si="17"/>
+        <v>1.0012229185991957</v>
+      </c>
+      <c r="L63" s="64">
+        <f t="shared" si="17"/>
+        <v>1.0171732583262587</v>
+      </c>
+      <c r="M63" s="64"/>
+      <c r="N63" s="64"/>
+      <c r="O63" s="64"/>
+      <c r="P63" s="65"/>
+      <c r="Q63" s="64"/>
+      <c r="R63" s="64"/>
+      <c r="S63" s="65"/>
+      <c r="U63" s="55"/>
+      <c r="V63" s="55"/>
+      <c r="W63" s="55"/>
+    </row>
+    <row r="64" spans="2:23">
+      <c r="B64" s="63"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="I64" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="J64" s="64"/>
+      <c r="K64" s="65"/>
+      <c r="L64" s="64"/>
+      <c r="M64" s="64"/>
+      <c r="N64" s="64"/>
+      <c r="O64" s="64"/>
+      <c r="P64" s="65"/>
+      <c r="Q64" s="64"/>
+      <c r="R64" s="64"/>
+      <c r="S64" s="65"/>
+      <c r="U64" s="55"/>
+      <c r="V64" s="55"/>
+      <c r="W64" s="55"/>
+    </row>
+    <row r="65" spans="2:23">
+      <c r="B65" s="63"/>
+      <c r="C65" s="64"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="64"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="63"/>
+      <c r="H65" s="64"/>
+      <c r="I65" s="64">
+        <f>PRODUCT(I61:I63)</f>
+        <v>-3.7175961950426397E-3</v>
+      </c>
+      <c r="J65" s="64">
+        <f t="shared" ref="J65:L65" si="18">PRODUCT(J61:J63)</f>
+        <v>-9.5702890666792533E-3</v>
+      </c>
+      <c r="K65" s="64">
+        <f t="shared" si="18"/>
+        <v>-1.224414129095936E-3</v>
+      </c>
+      <c r="L65" s="64">
+        <f t="shared" si="18"/>
+        <v>-1.7468179127799157E-2</v>
+      </c>
+      <c r="M65" s="64"/>
+      <c r="N65" s="64"/>
+      <c r="O65" s="64"/>
+      <c r="P65" s="65"/>
+      <c r="Q65" s="64"/>
+      <c r="R65" s="64"/>
+      <c r="S65" s="65"/>
+      <c r="U65" s="55"/>
+      <c r="V65" s="55"/>
+      <c r="W65" s="55"/>
+    </row>
+    <row r="66" spans="2:23">
+      <c r="B66" s="63"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="77">
+        <v>10</v>
+      </c>
+      <c r="H66" s="85" t="s">
+        <v>127</v>
+      </c>
+      <c r="I66" s="85"/>
+      <c r="J66" s="64"/>
+      <c r="K66" s="65"/>
+      <c r="L66" s="64"/>
+      <c r="M66" s="64"/>
+      <c r="N66" s="64"/>
+      <c r="O66" s="64"/>
+      <c r="P66" s="65"/>
+      <c r="Q66" s="64"/>
+      <c r="R66" s="64"/>
+      <c r="S66" s="65"/>
+      <c r="U66" s="55"/>
+      <c r="V66" s="55"/>
+      <c r="W66" s="55"/>
+    </row>
+    <row r="67" spans="2:23">
+      <c r="B67" s="63"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="64"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="63"/>
+      <c r="H67" s="80" t="s">
+        <v>118</v>
+      </c>
+      <c r="I67" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="J67" s="64"/>
+      <c r="K67" s="65"/>
+      <c r="L67" s="64"/>
+      <c r="M67" s="64"/>
+      <c r="N67" s="64"/>
+      <c r="O67" s="64"/>
+      <c r="P67" s="65"/>
+      <c r="Q67" s="64"/>
+      <c r="R67" s="64"/>
+      <c r="S67" s="65"/>
+      <c r="U67" s="55"/>
+      <c r="V67" s="55"/>
+      <c r="W67" s="55"/>
+    </row>
+    <row r="68" spans="2:23">
+      <c r="B68" s="63"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="64"/>
+      <c r="I68" s="64">
+        <f>PRODUCT(I44,B59)</f>
+        <v>0</v>
+      </c>
+      <c r="J68" s="64">
+        <f t="shared" ref="J68:L68" si="19">PRODUCT(J44,C59)</f>
+        <v>0</v>
+      </c>
+      <c r="K68" s="64">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L68" s="64">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M68" s="64"/>
+      <c r="N68" s="64"/>
+      <c r="O68" s="64"/>
+      <c r="P68" s="65"/>
+      <c r="Q68" s="64"/>
+      <c r="R68" s="64"/>
+      <c r="S68" s="65"/>
+      <c r="U68" s="55"/>
+      <c r="V68" s="55"/>
+      <c r="W68" s="55"/>
+    </row>
+    <row r="69" spans="2:23">
+      <c r="B69" s="63"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="63"/>
+      <c r="H69" s="80" t="s">
+        <v>129</v>
+      </c>
+      <c r="I69" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="J69" s="64"/>
+      <c r="K69" s="65"/>
+      <c r="L69" s="64"/>
+      <c r="M69" s="64"/>
+      <c r="N69" s="64"/>
+      <c r="O69" s="64"/>
+      <c r="P69" s="65"/>
+      <c r="Q69" s="64"/>
+      <c r="R69" s="64"/>
+      <c r="S69" s="65"/>
+      <c r="U69" s="55"/>
+      <c r="V69" s="55"/>
+      <c r="W69" s="55"/>
+    </row>
+    <row r="70" spans="2:23">
+      <c r="B70" s="63"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="64"/>
+      <c r="F70" s="64"/>
+      <c r="G70" s="63"/>
+      <c r="H70" s="64"/>
+      <c r="I70" s="64">
+        <f>1-B59</f>
+        <v>0.28139063131187936</v>
+      </c>
+      <c r="J70" s="64">
+        <f t="shared" ref="J70:K70" si="20">1-C59</f>
+        <v>0.66233486715944601</v>
+      </c>
+      <c r="K70" s="64">
+        <f t="shared" si="20"/>
+        <v>0.60708098265033095</v>
+      </c>
+      <c r="L70" s="64">
+        <f>1-E59</f>
+        <v>0.48205054309370543</v>
+      </c>
+      <c r="M70" s="64"/>
+      <c r="N70" s="64"/>
+      <c r="O70" s="64"/>
+      <c r="P70" s="65"/>
+      <c r="Q70" s="64"/>
+      <c r="R70" s="64"/>
+      <c r="S70" s="65"/>
+      <c r="U70" s="55"/>
+      <c r="V70" s="55"/>
+      <c r="W70" s="55"/>
+    </row>
+    <row r="71" spans="2:23">
+      <c r="B71" s="63"/>
+      <c r="C71" s="64"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="64"/>
+      <c r="F71" s="64"/>
+      <c r="G71" s="63"/>
+      <c r="H71" s="64"/>
+      <c r="I71" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="J71" s="64"/>
+      <c r="K71" s="65"/>
+      <c r="L71" s="64"/>
+      <c r="M71" s="64"/>
+      <c r="N71" s="64"/>
+      <c r="O71" s="64"/>
+      <c r="P71" s="65"/>
+      <c r="Q71" s="64"/>
+      <c r="R71" s="64"/>
+      <c r="S71" s="65"/>
+      <c r="U71" s="55"/>
+      <c r="V71" s="55"/>
+      <c r="W71" s="55"/>
+    </row>
+    <row r="72" spans="2:23">
+      <c r="B72" s="63"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="64"/>
+      <c r="G72" s="66"/>
+      <c r="H72" s="87" t="s">
+        <v>131</v>
+      </c>
+      <c r="I72" s="83">
+        <f>PRODUCT(I68,I70)</f>
+        <v>0</v>
+      </c>
+      <c r="J72" s="83">
+        <f t="shared" ref="J72:L72" si="21">PRODUCT(J68,J70)</f>
+        <v>0</v>
+      </c>
+      <c r="K72" s="83">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L72" s="83">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M72" s="64"/>
+      <c r="N72" s="64"/>
+      <c r="O72" s="64"/>
+      <c r="P72" s="65"/>
+      <c r="Q72" s="64"/>
+      <c r="R72" s="64"/>
+      <c r="S72" s="65"/>
+      <c r="U72" s="55"/>
+      <c r="V72" s="55"/>
+      <c r="W72" s="55"/>
+    </row>
+    <row r="73" spans="2:23">
+      <c r="B73" s="63"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="64"/>
+      <c r="F73" s="64"/>
+      <c r="G73" s="77">
+        <v>11</v>
+      </c>
+      <c r="H73" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="I73" s="79"/>
+      <c r="J73" s="64"/>
+      <c r="K73" s="65"/>
+      <c r="L73" s="64"/>
+      <c r="M73" s="64"/>
+      <c r="N73" s="64"/>
+      <c r="O73" s="64"/>
+      <c r="P73" s="65"/>
+      <c r="Q73" s="64"/>
+      <c r="R73" s="64"/>
+      <c r="S73" s="65"/>
+      <c r="U73" s="55"/>
+      <c r="V73" s="55"/>
+      <c r="W73" s="55"/>
+    </row>
+    <row r="74" spans="2:23">
+      <c r="B74" s="63"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="64"/>
+      <c r="F74" s="64"/>
+      <c r="G74" s="63"/>
+      <c r="H74" s="80" t="s">
+        <v>118</v>
+      </c>
+      <c r="I74" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="J74" s="64"/>
+      <c r="K74" s="65"/>
+      <c r="L74" s="64"/>
+      <c r="M74" s="64"/>
+      <c r="N74" s="64"/>
+      <c r="O74" s="64"/>
+      <c r="P74" s="65"/>
+      <c r="Q74" s="64"/>
+      <c r="R74" s="64"/>
+      <c r="S74" s="65"/>
+      <c r="U74" s="55"/>
+      <c r="V74" s="55"/>
+      <c r="W74" s="55"/>
+    </row>
+    <row r="75" spans="2:23">
+      <c r="B75" s="63"/>
+      <c r="C75" s="64"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="64"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="63"/>
+      <c r="H75" s="64"/>
+      <c r="I75" s="64">
+        <f>PRODUCT(M21,B41)</f>
+        <v>-4.5107020449413494E-3</v>
+      </c>
+      <c r="J75" s="64">
+        <f t="shared" ref="J75:L75" si="22">PRODUCT(N21,C41)</f>
+        <v>-2.6844271667311074E-2</v>
+      </c>
+      <c r="K75" s="64">
+        <f t="shared" si="22"/>
+        <v>-1.3920316502015076E-3</v>
+      </c>
+      <c r="L75" s="64">
+        <f t="shared" si="22"/>
+        <v>-3.1108675911388904E-2</v>
+      </c>
+      <c r="M75" s="64"/>
+      <c r="N75" s="64"/>
+      <c r="O75" s="64"/>
+      <c r="P75" s="65"/>
+      <c r="Q75" s="64"/>
+      <c r="R75" s="64"/>
+      <c r="S75" s="65"/>
+      <c r="U75" s="55"/>
+      <c r="V75" s="55"/>
+      <c r="W75" s="55"/>
+    </row>
+    <row r="76" spans="2:23">
+      <c r="B76" s="63"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="64"/>
+      <c r="F76" s="64"/>
+      <c r="G76" s="63"/>
+      <c r="H76" s="80" t="s">
+        <v>129</v>
+      </c>
+      <c r="I76" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="J76" s="64"/>
+      <c r="K76" s="65"/>
+      <c r="L76" s="64"/>
+      <c r="M76" s="64"/>
+      <c r="N76" s="64"/>
+      <c r="O76" s="64"/>
+      <c r="P76" s="65"/>
+      <c r="Q76" s="64"/>
+      <c r="R76" s="64"/>
+      <c r="S76" s="65"/>
+    </row>
+    <row r="77" spans="2:23">
+      <c r="B77" s="63"/>
+      <c r="C77" s="64"/>
+      <c r="D77" s="64"/>
+      <c r="E77" s="64"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="63"/>
+      <c r="H77" s="64"/>
+      <c r="I77" s="64">
+        <f>1-B41</f>
+        <v>0.43783246776412088</v>
+      </c>
+      <c r="J77" s="64">
+        <f t="shared" ref="J77:L77" si="23">1-C41</f>
+        <v>0.76248267805918968</v>
+      </c>
+      <c r="K77" s="64">
+        <f t="shared" si="23"/>
+        <v>0.6231260319421329</v>
+      </c>
+      <c r="L77" s="64">
+        <f t="shared" si="23"/>
+        <v>0.40159849992501839</v>
+      </c>
+      <c r="M77" s="64"/>
+      <c r="N77" s="64"/>
+      <c r="O77" s="64"/>
+      <c r="P77" s="65"/>
+      <c r="Q77" s="64"/>
+      <c r="R77" s="64"/>
+      <c r="S77" s="65"/>
+    </row>
+    <row r="78" spans="2:23">
+      <c r="B78" s="63"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="J78" s="64"/>
+      <c r="K78" s="65"/>
+      <c r="L78" s="64"/>
+      <c r="M78" s="64"/>
+      <c r="N78" s="64"/>
+      <c r="O78" s="64"/>
+      <c r="P78" s="65"/>
+      <c r="Q78" s="64"/>
+      <c r="R78" s="64"/>
+      <c r="S78" s="65"/>
+    </row>
+    <row r="79" spans="2:23">
+      <c r="B79" s="63"/>
+      <c r="C79" s="64"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="64"/>
+      <c r="F79" s="64"/>
+      <c r="G79" s="63"/>
+      <c r="H79" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="I79" s="81">
+        <f>PRODUCT(I75,I77)</f>
+        <v>-1.9749318076853375E-3</v>
+      </c>
+      <c r="J79" s="81">
+        <f t="shared" ref="J79:L79" si="24">PRODUCT(J75,J77)</f>
+        <v>-2.0468292151439776E-2</v>
+      </c>
+      <c r="K79" s="81">
+        <f t="shared" si="24"/>
+        <v>-8.6741115852792463E-4</v>
+      </c>
+      <c r="L79" s="81">
+        <f t="shared" si="24"/>
+        <v>-1.2493197580667338E-2</v>
+      </c>
+      <c r="M79" s="64"/>
+      <c r="N79" s="64"/>
+      <c r="O79" s="64"/>
+      <c r="P79" s="65"/>
+      <c r="Q79" s="64"/>
+      <c r="R79" s="64"/>
+      <c r="S79" s="65"/>
+    </row>
+    <row r="80" spans="2:23">
+      <c r="B80" s="63"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="64"/>
+      <c r="F80" s="64"/>
+      <c r="G80" s="88">
+        <v>12</v>
+      </c>
+      <c r="H80" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="I80" s="48"/>
+      <c r="J80" s="64"/>
+      <c r="K80" s="65"/>
+      <c r="L80" s="64"/>
+      <c r="M80" s="88">
+        <v>13</v>
+      </c>
+      <c r="N80" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="O80" s="51"/>
+      <c r="P80" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q80" s="64"/>
+      <c r="R80" s="64"/>
+      <c r="S80" s="65"/>
+    </row>
+    <row r="81" spans="2:23">
+      <c r="B81" s="63"/>
+      <c r="C81" s="64"/>
+      <c r="D81" s="64"/>
+      <c r="E81" s="64"/>
+      <c r="F81" s="64"/>
+      <c r="G81" s="63"/>
+      <c r="H81" s="64"/>
+      <c r="I81" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="J81" s="42"/>
+      <c r="K81" s="42"/>
+      <c r="L81" s="50"/>
+      <c r="M81" s="63"/>
+      <c r="N81" s="64"/>
+      <c r="O81" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="P81" s="64"/>
+      <c r="Q81" s="64"/>
+      <c r="R81" s="64"/>
+      <c r="S81" s="65"/>
+    </row>
+    <row r="82" spans="2:23">
+      <c r="B82" s="63"/>
+      <c r="C82" s="64"/>
+      <c r="D82" s="64"/>
+      <c r="E82" s="64"/>
+      <c r="F82" s="64"/>
+      <c r="G82" s="64"/>
+      <c r="H82" s="80" t="s">
+        <v>137</v>
+      </c>
+      <c r="I82" s="64">
+        <f>I58</f>
+        <v>-3.1731168369528974E-2</v>
+      </c>
+      <c r="J82" s="64"/>
+      <c r="K82" s="64"/>
+      <c r="L82" s="64"/>
+      <c r="M82" s="63"/>
+      <c r="N82" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="O82" s="64">
+        <f t="array" ref="O82:O91">MMULT(D2:S11,I82:I97)</f>
+        <v>2.9558828364235935E-2</v>
+      </c>
+      <c r="P82" s="64"/>
+      <c r="Q82" s="64"/>
+      <c r="R82" s="64"/>
+      <c r="S82" s="65"/>
+    </row>
+    <row r="83" spans="2:23">
+      <c r="B83" s="63"/>
+      <c r="C83" s="64"/>
+      <c r="D83" s="64"/>
+      <c r="E83" s="64"/>
+      <c r="F83" s="64"/>
+      <c r="G83" s="63"/>
+      <c r="H83" s="64"/>
+      <c r="I83" s="64">
+        <f>J58</f>
+        <v>-1.2429472103238557E-3</v>
+      </c>
+      <c r="J83" s="64"/>
+      <c r="K83" s="64"/>
+      <c r="L83" s="64"/>
+      <c r="M83" s="64"/>
+      <c r="N83" s="64"/>
+      <c r="O83" s="64">
+        <v>-5.2225180745203673E-2</v>
+      </c>
+      <c r="P83" s="64"/>
+      <c r="Q83" s="64"/>
+      <c r="R83" s="64"/>
+      <c r="S83" s="65"/>
+    </row>
+    <row r="84" spans="2:23">
+      <c r="B84" s="63"/>
+      <c r="C84" s="64"/>
+      <c r="D84" s="64"/>
+      <c r="E84" s="64"/>
+      <c r="F84" s="64"/>
+      <c r="G84" s="63"/>
+      <c r="H84" s="64"/>
+      <c r="I84" s="64">
+        <f>K58</f>
+        <v>-2.403694711482899E-2</v>
+      </c>
+      <c r="J84" s="64"/>
+      <c r="K84" s="64"/>
+      <c r="L84" s="64"/>
+      <c r="M84" s="64"/>
+      <c r="N84" s="64"/>
+      <c r="O84" s="64">
+        <v>2.5924441668916311E-2</v>
+      </c>
+      <c r="P84" s="64"/>
+      <c r="Q84" s="64"/>
+      <c r="R84" s="64"/>
+      <c r="S84" s="65"/>
+    </row>
+    <row r="85" spans="2:23">
+      <c r="B85" s="63"/>
+      <c r="C85" s="64"/>
+      <c r="D85" s="64"/>
+      <c r="E85" s="64"/>
+      <c r="F85" s="64"/>
+      <c r="G85" s="66"/>
+      <c r="H85" s="67"/>
+      <c r="I85" s="64">
+        <f>L58</f>
+        <v>-1.5753470653781974E-3</v>
+      </c>
+      <c r="J85" s="64"/>
+      <c r="K85" s="64"/>
+      <c r="L85" s="64"/>
+      <c r="M85" s="64"/>
+      <c r="N85" s="64"/>
+      <c r="O85" s="64">
+        <v>-1.4794333746265757E-2</v>
+      </c>
+      <c r="P85" s="64"/>
+      <c r="Q85" s="64"/>
+      <c r="R85" s="64"/>
+      <c r="S85" s="65"/>
+    </row>
+    <row r="86" spans="2:23">
+      <c r="B86" s="63"/>
+      <c r="C86" s="64"/>
+      <c r="D86" s="64"/>
+      <c r="E86" s="64"/>
+      <c r="F86" s="64"/>
+      <c r="G86" s="64"/>
+      <c r="H86" s="64"/>
+      <c r="I86" s="64">
+        <f>I65</f>
+        <v>-3.7175961950426397E-3</v>
+      </c>
+      <c r="J86" s="64"/>
+      <c r="K86" s="64"/>
+      <c r="L86" s="64"/>
+      <c r="M86" s="64"/>
+      <c r="N86" s="64"/>
+      <c r="O86" s="64">
+        <v>-5.1858389842899767E-3</v>
+      </c>
+      <c r="P86" s="64"/>
+      <c r="Q86" s="64"/>
+      <c r="R86" s="64"/>
+      <c r="S86" s="65"/>
+    </row>
+    <row r="87" spans="2:23">
+      <c r="B87" s="63"/>
+      <c r="C87" s="64"/>
+      <c r="D87" s="64"/>
+      <c r="E87" s="64"/>
+      <c r="F87" s="64"/>
+      <c r="G87" s="64"/>
+      <c r="H87" s="64"/>
+      <c r="I87" s="64">
+        <f>J65</f>
+        <v>-9.5702890666792533E-3</v>
+      </c>
+      <c r="J87" s="64"/>
+      <c r="K87" s="64"/>
+      <c r="L87" s="64"/>
+      <c r="M87" s="64"/>
+      <c r="N87" s="64"/>
+      <c r="O87" s="64">
+        <v>-6.3207254197426982E-3</v>
+      </c>
+      <c r="P87" s="64"/>
+      <c r="Q87" s="64"/>
+      <c r="R87" s="64"/>
+      <c r="S87" s="65"/>
+    </row>
+    <row r="88" spans="2:23">
+      <c r="B88" s="63"/>
+      <c r="C88" s="64"/>
+      <c r="D88" s="64"/>
+      <c r="E88" s="64"/>
+      <c r="F88" s="64"/>
+      <c r="G88" s="64"/>
+      <c r="H88" s="64"/>
+      <c r="I88" s="64">
+        <f>K65</f>
+        <v>-1.224414129095936E-3</v>
+      </c>
+      <c r="J88" s="64"/>
+      <c r="K88" s="64"/>
+      <c r="L88" s="64"/>
+      <c r="M88" s="64"/>
+      <c r="N88" s="64"/>
+      <c r="O88" s="64">
+        <v>-4.0905097266112338E-3</v>
+      </c>
+      <c r="P88" s="64"/>
+      <c r="Q88" s="64"/>
+      <c r="R88" s="64"/>
+      <c r="S88" s="65"/>
+      <c r="U88" s="55"/>
+      <c r="V88" s="55"/>
+      <c r="W88" s="55"/>
+    </row>
+    <row r="89" spans="2:23">
+      <c r="B89" s="63"/>
+      <c r="C89" s="64"/>
+      <c r="D89" s="64"/>
+      <c r="E89" s="64"/>
+      <c r="F89" s="64"/>
+      <c r="G89" s="64"/>
+      <c r="H89" s="64"/>
+      <c r="I89" s="64">
+        <f>L65</f>
+        <v>-1.7468179127799157E-2</v>
+      </c>
+      <c r="J89" s="64"/>
+      <c r="K89" s="64"/>
+      <c r="L89" s="64"/>
+      <c r="M89" s="64"/>
+      <c r="N89" s="64"/>
+      <c r="O89" s="64">
+        <v>2.9455915330938928E-5</v>
+      </c>
+      <c r="P89" s="64"/>
+      <c r="Q89" s="64"/>
+      <c r="R89" s="64"/>
+      <c r="S89" s="65"/>
+    </row>
+    <row r="90" spans="2:23">
+      <c r="B90" s="63"/>
+      <c r="C90" s="64"/>
+      <c r="D90" s="64"/>
+      <c r="E90" s="64"/>
+      <c r="F90" s="64"/>
+      <c r="G90" s="64"/>
+      <c r="H90" s="64"/>
+      <c r="I90" s="64">
+        <f>I72</f>
+        <v>0</v>
+      </c>
+      <c r="J90" s="64"/>
+      <c r="K90" s="64"/>
+      <c r="L90" s="64"/>
+      <c r="M90" s="64"/>
+      <c r="N90" s="64"/>
+      <c r="O90" s="64">
+        <v>-2.1805225007847543E-2</v>
+      </c>
+      <c r="P90" s="64"/>
+      <c r="Q90" s="64"/>
+      <c r="R90" s="64"/>
+      <c r="S90" s="65"/>
+    </row>
+    <row r="91" spans="2:23">
+      <c r="B91" s="63"/>
+      <c r="C91" s="64"/>
+      <c r="D91" s="64"/>
+      <c r="E91" s="64"/>
+      <c r="F91" s="64"/>
+      <c r="G91" s="64"/>
+      <c r="H91" s="64"/>
+      <c r="I91" s="64">
+        <f>J72</f>
+        <v>0</v>
+      </c>
+      <c r="J91" s="64"/>
+      <c r="K91" s="64"/>
+      <c r="L91" s="64"/>
+      <c r="M91" s="64"/>
+      <c r="N91" s="64"/>
+      <c r="O91" s="64">
+        <v>-1.1790045424015533E-2</v>
+      </c>
+      <c r="P91" s="64"/>
+      <c r="Q91" s="64"/>
+      <c r="R91" s="64"/>
+      <c r="S91" s="65"/>
+      <c r="U91" s="55"/>
+      <c r="V91" s="56"/>
+      <c r="W91" s="56"/>
+    </row>
+    <row r="92" spans="2:23">
+      <c r="B92" s="63"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="64"/>
+      <c r="E92" s="64"/>
+      <c r="F92" s="64"/>
+      <c r="G92" s="64"/>
+      <c r="H92" s="64"/>
+      <c r="I92" s="64">
+        <f>K72</f>
+        <v>0</v>
+      </c>
+      <c r="J92" s="64"/>
+      <c r="K92" s="64"/>
+      <c r="L92" s="64"/>
+      <c r="M92" s="64"/>
+      <c r="N92" s="64"/>
+      <c r="O92" s="64"/>
+      <c r="P92" s="64"/>
+      <c r="Q92" s="64"/>
+      <c r="R92" s="64"/>
+      <c r="S92" s="65"/>
+      <c r="U92" s="55"/>
+      <c r="V92" s="56"/>
+      <c r="W92" s="56"/>
+    </row>
+    <row r="93" spans="2:23">
+      <c r="B93" s="63"/>
+      <c r="C93" s="64"/>
+      <c r="D93" s="64"/>
+      <c r="E93" s="64"/>
+      <c r="F93" s="64"/>
+      <c r="G93" s="64"/>
+      <c r="H93" s="64"/>
+      <c r="I93" s="64">
+        <f>L72</f>
+        <v>0</v>
+      </c>
+      <c r="J93" s="64"/>
+      <c r="K93" s="64"/>
+      <c r="L93" s="64"/>
+      <c r="M93" s="64"/>
+      <c r="N93" s="64"/>
+      <c r="O93" s="64"/>
+      <c r="P93" s="64"/>
+      <c r="Q93" s="64"/>
+      <c r="R93" s="64"/>
+      <c r="S93" s="65"/>
+      <c r="U93" s="55"/>
+      <c r="V93" s="56"/>
+      <c r="W93" s="56"/>
+    </row>
+    <row r="94" spans="2:23">
+      <c r="B94" s="63"/>
+      <c r="C94" s="64"/>
+      <c r="D94" s="64"/>
+      <c r="E94" s="64"/>
+      <c r="F94" s="64"/>
+      <c r="G94" s="64"/>
+      <c r="H94" s="64"/>
+      <c r="I94" s="67">
+        <f>I79</f>
+        <v>-1.9749318076853375E-3</v>
+      </c>
+      <c r="J94" s="64"/>
+      <c r="K94" s="64"/>
+      <c r="L94" s="64"/>
+      <c r="M94" s="64"/>
+      <c r="N94" s="64"/>
+      <c r="O94" s="64"/>
+      <c r="P94" s="64"/>
+      <c r="Q94" s="64"/>
+      <c r="R94" s="64"/>
+      <c r="S94" s="65"/>
+      <c r="V94" s="56"/>
+      <c r="W94" s="56"/>
+    </row>
+    <row r="95" spans="2:23">
+      <c r="B95" s="63"/>
+      <c r="C95" s="64"/>
+      <c r="D95" s="64"/>
+      <c r="E95" s="64"/>
+      <c r="F95" s="64"/>
+      <c r="G95" s="64"/>
+      <c r="H95" s="64"/>
+      <c r="I95" s="67">
+        <f>J79</f>
+        <v>-2.0468292151439776E-2</v>
+      </c>
+      <c r="J95" s="64"/>
+      <c r="K95" s="64"/>
+      <c r="L95" s="64"/>
+      <c r="M95" s="64"/>
+      <c r="N95" s="64"/>
+      <c r="O95" s="64"/>
+      <c r="P95" s="64"/>
+      <c r="Q95" s="64"/>
+      <c r="R95" s="64"/>
+      <c r="S95" s="65"/>
+      <c r="V95" s="56"/>
+      <c r="W95" s="56"/>
+    </row>
+    <row r="96" spans="2:23">
+      <c r="B96" s="63"/>
+      <c r="C96" s="64"/>
+      <c r="D96" s="64"/>
+      <c r="E96" s="64"/>
+      <c r="F96" s="64"/>
+      <c r="G96" s="64"/>
+      <c r="H96" s="64"/>
+      <c r="I96" s="67">
+        <f>K79</f>
+        <v>-8.6741115852792463E-4</v>
+      </c>
+      <c r="J96" s="64"/>
+      <c r="K96" s="64"/>
+      <c r="L96" s="64"/>
+      <c r="M96" s="64"/>
+      <c r="N96" s="64"/>
+      <c r="O96" s="64"/>
+      <c r="P96" s="64"/>
+      <c r="Q96" s="64"/>
+      <c r="R96" s="64"/>
+      <c r="S96" s="65"/>
+      <c r="V96" s="56"/>
+      <c r="W96" s="56"/>
+    </row>
+    <row r="97" spans="2:23">
+      <c r="B97" s="63"/>
+      <c r="C97" s="64"/>
+      <c r="D97" s="64"/>
+      <c r="E97" s="64"/>
+      <c r="F97" s="64"/>
+      <c r="G97" s="64"/>
+      <c r="H97" s="64"/>
+      <c r="I97" s="67">
+        <f>L79</f>
+        <v>-1.2493197580667338E-2</v>
+      </c>
+      <c r="J97" s="64"/>
+      <c r="K97" s="64"/>
+      <c r="L97" s="64"/>
+      <c r="M97" s="64"/>
+      <c r="N97" s="64"/>
+      <c r="O97" s="64"/>
+      <c r="P97" s="64"/>
+      <c r="Q97" s="64"/>
+      <c r="R97" s="64"/>
+      <c r="S97" s="65"/>
+      <c r="V97" s="56"/>
+      <c r="W97" s="56"/>
+    </row>
+    <row r="98" spans="2:23">
+      <c r="B98" s="63"/>
+      <c r="C98" s="64"/>
+      <c r="D98" s="64"/>
+      <c r="E98" s="64"/>
+      <c r="F98" s="64"/>
+      <c r="G98" s="64"/>
+      <c r="H98" s="64"/>
+      <c r="I98" s="64"/>
+      <c r="J98" s="64"/>
+      <c r="K98" s="64"/>
+      <c r="L98" s="64"/>
+      <c r="M98" s="64"/>
+      <c r="N98" s="64"/>
+      <c r="O98" s="64"/>
+      <c r="P98" s="64"/>
+      <c r="Q98" s="64"/>
+      <c r="R98" s="64"/>
+      <c r="S98" s="65"/>
+      <c r="V98" s="56"/>
+      <c r="W98" s="56"/>
+    </row>
+    <row r="99" spans="2:23">
+      <c r="B99" s="63"/>
+      <c r="C99" s="64"/>
+      <c r="D99" s="64"/>
+      <c r="E99" s="64"/>
+      <c r="F99" s="64"/>
+      <c r="G99" s="91" t="s">
+        <v>142</v>
+      </c>
+      <c r="H99" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="I99" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="J99" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="K99" s="92" t="s">
+        <v>25</v>
+      </c>
+      <c r="L99" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="M99" s="92" t="s">
+        <v>27</v>
+      </c>
+      <c r="N99" s="92" t="s">
+        <v>20</v>
+      </c>
+      <c r="O99" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="P99" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q99" s="92" t="s">
+        <v>23</v>
+      </c>
+      <c r="R99" s="64"/>
+      <c r="S99" s="65"/>
+    </row>
+    <row r="100" spans="2:23">
+      <c r="B100" s="63"/>
+      <c r="C100" s="64"/>
+      <c r="D100" s="64"/>
+      <c r="E100" s="64"/>
+      <c r="F100" s="64"/>
+      <c r="G100" s="64"/>
+      <c r="H100" s="64">
+        <f t="array" ref="H100:Q100">TRANSPOSE(O82:O91)</f>
+        <v>2.9558828364235935E-2</v>
+      </c>
+      <c r="I100" s="64">
+        <v>-5.2225180745203673E-2</v>
+      </c>
+      <c r="J100" s="64">
+        <v>2.5924441668916311E-2</v>
+      </c>
+      <c r="K100" s="64">
+        <v>-1.4794333746265757E-2</v>
+      </c>
+      <c r="L100" s="64">
+        <v>-5.1858389842899767E-3</v>
+      </c>
+      <c r="M100" s="64">
+        <v>-6.3207254197426982E-3</v>
+      </c>
+      <c r="N100" s="64">
+        <v>-4.0905097266112338E-3</v>
+      </c>
+      <c r="O100" s="64">
+        <v>2.9455915330938928E-5</v>
+      </c>
+      <c r="P100" s="64">
+        <v>-2.1805225007847543E-2</v>
+      </c>
+      <c r="Q100" s="64">
+        <v>-1.1790045424015533E-2</v>
+      </c>
+      <c r="R100" s="64"/>
+      <c r="S100" s="65"/>
+    </row>
+    <row r="101" spans="2:23">
+      <c r="B101" s="63"/>
+      <c r="C101" s="64"/>
+      <c r="D101" s="64"/>
+      <c r="E101" s="64"/>
+      <c r="F101" s="64"/>
+      <c r="G101" s="64"/>
+      <c r="H101" s="64"/>
+      <c r="I101" s="64"/>
+      <c r="J101" s="64"/>
+      <c r="K101" s="64"/>
+      <c r="L101" s="64"/>
+      <c r="M101" s="64"/>
+      <c r="N101" s="64"/>
+      <c r="O101" s="64"/>
+      <c r="P101" s="64"/>
+      <c r="Q101" s="64"/>
+      <c r="R101" s="64"/>
+      <c r="S101" s="65"/>
+    </row>
+    <row r="102" spans="2:23">
+      <c r="B102" s="63"/>
+      <c r="C102" s="64"/>
+      <c r="D102" s="64"/>
+      <c r="E102" s="64"/>
+      <c r="F102" s="64"/>
+      <c r="G102" s="88">
+        <v>14</v>
+      </c>
+      <c r="H102" s="79" t="s">
+        <v>143</v>
+      </c>
+      <c r="I102" s="79"/>
+      <c r="J102" s="64"/>
+      <c r="K102" s="64"/>
+      <c r="L102" s="64"/>
+      <c r="M102" s="64"/>
+      <c r="N102" s="64"/>
+      <c r="O102" s="64"/>
+      <c r="P102" s="64"/>
+      <c r="Q102" s="64"/>
+      <c r="R102" s="64"/>
+      <c r="S102" s="65"/>
+    </row>
+    <row r="103" spans="2:23">
+      <c r="B103" s="63"/>
+      <c r="C103" s="64"/>
+      <c r="D103" s="64"/>
+      <c r="E103" s="64"/>
+      <c r="F103" s="64"/>
+      <c r="G103" s="63"/>
+      <c r="H103" s="64"/>
+      <c r="I103" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="J103" s="64"/>
+      <c r="K103" s="64"/>
+      <c r="L103" s="64"/>
+      <c r="M103" s="64"/>
+      <c r="N103" s="64"/>
+      <c r="O103" s="64"/>
+      <c r="P103" s="64"/>
+      <c r="Q103" s="64"/>
+      <c r="R103" s="64"/>
+      <c r="S103" s="65"/>
+    </row>
+    <row r="104" spans="2:23">
+      <c r="B104" s="63"/>
+      <c r="C104" s="64"/>
+      <c r="D104" s="64"/>
+      <c r="E104" s="64"/>
+      <c r="F104" s="64"/>
+      <c r="G104" s="63"/>
+      <c r="H104" s="64"/>
+      <c r="I104" s="64">
+        <f>N100</f>
+        <v>-4.0905097266112338E-3</v>
+      </c>
+      <c r="J104" s="64">
+        <f t="shared" ref="J104:L104" si="25">O100</f>
+        <v>2.9455915330938928E-5</v>
+      </c>
+      <c r="K104" s="64">
+        <f t="shared" si="25"/>
+        <v>-2.1805225007847543E-2</v>
+      </c>
+      <c r="L104" s="64">
+        <f t="shared" si="25"/>
+        <v>-1.1790045424015533E-2</v>
+      </c>
+      <c r="M104" s="64"/>
+      <c r="N104" s="64"/>
+      <c r="O104" s="64"/>
+      <c r="P104" s="64"/>
+      <c r="Q104" s="64"/>
+      <c r="R104" s="64"/>
+      <c r="S104" s="65"/>
+    </row>
+    <row r="105" spans="2:23">
+      <c r="B105" s="63"/>
+      <c r="C105" s="64"/>
+      <c r="D105" s="64"/>
+      <c r="E105" s="64"/>
+      <c r="F105" s="64"/>
+      <c r="G105" s="63"/>
+      <c r="H105" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="I105" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="J105" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="K105" s="64"/>
+      <c r="L105" s="64"/>
+      <c r="M105" s="64"/>
+      <c r="N105" s="64"/>
+      <c r="O105" s="64"/>
+      <c r="P105" s="64"/>
+      <c r="Q105" s="64"/>
+      <c r="R105" s="64"/>
+      <c r="S105" s="65"/>
+    </row>
+    <row r="106" spans="2:23">
+      <c r="B106" s="63"/>
+      <c r="C106" s="64"/>
+      <c r="D106" s="64"/>
+      <c r="E106" s="64"/>
+      <c r="F106" s="64"/>
+      <c r="G106" s="54">
+        <v>15</v>
+      </c>
+      <c r="H106" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="I106" s="47"/>
+      <c r="J106" s="64"/>
+      <c r="K106" s="64"/>
+      <c r="L106" s="64"/>
+      <c r="M106" s="64"/>
+      <c r="N106" s="64"/>
+      <c r="O106" s="64"/>
+      <c r="P106" s="64"/>
+      <c r="Q106" s="64"/>
+      <c r="R106" s="64"/>
+      <c r="S106" s="65"/>
+    </row>
+    <row r="107" spans="2:23">
+      <c r="B107" s="63"/>
+      <c r="C107" s="64"/>
+      <c r="D107" s="64"/>
+      <c r="E107" s="64"/>
+      <c r="F107" s="64"/>
+      <c r="G107" s="64"/>
+      <c r="H107" s="64"/>
+      <c r="I107" s="64" t="s">
+        <v>149</v>
+      </c>
+      <c r="J107" s="64"/>
+      <c r="K107" s="64"/>
+      <c r="L107" s="64"/>
+      <c r="M107" s="64"/>
+      <c r="N107" s="64"/>
+      <c r="O107" s="64"/>
+      <c r="P107" s="64"/>
+      <c r="Q107" s="64"/>
+      <c r="R107" s="64"/>
+      <c r="S107" s="65"/>
+    </row>
+    <row r="108" spans="2:23">
+      <c r="B108" s="63"/>
+      <c r="C108" s="64"/>
+      <c r="D108" s="64"/>
+      <c r="E108" s="64"/>
+      <c r="F108" s="64"/>
+      <c r="G108" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="H108" s="64"/>
+      <c r="I108" s="64"/>
+      <c r="J108" s="64"/>
+      <c r="K108" s="64"/>
+      <c r="L108" s="64"/>
+      <c r="M108" s="64"/>
+      <c r="N108" s="64"/>
+      <c r="O108" s="64"/>
+      <c r="P108" s="64"/>
+      <c r="Q108" s="64"/>
+      <c r="R108" s="64"/>
+      <c r="S108" s="65"/>
+    </row>
+    <row r="109" spans="2:23">
+      <c r="B109" s="66"/>
+      <c r="C109" s="67"/>
+      <c r="D109" s="67"/>
+      <c r="E109" s="67"/>
+      <c r="F109" s="67"/>
+      <c r="G109" s="64">
+        <f>iNPUT!A27</f>
+        <v>1</v>
+      </c>
+      <c r="H109" s="64">
+        <f>iNPUT!B27</f>
+        <v>0</v>
+      </c>
+      <c r="I109" s="64">
+        <f>iNPUT!C27</f>
+        <v>0.32104638099991395</v>
+      </c>
+      <c r="J109" s="64">
+        <f>iNPUT!D27</f>
+        <v>0.35222222222222227</v>
+      </c>
+      <c r="K109" s="64">
+        <f>iNPUT!E27</f>
+        <v>0.29394736842105268</v>
+      </c>
+      <c r="L109" s="64">
+        <f>iNPUT!F27</f>
+        <v>0.27491501438660726</v>
+      </c>
+      <c r="M109" s="64">
+        <f>iNPUT!G27</f>
+        <v>0</v>
+      </c>
+      <c r="N109" s="64">
+        <f>iNPUT!H27</f>
+        <v>0</v>
+      </c>
+      <c r="O109" s="64">
+        <f>iNPUT!I27</f>
+        <v>0</v>
+      </c>
+      <c r="P109" s="65">
+        <f>iNPUT!J27</f>
+        <v>0</v>
+      </c>
+      <c r="Q109" s="64"/>
+      <c r="R109" s="64"/>
+      <c r="S109" s="65"/>
+    </row>
+    <row r="110" spans="2:23">
+      <c r="B110" s="63"/>
+      <c r="C110" s="64"/>
+      <c r="D110" s="64"/>
+      <c r="E110" s="64"/>
+      <c r="F110" s="64"/>
+      <c r="G110" s="64"/>
+      <c r="H110" s="64"/>
+      <c r="I110" s="64"/>
+      <c r="J110" s="64"/>
+      <c r="K110" s="64"/>
+      <c r="L110" s="64"/>
+      <c r="M110" s="64"/>
+      <c r="N110" s="64"/>
+      <c r="O110" s="64"/>
+      <c r="P110" s="65"/>
+      <c r="Q110" s="64"/>
+      <c r="R110" s="64"/>
+      <c r="S110" s="65"/>
+    </row>
+    <row r="111" spans="2:23">
+      <c r="B111" s="63"/>
+      <c r="C111" s="64"/>
+      <c r="D111" s="64"/>
+      <c r="E111" s="64"/>
+      <c r="F111" s="64"/>
+      <c r="G111" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="H111" s="64"/>
+      <c r="I111" s="64"/>
+      <c r="J111" s="64"/>
+      <c r="K111" s="64"/>
+      <c r="L111" s="64"/>
+      <c r="M111" s="64"/>
+      <c r="N111" s="64"/>
+      <c r="O111" s="64"/>
+      <c r="P111" s="65"/>
+      <c r="Q111" s="64"/>
+      <c r="R111" s="64"/>
+      <c r="S111" s="65"/>
+    </row>
+    <row r="112" spans="2:23">
+      <c r="B112" s="63"/>
+      <c r="C112" s="64"/>
+      <c r="D112" s="64"/>
+      <c r="E112" s="64"/>
+      <c r="F112" s="64"/>
+      <c r="G112" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="H112" s="42"/>
+      <c r="I112" s="64">
+        <v>0</v>
+      </c>
+      <c r="J112" s="64">
+        <v>0</v>
+      </c>
+      <c r="K112" s="64">
+        <v>0</v>
+      </c>
+      <c r="L112" s="64">
+        <v>0</v>
+      </c>
+      <c r="M112" s="64"/>
+      <c r="N112" s="64"/>
+      <c r="O112" s="64"/>
+      <c r="P112" s="65"/>
+      <c r="Q112" s="64"/>
+      <c r="R112" s="64"/>
+      <c r="S112" s="65"/>
+    </row>
+    <row r="113" spans="2:20">
+      <c r="B113" s="63"/>
+      <c r="C113" s="64"/>
+      <c r="D113" s="64"/>
+      <c r="E113" s="64"/>
+      <c r="F113" s="64"/>
+      <c r="G113" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="H113" s="42"/>
+      <c r="I113" s="64">
+        <v>0</v>
+      </c>
+      <c r="J113" s="64">
+        <v>0</v>
+      </c>
+      <c r="K113" s="64">
+        <v>0</v>
+      </c>
+      <c r="L113" s="64">
+        <v>0</v>
+      </c>
+      <c r="M113" s="64"/>
+      <c r="N113" s="64"/>
+      <c r="O113" s="64"/>
+      <c r="P113" s="65"/>
+      <c r="Q113" s="64"/>
+      <c r="R113" s="64"/>
+      <c r="S113" s="65"/>
+    </row>
+    <row r="114" spans="2:20">
+      <c r="B114" s="63"/>
+      <c r="C114" s="64"/>
+      <c r="D114" s="64"/>
+      <c r="E114" s="64"/>
+      <c r="F114" s="64"/>
+      <c r="G114" s="64"/>
+      <c r="H114" s="81" t="s">
+        <v>148</v>
+      </c>
+      <c r="I114" s="57">
+        <f t="array" ref="I114:R129">MMULT(I82:I97,G109:P109)</f>
+        <v>-3.1731168369528974E-2</v>
+      </c>
+      <c r="J114" s="57">
+        <v>0</v>
+      </c>
+      <c r="K114" s="57">
+        <v>-1.0187176769936218E-2</v>
+      </c>
+      <c r="L114" s="57">
+        <v>-1.1176422636822985E-2</v>
+      </c>
+      <c r="M114" s="57">
+        <v>-9.3272934391483864E-3</v>
+      </c>
+      <c r="N114" s="57">
+        <v>-8.7233746088129158E-3</v>
+      </c>
+      <c r="O114" s="57">
+        <v>0</v>
+      </c>
+      <c r="P114" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="57">
+        <v>0</v>
+      </c>
+      <c r="R114" s="57">
+        <v>0</v>
+      </c>
+      <c r="S114" s="65"/>
+    </row>
+    <row r="115" spans="2:20">
+      <c r="B115" s="63"/>
+      <c r="C115" s="64"/>
+      <c r="D115" s="64"/>
+      <c r="E115" s="64"/>
+      <c r="F115" s="64"/>
+      <c r="G115" s="64"/>
+      <c r="H115" s="64"/>
+      <c r="I115" s="57">
+        <v>-1.2429472103238557E-3</v>
+      </c>
+      <c r="J115" s="57">
+        <v>0</v>
+      </c>
+      <c r="K115" s="57">
+        <v>-3.9904370364841272E-4</v>
+      </c>
+      <c r="L115" s="57">
+        <v>-4.3779362852518032E-4</v>
+      </c>
+      <c r="M115" s="57">
+        <v>-3.6536106156098605E-4</v>
+      </c>
+      <c r="N115" s="57">
+        <v>-3.4170485020797615E-4</v>
+      </c>
+      <c r="O115" s="57">
+        <v>0</v>
+      </c>
+      <c r="P115" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="57">
+        <v>0</v>
+      </c>
+      <c r="R115" s="57">
+        <v>0</v>
+      </c>
+      <c r="S115" s="65"/>
+    </row>
+    <row r="116" spans="2:20">
+      <c r="B116" s="63"/>
+      <c r="C116" s="64"/>
+      <c r="D116" s="64"/>
+      <c r="E116" s="64"/>
+      <c r="F116" s="64"/>
+      <c r="G116" s="64"/>
+      <c r="H116" s="64"/>
+      <c r="I116" s="57">
+        <v>-2.403694711482899E-2</v>
+      </c>
+      <c r="J116" s="57">
+        <v>0</v>
+      </c>
+      <c r="K116" s="57">
+        <v>-7.7169748815021704E-3</v>
+      </c>
+      <c r="L116" s="57">
+        <v>-8.4663469282231004E-3</v>
+      </c>
+      <c r="M116" s="57">
+        <v>-7.0655973492799963E-3</v>
+      </c>
+      <c r="N116" s="57">
+        <v>-6.6081176618833296E-3</v>
+      </c>
+      <c r="O116" s="57">
+        <v>0</v>
+      </c>
+      <c r="P116" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="57">
+        <v>0</v>
+      </c>
+      <c r="R116" s="57">
+        <v>0</v>
+      </c>
+      <c r="S116" s="65"/>
+    </row>
+    <row r="117" spans="2:20">
+      <c r="B117" s="63"/>
+      <c r="C117" s="64"/>
+      <c r="D117" s="64"/>
+      <c r="E117" s="64"/>
+      <c r="F117" s="64"/>
+      <c r="G117" s="67"/>
+      <c r="H117" s="67"/>
+      <c r="I117" s="57">
+        <v>-1.5753470653781974E-3</v>
+      </c>
+      <c r="J117" s="57">
+        <v>0</v>
+      </c>
+      <c r="K117" s="57">
+        <v>-5.0575947415850515E-4</v>
+      </c>
+      <c r="L117" s="57">
+        <v>-5.5487224413876518E-4</v>
+      </c>
+      <c r="M117" s="57">
+        <v>-4.6306912421774913E-4</v>
+      </c>
+      <c r="N117" s="57">
+        <v>-4.3308656114234668E-4</v>
+      </c>
+      <c r="O117" s="57">
+        <v>0</v>
+      </c>
+      <c r="P117" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="57">
+        <v>0</v>
+      </c>
+      <c r="R117" s="57">
+        <v>0</v>
+      </c>
+      <c r="S117" s="65"/>
+    </row>
+    <row r="118" spans="2:20">
+      <c r="B118" s="63"/>
+      <c r="C118" s="64"/>
+      <c r="D118" s="64"/>
+      <c r="E118" s="64"/>
+      <c r="F118" s="64"/>
+      <c r="G118" s="64"/>
+      <c r="H118" s="64"/>
+      <c r="I118" s="57">
+        <v>-3.7175961950426397E-3</v>
+      </c>
+      <c r="J118" s="57">
+        <v>0</v>
+      </c>
+      <c r="K118" s="57">
+        <v>-1.1935208044374897E-3</v>
+      </c>
+      <c r="L118" s="57">
+        <v>-1.3094199931427966E-3</v>
+      </c>
+      <c r="M118" s="57">
+        <v>-1.0927776183849024E-3</v>
+      </c>
+      <c r="N118" s="57">
+        <v>-1.0220230114437437E-3</v>
+      </c>
+      <c r="O118" s="57">
+        <v>0</v>
+      </c>
+      <c r="P118" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q118" s="57">
+        <v>0</v>
+      </c>
+      <c r="R118" s="57">
+        <v>0</v>
+      </c>
+      <c r="S118" s="65"/>
+    </row>
+    <row r="119" spans="2:20">
+      <c r="B119" s="63"/>
+      <c r="C119" s="64"/>
+      <c r="D119" s="64"/>
+      <c r="E119" s="64"/>
+      <c r="F119" s="64"/>
+      <c r="G119" s="64"/>
+      <c r="H119" s="64"/>
+      <c r="I119" s="57">
+        <v>-9.5702890666792533E-3</v>
+      </c>
+      <c r="J119" s="57">
+        <v>0</v>
+      </c>
+      <c r="K119" s="57">
+        <v>-3.0725066699804184E-3</v>
+      </c>
+      <c r="L119" s="57">
+        <v>-3.3708684823748041E-3</v>
+      </c>
+      <c r="M119" s="57">
+        <v>-2.8131612861791388E-3</v>
+      </c>
+      <c r="N119" s="57">
+        <v>-2.6310161564501171E-3</v>
+      </c>
+      <c r="O119" s="57">
+        <v>0</v>
+      </c>
+      <c r="P119" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="57">
+        <v>0</v>
+      </c>
+      <c r="R119" s="57">
+        <v>0</v>
+      </c>
+      <c r="S119" s="65"/>
+    </row>
+    <row r="120" spans="2:20">
+      <c r="B120" s="63"/>
+      <c r="C120" s="64"/>
+      <c r="D120" s="64"/>
+      <c r="E120" s="64"/>
+      <c r="F120" s="64"/>
+      <c r="G120" s="64"/>
+      <c r="H120" s="64"/>
+      <c r="I120" s="57">
+        <v>-1.224414129095936E-3</v>
+      </c>
+      <c r="J120" s="57">
+        <v>0</v>
+      </c>
+      <c r="K120" s="57">
+        <v>-3.930937249914117E-4</v>
+      </c>
+      <c r="L120" s="57">
+        <v>-4.3126586547045752E-4</v>
+      </c>
+      <c r="M120" s="57">
+        <v>-3.5991331110530548E-4</v>
+      </c>
+      <c r="N120" s="57">
+        <v>-3.3660982791557445E-4</v>
+      </c>
+      <c r="O120" s="57">
+        <v>0</v>
+      </c>
+      <c r="P120" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q120" s="57">
+        <v>0</v>
+      </c>
+      <c r="R120" s="57">
+        <v>0</v>
+      </c>
+      <c r="S120" s="65"/>
+    </row>
+    <row r="121" spans="2:20">
+      <c r="B121" s="63"/>
+      <c r="C121" s="64"/>
+      <c r="D121" s="64"/>
+      <c r="E121" s="64"/>
+      <c r="F121" s="64"/>
+      <c r="G121" s="64"/>
+      <c r="H121" s="64"/>
+      <c r="I121" s="57">
+        <v>-1.7468179127799157E-2</v>
+      </c>
+      <c r="J121" s="57">
+        <v>0</v>
+      </c>
+      <c r="K121" s="57">
+        <v>-5.6080956916381526E-3</v>
+      </c>
+      <c r="L121" s="57">
+        <v>-6.1526808705692597E-3</v>
+      </c>
+      <c r="M121" s="57">
+        <v>-5.1347252857241212E-3</v>
+      </c>
+      <c r="N121" s="57">
+        <v>-4.8022647162267382E-3</v>
+      </c>
+      <c r="O121" s="57">
+        <v>0</v>
+      </c>
+      <c r="P121" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q121" s="57">
+        <v>0</v>
+      </c>
+      <c r="R121" s="57">
+        <v>0</v>
+      </c>
+      <c r="S121" s="65"/>
+    </row>
+    <row r="122" spans="2:20">
+      <c r="B122" s="63"/>
+      <c r="C122" s="64"/>
+      <c r="D122" s="64"/>
+      <c r="E122" s="64"/>
+      <c r="F122" s="64"/>
+      <c r="G122" s="64"/>
+      <c r="H122" s="64"/>
+      <c r="I122" s="57">
+        <v>0</v>
+      </c>
+      <c r="J122" s="57">
+        <v>0</v>
+      </c>
+      <c r="K122" s="57">
+        <v>0</v>
+      </c>
+      <c r="L122" s="57">
+        <v>0</v>
+      </c>
+      <c r="M122" s="57">
+        <v>0</v>
+      </c>
+      <c r="N122" s="57">
+        <v>0</v>
+      </c>
+      <c r="O122" s="57">
+        <v>0</v>
+      </c>
+      <c r="P122" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q122" s="57">
+        <v>0</v>
+      </c>
+      <c r="R122" s="57">
+        <v>0</v>
+      </c>
+      <c r="S122" s="65"/>
+      <c r="T122" s="56"/>
+    </row>
+    <row r="123" spans="2:20">
+      <c r="B123" s="63"/>
+      <c r="C123" s="64"/>
+      <c r="D123" s="64"/>
+      <c r="E123" s="64"/>
+      <c r="F123" s="64"/>
+      <c r="G123" s="64"/>
+      <c r="H123" s="64"/>
+      <c r="I123" s="57">
+        <v>0</v>
+      </c>
+      <c r="J123" s="57">
+        <v>0</v>
+      </c>
+      <c r="K123" s="57">
+        <v>0</v>
+      </c>
+      <c r="L123" s="57">
+        <v>0</v>
+      </c>
+      <c r="M123" s="57">
+        <v>0</v>
+      </c>
+      <c r="N123" s="57">
+        <v>0</v>
+      </c>
+      <c r="O123" s="57">
+        <v>0</v>
+      </c>
+      <c r="P123" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q123" s="57">
+        <v>0</v>
+      </c>
+      <c r="R123" s="57">
+        <v>0</v>
+      </c>
+      <c r="S123" s="65"/>
+      <c r="T123" s="56"/>
+    </row>
+    <row r="124" spans="2:20">
+      <c r="B124" s="63"/>
+      <c r="C124" s="64"/>
+      <c r="D124" s="64"/>
+      <c r="E124" s="64"/>
+      <c r="F124" s="64"/>
+      <c r="G124" s="64"/>
+      <c r="H124" s="64"/>
+      <c r="I124" s="57">
+        <v>0</v>
+      </c>
+      <c r="J124" s="57">
+        <v>0</v>
+      </c>
+      <c r="K124" s="57">
+        <v>0</v>
+      </c>
+      <c r="L124" s="57">
+        <v>0</v>
+      </c>
+      <c r="M124" s="57">
+        <v>0</v>
+      </c>
+      <c r="N124" s="57">
+        <v>0</v>
+      </c>
+      <c r="O124" s="57">
+        <v>0</v>
+      </c>
+      <c r="P124" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q124" s="57">
+        <v>0</v>
+      </c>
+      <c r="R124" s="57">
+        <v>0</v>
+      </c>
+      <c r="S124" s="65"/>
+      <c r="T124" s="56"/>
+    </row>
+    <row r="125" spans="2:20">
+      <c r="B125" s="63"/>
+      <c r="C125" s="64"/>
+      <c r="D125" s="64"/>
+      <c r="E125" s="64"/>
+      <c r="F125" s="64"/>
+      <c r="G125" s="64"/>
+      <c r="H125" s="64"/>
+      <c r="I125" s="57">
+        <v>0</v>
+      </c>
+      <c r="J125" s="57">
+        <v>0</v>
+      </c>
+      <c r="K125" s="57">
+        <v>0</v>
+      </c>
+      <c r="L125" s="57">
+        <v>0</v>
+      </c>
+      <c r="M125" s="57">
+        <v>0</v>
+      </c>
+      <c r="N125" s="57">
+        <v>0</v>
+      </c>
+      <c r="O125" s="57">
+        <v>0</v>
+      </c>
+      <c r="P125" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q125" s="57">
+        <v>0</v>
+      </c>
+      <c r="R125" s="57">
+        <v>0</v>
+      </c>
+      <c r="S125" s="65"/>
+      <c r="T125" s="56"/>
+    </row>
+    <row r="126" spans="2:20">
+      <c r="B126" s="63"/>
+      <c r="C126" s="64"/>
+      <c r="D126" s="64"/>
+      <c r="E126" s="64"/>
+      <c r="F126" s="64"/>
+      <c r="G126" s="64"/>
+      <c r="H126" s="64"/>
+      <c r="I126" s="57">
+        <v>-1.9749318076853375E-3</v>
+      </c>
+      <c r="J126" s="57">
+        <v>0</v>
+      </c>
+      <c r="K126" s="57">
+        <v>-6.3404470957899566E-4</v>
+      </c>
+      <c r="L126" s="57">
+        <v>-6.9561487004028005E-4</v>
+      </c>
+      <c r="M126" s="57">
+        <v>-5.805260076801375E-4</v>
+      </c>
+      <c r="N126" s="57">
+        <v>-5.4293840632238283E-4</v>
+      </c>
+      <c r="O126" s="57">
+        <v>0</v>
+      </c>
+      <c r="P126" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q126" s="57">
+        <v>0</v>
+      </c>
+      <c r="R126" s="57">
+        <v>0</v>
+      </c>
+      <c r="S126" s="65"/>
+      <c r="T126" s="56"/>
+    </row>
+    <row r="127" spans="2:20">
+      <c r="B127" s="63"/>
+      <c r="C127" s="64"/>
+      <c r="D127" s="64"/>
+      <c r="E127" s="64"/>
+      <c r="F127" s="64"/>
+      <c r="G127" s="64"/>
+      <c r="H127" s="64"/>
+      <c r="I127" s="57">
+        <v>-2.0468292151439776E-2</v>
+      </c>
+      <c r="J127" s="57">
+        <v>0</v>
+      </c>
+      <c r="K127" s="57">
+        <v>-6.5712711204686828E-3</v>
+      </c>
+      <c r="L127" s="57">
+        <v>-7.2093873466737889E-3</v>
+      </c>
+      <c r="M127" s="57">
+        <v>-6.0166006139890094E-3</v>
+      </c>
+      <c r="N127" s="57">
+        <v>-5.6270408312823466E-3</v>
+      </c>
+      <c r="O127" s="57">
+        <v>0</v>
+      </c>
+      <c r="P127" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q127" s="57">
+        <v>0</v>
+      </c>
+      <c r="R127" s="57">
+        <v>0</v>
+      </c>
+      <c r="S127" s="65"/>
+      <c r="T127" s="56"/>
+    </row>
+    <row r="128" spans="2:20">
+      <c r="B128" s="63"/>
+      <c r="C128" s="64"/>
+      <c r="D128" s="64"/>
+      <c r="E128" s="64"/>
+      <c r="F128" s="64"/>
+      <c r="G128" s="64"/>
+      <c r="H128" s="64"/>
+      <c r="I128" s="57">
+        <v>-8.6741115852792463E-4</v>
+      </c>
+      <c r="J128" s="57">
+        <v>0</v>
+      </c>
+      <c r="K128" s="57">
+        <v>-2.7847921328433284E-4</v>
+      </c>
+      <c r="L128" s="57">
+        <v>-3.0552148583705793E-4</v>
+      </c>
+      <c r="M128" s="57">
+        <v>-2.5497322738834001E-4</v>
+      </c>
+      <c r="N128" s="57">
+        <v>-2.3846435112580806E-4</v>
+      </c>
+      <c r="O128" s="57">
+        <v>0</v>
+      </c>
+      <c r="P128" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q128" s="57">
+        <v>0</v>
+      </c>
+      <c r="R128" s="57">
+        <v>0</v>
+      </c>
+      <c r="S128" s="65"/>
+    </row>
+    <row r="129" spans="2:19">
+      <c r="B129" s="63"/>
+      <c r="C129" s="64"/>
+      <c r="D129" s="64"/>
+      <c r="E129" s="64"/>
+      <c r="F129" s="64"/>
+      <c r="G129" s="64"/>
+      <c r="H129" s="64"/>
+      <c r="I129" s="57">
+        <v>-1.2493197580667338E-2</v>
+      </c>
+      <c r="J129" s="57">
+        <v>0</v>
+      </c>
+      <c r="K129" s="57">
+        <v>-4.0108958703901293E-3</v>
+      </c>
+      <c r="L129" s="57">
+        <v>-4.4003818145239406E-3</v>
+      </c>
+      <c r="M129" s="57">
+        <v>-3.6723425520014262E-3</v>
+      </c>
+      <c r="N129" s="57">
+        <v>-3.4345675926238882E-3</v>
+      </c>
+      <c r="O129" s="57">
+        <v>0</v>
+      </c>
+      <c r="P129" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q129" s="57">
+        <v>0</v>
+      </c>
+      <c r="R129" s="57">
+        <v>0</v>
+      </c>
+      <c r="S129" s="65"/>
+    </row>
+    <row r="130" spans="2:19">
+      <c r="B130" s="66"/>
+      <c r="C130" s="67"/>
+      <c r="D130" s="67"/>
+      <c r="E130" s="67"/>
+      <c r="F130" s="67"/>
+      <c r="G130" s="67"/>
+      <c r="H130" s="67"/>
+      <c r="I130" s="67"/>
+      <c r="J130" s="67"/>
+      <c r="K130" s="67"/>
+      <c r="L130" s="67"/>
+      <c r="M130" s="67"/>
+      <c r="N130" s="67"/>
+      <c r="O130" s="67"/>
+      <c r="P130" s="67"/>
+      <c r="Q130" s="67"/>
+      <c r="R130" s="67"/>
+      <c r="S130" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="I81:L81"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="B26:D26"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/coba_rnn.xlsx
+++ b/coba_rnn.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\KULIAH\Semester_7\metpen\LSTM\LSTM_Prediksi\Uji_coba\persiapan\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F724841B-9992-4568-A942-597E47D7B78A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4665" tabRatio="784" activeTab="1"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="784" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data split dan Normalisasi" sheetId="6" r:id="rId1"/>
@@ -24,10 +25,16 @@
     <sheet name="Alur perhitungan" sheetId="7" r:id="rId10"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -813,7 +820,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
@@ -1787,51 +1794,6 @@
     <xf numFmtId="0" fontId="0" fillId="39" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1848,53 +1810,98 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="45">
-    <cellStyle name="20% - Accent1 2" xfId="22"/>
-    <cellStyle name="20% - Accent2 2" xfId="26"/>
-    <cellStyle name="20% - Accent3 2" xfId="30"/>
-    <cellStyle name="20% - Accent4 2" xfId="34"/>
-    <cellStyle name="20% - Accent5 2" xfId="38"/>
-    <cellStyle name="20% - Accent6 2" xfId="42"/>
-    <cellStyle name="40% - Accent1 2" xfId="23"/>
-    <cellStyle name="40% - Accent2 2" xfId="27"/>
-    <cellStyle name="40% - Accent3 2" xfId="31"/>
-    <cellStyle name="40% - Accent4 2" xfId="35"/>
-    <cellStyle name="40% - Accent5 2" xfId="39"/>
-    <cellStyle name="40% - Accent6 2" xfId="43"/>
-    <cellStyle name="60% - Accent1 2" xfId="24"/>
-    <cellStyle name="60% - Accent2 2" xfId="28"/>
-    <cellStyle name="60% - Accent3 2" xfId="32"/>
-    <cellStyle name="60% - Accent4 2" xfId="36"/>
-    <cellStyle name="60% - Accent5 2" xfId="40"/>
-    <cellStyle name="60% - Accent6 2" xfId="44"/>
-    <cellStyle name="Accent1 2" xfId="21"/>
-    <cellStyle name="Accent2 2" xfId="25"/>
-    <cellStyle name="Accent3 2" xfId="29"/>
-    <cellStyle name="Accent4 2" xfId="33"/>
-    <cellStyle name="Accent5 2" xfId="37"/>
-    <cellStyle name="Accent6 2" xfId="41"/>
-    <cellStyle name="Bad 2" xfId="10"/>
-    <cellStyle name="Calculation 2" xfId="14"/>
-    <cellStyle name="Check Cell 2" xfId="16"/>
-    <cellStyle name="Comma [0] 2" xfId="3"/>
-    <cellStyle name="Explanatory Text 2" xfId="19"/>
-    <cellStyle name="Good 2" xfId="9"/>
-    <cellStyle name="Heading 1 2" xfId="5"/>
-    <cellStyle name="Heading 2 2" xfId="6"/>
-    <cellStyle name="Heading 3 2" xfId="7"/>
-    <cellStyle name="Heading 4 2" xfId="8"/>
-    <cellStyle name="Input 2" xfId="12"/>
-    <cellStyle name="Linked Cell 2" xfId="15"/>
-    <cellStyle name="Neutral 2" xfId="11"/>
+    <cellStyle name="20% - Accent1 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="39" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="24" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="36" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Accent1 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Accent2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Accent3 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Accent4 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Accent5 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Accent6 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Bad 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Calculation 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Check Cell 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Comma [0] 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Good 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Heading 1 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Heading 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Heading 3 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Heading 4 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Input 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Neutral 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
-    <cellStyle name="Note 2" xfId="18"/>
-    <cellStyle name="Output 2" xfId="13"/>
-    <cellStyle name="Title 2" xfId="4"/>
-    <cellStyle name="Total 2" xfId="20"/>
-    <cellStyle name="Warning Text 2" xfId="17"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Note 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Output 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Title 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Total 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Warning Text 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1936,7 +1943,7 @@
         <xdr:cNvPr id="6" name="Arrow: Right 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF341B41-0CB7-48D6-9271-9F5DB4E1E6F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1996,7 +2003,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBE395E3-32A8-43C8-92B4-2419AB02D86A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2040,7 +2047,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{829F51A6-FB1E-43A0-8498-1AB17B8BEE57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2081,7 +2088,7 @@
             <xdr:cNvPr id="12" name="TextBox 11">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6094C9A0-EABA-4FA9-8BF0-0A4F2F3B372B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2237,7 +2244,7 @@
         <xdr:cNvPr id="13" name="Arrow: Right 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1882C5A4-6EB6-40F0-BE15-32884941A668}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2297,7 +2304,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7751357B-1338-4C33-933E-D0333E11E05D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2341,7 +2348,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDA31160-0161-4782-B96E-815D630F822F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2382,7 +2389,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2419,7 +2432,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2456,7 +2475,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2493,7 +2518,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2530,7 +2561,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2567,7 +2604,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2604,7 +2647,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2646,7 +2695,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="261" name="Picture 260"/>
+        <xdr:cNvPr id="261" name="Picture 260">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2686,7 +2741,7 @@
         <xdr:cNvPr id="49" name="TextBox 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5180467-76B2-4114-9E0A-1BD4571F8BB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2756,7 +2811,7 @@
         <xdr:cNvPr id="50" name="Right Arrow 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{622E0F28-008F-4D91-89C7-470B4D74CADB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2816,7 +2871,7 @@
         <xdr:cNvPr id="51" name="Picture 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70D4834D-6553-4E45-9353-E01B7AF68519}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2860,7 +2915,7 @@
         <xdr:cNvPr id="52" name="Picture 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C07A73CF-59EC-4E1D-A296-F1AF088EA6CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2904,7 +2959,7 @@
         <xdr:cNvPr id="53" name="Picture 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B4B566A-9DC3-45AE-8B59-ED550D4A4CBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2943,7 +2998,7 @@
         <xdr:cNvPr id="54" name="Picture 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6C57612-4C00-4A1B-86B7-DACCF15970FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2987,7 +3042,7 @@
         <xdr:cNvPr id="55" name="Picture 54" descr="Water 11 01387 g004 550">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A98D9BD3-E8D1-43B4-A1D8-5AA15BCE5978}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3046,7 +3101,7 @@
         <xdr:cNvPr id="56" name="Picture 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0725BCDF-6B7A-41BB-9053-A752EB2A06A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3090,7 +3145,7 @@
         <xdr:cNvPr id="57" name="Picture 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31E7AE80-4898-4A2F-AD77-04798F8FDD92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3134,7 +3189,7 @@
         <xdr:cNvPr id="58" name="Picture 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C436473B-FD54-41F4-B373-C588BE097BF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3178,7 +3233,7 @@
         <xdr:cNvPr id="59" name="Picture 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA755F09-2C67-41A4-A42F-CA872C8DB935}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3222,7 +3277,7 @@
         <xdr:cNvPr id="60" name="Picture 59" descr="Water 11 01387 g004 550">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{034F7C72-9AE0-41CE-A6DF-CA1754E1F528}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3281,7 +3336,7 @@
         <xdr:cNvPr id="61" name="Picture 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6CD5BA7-C41C-43B9-90F3-11809C51AF3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3325,7 +3380,7 @@
         <xdr:cNvPr id="62" name="Picture 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFCA455A-7C56-4E0A-B35D-FAF7F9D430B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3369,7 +3424,7 @@
         <xdr:cNvPr id="63" name="Picture 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9DF708B-01B6-4324-8580-696C0D8BFF82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3413,7 +3468,7 @@
         <xdr:cNvPr id="64" name="Picture 63" descr="Water 11 01387 g004 550">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{514473FA-DD77-49D3-88F0-C514E562476D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3472,7 +3527,7 @@
         <xdr:cNvPr id="65" name="Picture 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15D9DC41-FBC3-4D40-9F52-ECB184533D71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3516,7 +3571,7 @@
         <xdr:cNvPr id="67" name="Picture 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D529BF1-68F5-499B-9A02-43F48D13789B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3560,7 +3615,7 @@
         <xdr:cNvPr id="69" name="Picture 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDA72A5F-D29C-4E0F-9907-CC8B392B34AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3604,7 +3659,7 @@
         <xdr:cNvPr id="70" name="Picture 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB385C55-08D5-4E80-919B-BC11B783B97B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000046000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3648,7 +3703,7 @@
         <xdr:cNvPr id="118" name="TextBox 117">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5180467-76B2-4114-9E0A-1BD4571F8BB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000076000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3718,7 +3773,7 @@
         <xdr:cNvPr id="119" name="Right Arrow 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{622E0F28-008F-4D91-89C7-470B4D74CADB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000077000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3773,7 +3828,7 @@
         <xdr:cNvPr id="120" name="Picture 119">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70D4834D-6553-4E45-9353-E01B7AF68519}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000078000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3812,7 +3867,7 @@
         <xdr:cNvPr id="121" name="Picture 120">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C07A73CF-59EC-4E1D-A296-F1AF088EA6CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000079000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3851,7 +3906,7 @@
         <xdr:cNvPr id="122" name="Picture 121">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B4B566A-9DC3-45AE-8B59-ED550D4A4CBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3890,7 +3945,7 @@
         <xdr:cNvPr id="123" name="Picture 122">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6C57612-4C00-4A1B-86B7-DACCF15970FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3929,7 +3984,7 @@
         <xdr:cNvPr id="124" name="Picture 123" descr="Water 11 01387 g004 550">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A98D9BD3-E8D1-43B4-A1D8-5AA15BCE5978}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3983,7 +4038,7 @@
         <xdr:cNvPr id="125" name="Picture 124">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0725BCDF-6B7A-41BB-9053-A752EB2A06A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4022,7 +4077,7 @@
         <xdr:cNvPr id="126" name="Picture 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31E7AE80-4898-4A2F-AD77-04798F8FDD92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4061,7 +4116,7 @@
         <xdr:cNvPr id="127" name="Picture 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C436473B-FD54-41F4-B373-C588BE097BF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4100,7 +4155,7 @@
         <xdr:cNvPr id="128" name="Picture 127">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA755F09-2C67-41A4-A42F-CA872C8DB935}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000080000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4139,7 +4194,7 @@
         <xdr:cNvPr id="129" name="Picture 128" descr="Water 11 01387 g004 550">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{034F7C72-9AE0-41CE-A6DF-CA1754E1F528}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000081000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4193,7 +4248,7 @@
         <xdr:cNvPr id="130" name="Picture 129">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6CD5BA7-C41C-43B9-90F3-11809C51AF3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000082000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4232,7 +4287,7 @@
         <xdr:cNvPr id="131" name="Picture 130">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFCA455A-7C56-4E0A-B35D-FAF7F9D430B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000083000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4271,7 +4326,7 @@
         <xdr:cNvPr id="132" name="Picture 131">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9DF708B-01B6-4324-8580-696C0D8BFF82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000084000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4310,7 +4365,7 @@
         <xdr:cNvPr id="133" name="Picture 132" descr="Water 11 01387 g004 550">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{514473FA-DD77-49D3-88F0-C514E562476D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000085000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4364,7 +4419,7 @@
         <xdr:cNvPr id="134" name="Picture 133">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15D9DC41-FBC3-4D40-9F52-ECB184533D71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000086000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4403,7 +4458,7 @@
         <xdr:cNvPr id="136" name="Picture 135">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D529BF1-68F5-499B-9A02-43F48D13789B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000088000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4442,7 +4497,7 @@
         <xdr:cNvPr id="137" name="Picture 136">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE11ABFD-09DF-4CE8-93A4-146DC959EE6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000089000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4481,7 +4536,7 @@
         <xdr:cNvPr id="138" name="Picture 137">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDA72A5F-D29C-4E0F-9907-CC8B392B34AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4520,7 +4575,7 @@
         <xdr:cNvPr id="139" name="Picture 138">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB385C55-08D5-4E80-919B-BC11B783B97B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4564,7 +4619,7 @@
         <xdr:cNvPr id="141" name="TextBox 140">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5180467-76B2-4114-9E0A-1BD4571F8BB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4634,7 +4689,7 @@
         <xdr:cNvPr id="142" name="Right Arrow 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{622E0F28-008F-4D91-89C7-470B4D74CADB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4689,7 +4744,7 @@
         <xdr:cNvPr id="143" name="Picture 142">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70D4834D-6553-4E45-9353-E01B7AF68519}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4728,7 +4783,7 @@
         <xdr:cNvPr id="144" name="Picture 143">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C07A73CF-59EC-4E1D-A296-F1AF088EA6CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000090000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4767,7 +4822,7 @@
         <xdr:cNvPr id="145" name="Picture 144">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B4B566A-9DC3-45AE-8B59-ED550D4A4CBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000091000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4806,7 +4861,7 @@
         <xdr:cNvPr id="146" name="Picture 145">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6C57612-4C00-4A1B-86B7-DACCF15970FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000092000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4845,7 +4900,7 @@
         <xdr:cNvPr id="147" name="Picture 146" descr="Water 11 01387 g004 550">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A98D9BD3-E8D1-43B4-A1D8-5AA15BCE5978}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000093000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4899,7 +4954,7 @@
         <xdr:cNvPr id="148" name="Picture 147">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0725BCDF-6B7A-41BB-9053-A752EB2A06A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000094000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4938,7 +4993,7 @@
         <xdr:cNvPr id="149" name="Picture 148">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31E7AE80-4898-4A2F-AD77-04798F8FDD92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000095000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4977,7 +5032,7 @@
         <xdr:cNvPr id="150" name="Picture 149">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C436473B-FD54-41F4-B373-C588BE097BF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000096000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5016,7 +5071,7 @@
         <xdr:cNvPr id="151" name="Picture 150">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA755F09-2C67-41A4-A42F-CA872C8DB935}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000097000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5055,7 +5110,7 @@
         <xdr:cNvPr id="152" name="Picture 151" descr="Water 11 01387 g004 550">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{034F7C72-9AE0-41CE-A6DF-CA1754E1F528}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000098000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5109,7 +5164,7 @@
         <xdr:cNvPr id="153" name="Picture 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6CD5BA7-C41C-43B9-90F3-11809C51AF3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000099000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5148,7 +5203,7 @@
         <xdr:cNvPr id="154" name="Picture 153">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFCA455A-7C56-4E0A-B35D-FAF7F9D430B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5187,7 +5242,7 @@
         <xdr:cNvPr id="155" name="Picture 154">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9DF708B-01B6-4324-8580-696C0D8BFF82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5226,7 +5281,7 @@
         <xdr:cNvPr id="156" name="Picture 155" descr="Water 11 01387 g004 550">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{514473FA-DD77-49D3-88F0-C514E562476D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5280,7 +5335,7 @@
         <xdr:cNvPr id="157" name="Picture 156">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15D9DC41-FBC3-4D40-9F52-ECB184533D71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5319,7 +5374,7 @@
         <xdr:cNvPr id="159" name="Picture 158">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D529BF1-68F5-499B-9A02-43F48D13789B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5358,7 +5413,7 @@
         <xdr:cNvPr id="160" name="Picture 159">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE11ABFD-09DF-4CE8-93A4-146DC959EE6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5397,7 +5452,7 @@
         <xdr:cNvPr id="161" name="Picture 160">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDA72A5F-D29C-4E0F-9907-CC8B392B34AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5436,7 +5491,7 @@
         <xdr:cNvPr id="162" name="Picture 161">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB385C55-08D5-4E80-919B-BC11B783B97B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5480,7 +5535,7 @@
         <xdr:cNvPr id="164" name="TextBox 163">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5180467-76B2-4114-9E0A-1BD4571F8BB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5550,7 +5605,7 @@
         <xdr:cNvPr id="165" name="Right Arrow 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{622E0F28-008F-4D91-89C7-470B4D74CADB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5605,7 +5660,7 @@
         <xdr:cNvPr id="166" name="Picture 165">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70D4834D-6553-4E45-9353-E01B7AF68519}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5644,7 +5699,7 @@
         <xdr:cNvPr id="167" name="Picture 166">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C07A73CF-59EC-4E1D-A296-F1AF088EA6CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5683,7 +5738,7 @@
         <xdr:cNvPr id="168" name="Picture 167">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B4B566A-9DC3-45AE-8B59-ED550D4A4CBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5722,7 +5777,7 @@
         <xdr:cNvPr id="169" name="Picture 168">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6C57612-4C00-4A1B-86B7-DACCF15970FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5761,7 +5816,7 @@
         <xdr:cNvPr id="170" name="Picture 169" descr="Water 11 01387 g004 550">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A98D9BD3-E8D1-43B4-A1D8-5AA15BCE5978}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5815,7 +5870,7 @@
         <xdr:cNvPr id="171" name="Picture 170">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0725BCDF-6B7A-41BB-9053-A752EB2A06A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AB000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5854,7 +5909,7 @@
         <xdr:cNvPr id="172" name="Picture 171">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31E7AE80-4898-4A2F-AD77-04798F8FDD92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5893,7 +5948,7 @@
         <xdr:cNvPr id="173" name="Picture 172">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C436473B-FD54-41F4-B373-C588BE097BF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5932,7 +5987,7 @@
         <xdr:cNvPr id="174" name="Picture 173">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA755F09-2C67-41A4-A42F-CA872C8DB935}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5971,7 +6026,7 @@
         <xdr:cNvPr id="175" name="Picture 174" descr="Water 11 01387 g004 550">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{034F7C72-9AE0-41CE-A6DF-CA1754E1F528}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AF000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6025,7 +6080,7 @@
         <xdr:cNvPr id="176" name="Picture 175">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6CD5BA7-C41C-43B9-90F3-11809C51AF3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6064,7 +6119,7 @@
         <xdr:cNvPr id="177" name="Picture 176">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFCA455A-7C56-4E0A-B35D-FAF7F9D430B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6103,7 +6158,7 @@
         <xdr:cNvPr id="178" name="Picture 177">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9DF708B-01B6-4324-8580-696C0D8BFF82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6142,7 +6197,7 @@
         <xdr:cNvPr id="179" name="Picture 178" descr="Water 11 01387 g004 550">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{514473FA-DD77-49D3-88F0-C514E562476D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6196,7 +6251,7 @@
         <xdr:cNvPr id="180" name="Picture 179">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15D9DC41-FBC3-4D40-9F52-ECB184533D71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6235,7 +6290,7 @@
         <xdr:cNvPr id="182" name="Picture 181">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D529BF1-68F5-499B-9A02-43F48D13789B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6274,7 +6329,7 @@
         <xdr:cNvPr id="183" name="Picture 182">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE11ABFD-09DF-4CE8-93A4-146DC959EE6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6313,7 +6368,7 @@
         <xdr:cNvPr id="184" name="Picture 183">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDA72A5F-D29C-4E0F-9907-CC8B392B34AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6352,7 +6407,7 @@
         <xdr:cNvPr id="185" name="Picture 184">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB385C55-08D5-4E80-919B-BC11B783B97B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6396,7 +6451,7 @@
         <xdr:cNvPr id="187" name="TextBox 186">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5180467-76B2-4114-9E0A-1BD4571F8BB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BB000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6466,7 +6521,7 @@
         <xdr:cNvPr id="188" name="Right Arrow 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{622E0F28-008F-4D91-89C7-470B4D74CADB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6521,7 +6576,7 @@
         <xdr:cNvPr id="189" name="Picture 188">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70D4834D-6553-4E45-9353-E01B7AF68519}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6560,7 +6615,7 @@
         <xdr:cNvPr id="190" name="Picture 189">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C07A73CF-59EC-4E1D-A296-F1AF088EA6CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6599,7 +6654,7 @@
         <xdr:cNvPr id="191" name="Picture 190">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B4B566A-9DC3-45AE-8B59-ED550D4A4CBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BF000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6638,7 +6693,7 @@
         <xdr:cNvPr id="192" name="Picture 191">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6C57612-4C00-4A1B-86B7-DACCF15970FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6677,7 +6732,7 @@
         <xdr:cNvPr id="193" name="Picture 192" descr="Water 11 01387 g004 550">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A98D9BD3-E8D1-43B4-A1D8-5AA15BCE5978}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6731,7 +6786,7 @@
         <xdr:cNvPr id="194" name="Picture 193">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0725BCDF-6B7A-41BB-9053-A752EB2A06A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6770,7 +6825,7 @@
         <xdr:cNvPr id="195" name="Picture 194">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31E7AE80-4898-4A2F-AD77-04798F8FDD92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6809,7 +6864,7 @@
         <xdr:cNvPr id="196" name="Picture 195">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C436473B-FD54-41F4-B373-C588BE097BF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6848,7 +6903,7 @@
         <xdr:cNvPr id="197" name="Picture 196">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA755F09-2C67-41A4-A42F-CA872C8DB935}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6887,7 +6942,7 @@
         <xdr:cNvPr id="198" name="Picture 197" descr="Water 11 01387 g004 550">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{034F7C72-9AE0-41CE-A6DF-CA1754E1F528}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6941,7 +6996,7 @@
         <xdr:cNvPr id="199" name="Picture 198">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6CD5BA7-C41C-43B9-90F3-11809C51AF3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6980,7 +7035,7 @@
         <xdr:cNvPr id="200" name="Picture 199">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFCA455A-7C56-4E0A-B35D-FAF7F9D430B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7019,7 +7074,7 @@
         <xdr:cNvPr id="201" name="Picture 200">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9DF708B-01B6-4324-8580-696C0D8BFF82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7058,7 +7113,7 @@
         <xdr:cNvPr id="202" name="Picture 201" descr="Water 11 01387 g004 550">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{514473FA-DD77-49D3-88F0-C514E562476D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7112,7 +7167,7 @@
         <xdr:cNvPr id="203" name="Picture 202">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15D9DC41-FBC3-4D40-9F52-ECB184533D71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CB000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7151,7 +7206,7 @@
         <xdr:cNvPr id="205" name="Picture 204">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D529BF1-68F5-499B-9A02-43F48D13789B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7190,7 +7245,7 @@
         <xdr:cNvPr id="206" name="Picture 205">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE11ABFD-09DF-4CE8-93A4-146DC959EE6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7229,7 +7284,7 @@
         <xdr:cNvPr id="207" name="Picture 206">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDA72A5F-D29C-4E0F-9907-CC8B392B34AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CF000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7268,7 +7323,7 @@
         <xdr:cNvPr id="208" name="Picture 207">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB385C55-08D5-4E80-919B-BC11B783B97B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7312,7 +7367,7 @@
         <xdr:cNvPr id="210" name="TextBox 209">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5180467-76B2-4114-9E0A-1BD4571F8BB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7382,7 +7437,7 @@
         <xdr:cNvPr id="211" name="Right Arrow 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{622E0F28-008F-4D91-89C7-470B4D74CADB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7437,7 +7492,7 @@
         <xdr:cNvPr id="212" name="Picture 211">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70D4834D-6553-4E45-9353-E01B7AF68519}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7476,7 +7531,7 @@
         <xdr:cNvPr id="213" name="Picture 212">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C07A73CF-59EC-4E1D-A296-F1AF088EA6CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7515,7 +7570,7 @@
         <xdr:cNvPr id="214" name="Picture 213">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B4B566A-9DC3-45AE-8B59-ED550D4A4CBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7554,7 +7609,7 @@
         <xdr:cNvPr id="215" name="Picture 214">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6C57612-4C00-4A1B-86B7-DACCF15970FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7593,7 +7648,7 @@
         <xdr:cNvPr id="216" name="Picture 215" descr="Water 11 01387 g004 550">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A98D9BD3-E8D1-43B4-A1D8-5AA15BCE5978}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7647,7 +7702,7 @@
         <xdr:cNvPr id="217" name="Picture 216">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0725BCDF-6B7A-41BB-9053-A752EB2A06A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7686,7 +7741,7 @@
         <xdr:cNvPr id="218" name="Picture 217">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31E7AE80-4898-4A2F-AD77-04798F8FDD92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000DA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7725,7 +7780,7 @@
         <xdr:cNvPr id="219" name="Picture 218">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C436473B-FD54-41F4-B373-C588BE097BF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000DB000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7764,7 +7819,7 @@
         <xdr:cNvPr id="220" name="Picture 219">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA755F09-2C67-41A4-A42F-CA872C8DB935}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000DC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7803,7 +7858,7 @@
         <xdr:cNvPr id="221" name="Picture 220" descr="Water 11 01387 g004 550">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{034F7C72-9AE0-41CE-A6DF-CA1754E1F528}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000DD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7857,7 +7912,7 @@
         <xdr:cNvPr id="222" name="Picture 221">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6CD5BA7-C41C-43B9-90F3-11809C51AF3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000DE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7896,7 +7951,7 @@
         <xdr:cNvPr id="223" name="Picture 222">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFCA455A-7C56-4E0A-B35D-FAF7F9D430B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000DF000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7935,7 +7990,7 @@
         <xdr:cNvPr id="224" name="Picture 223">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9DF708B-01B6-4324-8580-696C0D8BFF82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7974,7 +8029,7 @@
         <xdr:cNvPr id="225" name="Picture 224" descr="Water 11 01387 g004 550">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{514473FA-DD77-49D3-88F0-C514E562476D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8028,7 +8083,7 @@
         <xdr:cNvPr id="226" name="Picture 225">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15D9DC41-FBC3-4D40-9F52-ECB184533D71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8067,7 +8122,7 @@
         <xdr:cNvPr id="228" name="Picture 227">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D529BF1-68F5-499B-9A02-43F48D13789B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8106,7 +8161,7 @@
         <xdr:cNvPr id="229" name="Picture 228">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE11ABFD-09DF-4CE8-93A4-146DC959EE6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8145,7 +8200,7 @@
         <xdr:cNvPr id="230" name="Picture 229">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDA72A5F-D29C-4E0F-9907-CC8B392B34AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8184,7 +8239,7 @@
         <xdr:cNvPr id="231" name="Picture 230">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB385C55-08D5-4E80-919B-BC11B783B97B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8225,7 +8280,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="256" name="Picture 255"/>
+        <xdr:cNvPr id="256" name="Picture 255">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000000010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8262,7 +8323,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="257" name="Picture 256"/>
+        <xdr:cNvPr id="257" name="Picture 256">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8299,7 +8366,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="258" name="Picture 257"/>
+        <xdr:cNvPr id="258" name="Picture 257">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8336,7 +8409,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="259" name="Picture 258"/>
+        <xdr:cNvPr id="259" name="Picture 258">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8373,7 +8452,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8433,7 +8518,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="262" name="Rectangle 261"/>
+        <xdr:cNvPr id="262" name="Rectangle 261">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8493,7 +8584,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="263" name="Rectangle 262"/>
+        <xdr:cNvPr id="263" name="Rectangle 262">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8553,7 +8650,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="264" name="Rectangle 263"/>
+        <xdr:cNvPr id="264" name="Rectangle 263">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8613,7 +8716,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="265" name="Picture 264"/>
+        <xdr:cNvPr id="265" name="Picture 264">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8650,7 +8759,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="266" name="Picture 265"/>
+        <xdr:cNvPr id="266" name="Picture 265">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8687,7 +8802,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="267" name="Rectangle 266"/>
+        <xdr:cNvPr id="267" name="Rectangle 266">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8752,7 +8873,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8789,7 +8916,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8827,7 +8960,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8868,7 +9007,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8906,7 +9051,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8939,7 +9090,13 @@
     <xdr:ext cx="3209110" cy="1344528"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8972,7 +9129,13 @@
     <xdr:ext cx="2972229" cy="2150241"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9008,7 +9171,13 @@
     <xdr:ext cx="3312747" cy="3689570"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9041,7 +9210,13 @@
     <xdr:ext cx="1985484" cy="1615983"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9074,7 +9249,13 @@
     <xdr:ext cx="3209110" cy="1344528"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 23"/>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9107,7 +9288,13 @@
     <xdr:ext cx="2972229" cy="2150241"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 24"/>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9143,7 +9330,13 @@
     <xdr:ext cx="3312747" cy="3689570"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25"/>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9176,7 +9369,13 @@
     <xdr:ext cx="1985484" cy="1615983"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 26"/>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9209,7 +9408,13 @@
     <xdr:ext cx="3209110" cy="1344528"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 27"/>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9242,7 +9447,13 @@
     <xdr:ext cx="2972229" cy="2150241"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 28"/>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9278,7 +9489,13 @@
     <xdr:ext cx="3312747" cy="3689570"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 29"/>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9311,7 +9528,13 @@
     <xdr:ext cx="1985484" cy="1615983"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Picture 30"/>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9344,7 +9567,13 @@
     <xdr:ext cx="3209110" cy="1344528"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Picture 31"/>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9377,7 +9606,13 @@
     <xdr:ext cx="2972229" cy="2150241"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Picture 32"/>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9413,7 +9648,13 @@
     <xdr:ext cx="3312747" cy="3689570"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Picture 33"/>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9446,7 +9687,13 @@
     <xdr:ext cx="1985484" cy="1615983"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Picture 34"/>
+        <xdr:cNvPr id="35" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9479,7 +9726,13 @@
     <xdr:ext cx="3209110" cy="1344528"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Picture 35"/>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9512,7 +9765,13 @@
     <xdr:ext cx="2972229" cy="2150241"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Picture 36"/>
+        <xdr:cNvPr id="37" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9548,7 +9807,13 @@
     <xdr:ext cx="3312747" cy="3689570"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Picture 37"/>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9581,7 +9846,13 @@
     <xdr:ext cx="1985484" cy="1615983"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Picture 38"/>
+        <xdr:cNvPr id="39" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9624,7 +9895,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Cross 2"/>
+        <xdr:cNvPr id="3" name="Cross 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9680,7 +9957,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Cross 3"/>
+        <xdr:cNvPr id="4" name="Cross 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9736,7 +10019,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Cross 4"/>
+        <xdr:cNvPr id="5" name="Cross 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9792,7 +10081,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Cross 5"/>
+        <xdr:cNvPr id="6" name="Cross 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9848,7 +10143,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Cross 6"/>
+        <xdr:cNvPr id="7" name="Cross 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9904,7 +10205,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Cross 7"/>
+        <xdr:cNvPr id="8" name="Cross 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9965,7 +10272,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Curved Down Arrow 1"/>
+        <xdr:cNvPr id="2" name="Curved Down Arrow 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10023,7 +10336,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Minus 2"/>
+        <xdr:cNvPr id="3" name="Minus 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10077,7 +10396,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Equal 3"/>
+        <xdr:cNvPr id="4" name="Equal 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10140,7 +10465,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10178,7 +10509,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10499,7 +10836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -10607,7 +10944,7 @@
       <c r="K3" s="16">
         <v>38.229999999999997</v>
       </c>
-      <c r="N3" s="112">
+      <c r="N3" s="97">
         <v>0</v>
       </c>
       <c r="O3" s="33">
@@ -10658,7 +10995,7 @@
       <c r="K4" s="16">
         <v>34.029998999999997</v>
       </c>
-      <c r="N4" s="112">
+      <c r="N4" s="97">
         <v>0</v>
       </c>
       <c r="O4" s="33">
@@ -10709,7 +11046,7 @@
       <c r="K5" s="16">
         <v>31</v>
       </c>
-      <c r="N5" s="112">
+      <c r="N5" s="97">
         <v>0</v>
       </c>
       <c r="O5" s="33">
@@ -10760,7 +11097,7 @@
       <c r="K6" s="16">
         <v>32</v>
       </c>
-      <c r="N6" s="112">
+      <c r="N6" s="97">
         <v>0</v>
       </c>
       <c r="O6" s="33">
@@ -10811,7 +11148,7 @@
       <c r="K7" s="16">
         <v>33.029998999999997</v>
       </c>
-      <c r="N7" s="112">
+      <c r="N7" s="97">
         <v>0</v>
       </c>
       <c r="O7" s="33">
@@ -10863,7 +11200,7 @@
         <v>31.91</v>
       </c>
       <c r="L8" s="88"/>
-      <c r="N8" s="112">
+      <c r="N8" s="97">
         <v>0</v>
       </c>
       <c r="O8" s="33">
@@ -10915,7 +11252,7 @@
         <v>28.84</v>
       </c>
       <c r="L9" s="88"/>
-      <c r="N9" s="112">
+      <c r="N9" s="97">
         <v>0</v>
       </c>
       <c r="O9" s="33">
@@ -11018,22 +11355,22 @@
       <c r="L12" s="88"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="111">
+      <c r="B13" s="96">
         <f>MIN(B3:B12)</f>
         <v>28.549999</v>
       </c>
-      <c r="C13" s="111">
+      <c r="C13" s="96">
         <f t="shared" ref="C13:E13" si="0">MIN(C3:C12)</f>
         <v>29.15</v>
       </c>
-      <c r="D13" s="111">
+      <c r="D13" s="96">
         <f t="shared" si="0"/>
         <v>26.83</v>
       </c>
-      <c r="E13" s="111">
+      <c r="E13" s="96">
         <f t="shared" si="0"/>
         <v>27.719999000000001</v>
       </c>
@@ -11055,22 +11392,22 @@
       <c r="L13" s="88"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="111">
+      <c r="B14" s="96">
         <f>MAX(B3:B12)</f>
         <v>42.049999</v>
       </c>
-      <c r="C14" s="111">
+      <c r="C14" s="96">
         <f t="shared" ref="C14:E14" si="1">MAX(C3:C12)</f>
         <v>45</v>
       </c>
-      <c r="D14" s="111">
+      <c r="D14" s="96">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="E14" s="111">
+      <c r="E14" s="96">
         <f t="shared" si="1"/>
         <v>38.229999999999997</v>
       </c>
@@ -11327,7 +11664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="E3" workbookViewId="0">
@@ -11342,7 +11679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11517,10 +11854,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
@@ -11805,11 +12142,11 @@
       <c r="AG9" s="32"/>
     </row>
     <row r="10" spans="1:33">
-      <c r="A10" s="119">
+      <c r="A10" s="104">
         <f>'Data split dan Normalisasi'!G3</f>
         <v>41047</v>
       </c>
-      <c r="B10" s="118">
+      <c r="B10" s="103">
         <f>'Data split dan Normalisasi'!H3</f>
         <v>42.049999</v>
       </c>
@@ -11878,7 +12215,7 @@
       <c r="AG10" s="32"/>
     </row>
     <row r="11" spans="1:33">
-      <c r="A11" s="119">
+      <c r="A11" s="104">
         <f>'Data split dan Normalisasi'!G4</f>
         <v>41050</v>
       </c>
@@ -11951,7 +12288,7 @@
       <c r="AG11" s="32"/>
     </row>
     <row r="12" spans="1:33">
-      <c r="A12" s="119">
+      <c r="A12" s="104">
         <f>'Data split dan Normalisasi'!G5</f>
         <v>41051</v>
       </c>
@@ -12024,7 +12361,7 @@
       <c r="AG12" s="32"/>
     </row>
     <row r="13" spans="1:33">
-      <c r="A13" s="119">
+      <c r="A13" s="104">
         <f>'Data split dan Normalisasi'!G6</f>
         <v>41052</v>
       </c>
@@ -12097,7 +12434,7 @@
       <c r="AG13" s="32"/>
     </row>
     <row r="14" spans="1:33">
-      <c r="A14" s="119">
+      <c r="A14" s="104">
         <f>'Data split dan Normalisasi'!G7</f>
         <v>41053</v>
       </c>
@@ -12170,7 +12507,7 @@
       <c r="AG14" s="32"/>
     </row>
     <row r="15" spans="1:33">
-      <c r="A15" s="119">
+      <c r="A15" s="104">
         <f>'Data split dan Normalisasi'!G8</f>
         <v>41054</v>
       </c>
@@ -12243,7 +12580,7 @@
       <c r="AG15" s="32"/>
     </row>
     <row r="16" spans="1:33">
-      <c r="A16" s="119">
+      <c r="A16" s="104">
         <f>'Data split dan Normalisasi'!G9</f>
         <v>41058</v>
       </c>
@@ -12317,10 +12654,10 @@
     </row>
     <row r="17" spans="1:33">
       <c r="A17" s="40"/>
-      <c r="B17" s="117"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
       <c r="M17" s="32">
         <v>0.10084364551318201</v>
       </c>
@@ -12355,10 +12692,10 @@
     </row>
     <row r="18" spans="1:33">
       <c r="A18" s="40"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
       <c r="M18" s="32">
         <v>-0.74387335851811298</v>
       </c>
@@ -12392,13 +12729,13 @@
       <c r="AG18" s="32"/>
     </row>
     <row r="19" spans="1:33">
-      <c r="A19" s="113"/>
-      <c r="B19" s="114"/>
-      <c r="C19" s="114"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
+      <c r="A19" s="98"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
       <c r="F19" s="47"/>
-      <c r="G19" s="115"/>
+      <c r="G19" s="100"/>
       <c r="H19" s="47"/>
       <c r="I19" s="47"/>
       <c r="J19" s="47"/>
@@ -12436,13 +12773,13 @@
       <c r="AG19" s="32"/>
     </row>
     <row r="20" spans="1:33">
-      <c r="A20" s="113"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="114"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="114"/>
+      <c r="A20" s="98"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
       <c r="F20" s="47"/>
-      <c r="G20" s="115"/>
+      <c r="G20" s="100"/>
       <c r="H20" s="47"/>
       <c r="I20" s="47"/>
       <c r="J20" s="47"/>
@@ -12480,13 +12817,13 @@
       <c r="AG20" s="32"/>
     </row>
     <row r="21" spans="1:33">
-      <c r="A21" s="113"/>
-      <c r="B21" s="114"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="114"/>
+      <c r="A21" s="98"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
       <c r="F21" s="47"/>
-      <c r="G21" s="115"/>
+      <c r="G21" s="100"/>
       <c r="H21" s="47"/>
       <c r="I21" s="47"/>
       <c r="J21" s="47"/>
@@ -12494,13 +12831,13 @@
       <c r="AG21" s="32"/>
     </row>
     <row r="22" spans="1:33">
-      <c r="A22" s="113"/>
-      <c r="B22" s="114"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="114"/>
+      <c r="A22" s="98"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
       <c r="F22" s="47"/>
-      <c r="G22" s="115"/>
+      <c r="G22" s="100"/>
       <c r="H22" s="47"/>
       <c r="I22" s="47"/>
       <c r="J22" s="47"/>
@@ -12508,13 +12845,13 @@
       <c r="AG22" s="32"/>
     </row>
     <row r="23" spans="1:33">
-      <c r="A23" s="113"/>
-      <c r="B23" s="114"/>
-      <c r="C23" s="114"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
+      <c r="A23" s="98"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
       <c r="F23" s="47"/>
-      <c r="G23" s="115"/>
+      <c r="G23" s="100"/>
       <c r="H23" s="47"/>
       <c r="I23" s="47"/>
       <c r="J23" s="47"/>
@@ -12523,10 +12860,10 @@
     </row>
     <row r="24" spans="1:33">
       <c r="A24" s="47"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
       <c r="F24" s="47"/>
       <c r="G24" s="47"/>
       <c r="H24" s="47"/>
@@ -12537,10 +12874,10 @@
     </row>
     <row r="25" spans="1:33" ht="15.75" thickBot="1">
       <c r="A25" s="47"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="116"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="116"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
       <c r="F25" s="47"/>
       <c r="G25" s="47"/>
       <c r="H25" s="47"/>
@@ -12549,16 +12886,16 @@
       <c r="K25" s="47"/>
     </row>
     <row r="26" spans="1:33">
-      <c r="M26" s="95" t="s">
+      <c r="M26" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="N26" s="95"/>
-      <c r="O26" s="95"/>
-      <c r="P26" s="95"/>
-      <c r="Q26" s="95"/>
-      <c r="R26" s="95"/>
-      <c r="S26" s="95"/>
-      <c r="T26" s="95"/>
+      <c r="N26" s="105"/>
+      <c r="O26" s="105"/>
+      <c r="P26" s="105"/>
+      <c r="Q26" s="105"/>
+      <c r="R26" s="105"/>
+      <c r="S26" s="105"/>
+      <c r="T26" s="105"/>
       <c r="W26" s="84"/>
       <c r="X26" s="76" t="s">
         <v>34</v>
@@ -12570,7 +12907,7 @@
       <c r="AC26" s="77"/>
     </row>
     <row r="27" spans="1:33" ht="15" customHeight="1">
-      <c r="W27" s="96" t="s">
+      <c r="W27" s="106" t="s">
         <v>144</v>
       </c>
       <c r="X27" s="89">
@@ -12600,7 +12937,7 @@
       <c r="AE27" s="32"/>
     </row>
     <row r="28" spans="1:33" ht="15.75" thickBot="1">
-      <c r="W28" s="96"/>
+      <c r="W28" s="106"/>
       <c r="X28" s="90">
         <v>1.1013855232485499</v>
       </c>
@@ -12635,7 +12972,7 @@
       <c r="H29" s="76"/>
       <c r="I29" s="76"/>
       <c r="J29" s="77"/>
-      <c r="W29" s="96"/>
+      <c r="W29" s="106"/>
       <c r="X29" s="90">
         <v>4.0644799557446987E-2</v>
       </c>
@@ -12713,7 +13050,7 @@
         <f t="array" ref="S30:S39">TRANSPOSE(A36:K36)</f>
         <v>1</v>
       </c>
-      <c r="W30" s="96"/>
+      <c r="W30" s="106"/>
       <c r="X30" s="90">
         <v>1.2565671330488828</v>
       </c>
@@ -12790,7 +13127,7 @@
       <c r="S31" s="80">
         <v>0</v>
       </c>
-      <c r="W31" s="96" t="s">
+      <c r="W31" s="106" t="s">
         <v>27</v>
       </c>
       <c r="X31" s="91">
@@ -12873,7 +13210,7 @@
       <c r="S32" s="80">
         <v>0.10344834966583473</v>
       </c>
-      <c r="W32" s="96"/>
+      <c r="W32" s="106"/>
       <c r="X32" s="91">
         <v>0.44052245167630055</v>
       </c>
@@ -12954,7 +13291,7 @@
       <c r="S33" s="80">
         <v>8.4444466666666704E-2</v>
       </c>
-      <c r="W33" s="96"/>
+      <c r="W33" s="106"/>
       <c r="X33" s="91">
         <v>-0.55921292430839542</v>
       </c>
@@ -13035,7 +13372,7 @@
       <c r="S34" s="80">
         <v>0.11263160526315795</v>
       </c>
-      <c r="W34" s="96"/>
+      <c r="W34" s="106"/>
       <c r="X34" s="91">
         <v>-1.1080831491884311</v>
       </c>
@@ -13116,7 +13453,7 @@
       <c r="S35" s="80">
         <v>0.10959981689772427</v>
       </c>
-      <c r="W35" s="96" t="s">
+      <c r="W35" s="106" t="s">
         <v>28</v>
       </c>
       <c r="X35" s="92">
@@ -13199,7 +13536,7 @@
       <c r="S36" s="80">
         <v>-0.11387018519281396</v>
       </c>
-      <c r="W36" s="96"/>
+      <c r="W36" s="106"/>
       <c r="X36" s="92">
         <v>-0.67371659652937421</v>
       </c>
@@ -13280,7 +13617,7 @@
       <c r="S37" s="80">
         <v>0.16080604532546292</v>
       </c>
-      <c r="W37" s="96"/>
+      <c r="W37" s="106"/>
       <c r="X37" s="92">
         <v>-0.43505866882907795</v>
       </c>
@@ -13320,7 +13657,7 @@
       <c r="S38" s="80">
         <v>2.9660400957576188E-2</v>
       </c>
-      <c r="W38" s="96"/>
+      <c r="W38" s="106"/>
       <c r="X38" s="92">
         <v>7.182869421559368E-2</v>
       </c>
@@ -13360,7 +13697,7 @@
       <c r="S39" s="87">
         <v>0.21390659142759133</v>
       </c>
-      <c r="W39" s="96" t="s">
+      <c r="W39" s="106" t="s">
         <v>29</v>
       </c>
       <c r="X39" s="93">
@@ -13404,7 +13741,7 @@
       <c r="S40" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="W40" s="96"/>
+      <c r="W40" s="106"/>
       <c r="X40" s="93">
         <v>-1.1663392356213738</v>
       </c>
@@ -13425,7 +13762,7 @@
       </c>
     </row>
     <row r="41" spans="1:29">
-      <c r="W41" s="96"/>
+      <c r="W41" s="106"/>
       <c r="X41" s="93">
         <v>-0.50283796746758314</v>
       </c>
@@ -13446,7 +13783,7 @@
       </c>
     </row>
     <row r="42" spans="1:29" ht="15" customHeight="1" thickBot="1">
-      <c r="W42" s="97"/>
+      <c r="W42" s="107"/>
       <c r="X42" s="94">
         <v>0.39880910034284534</v>
       </c>
@@ -13522,7 +13859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A4:CX89"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -13728,7 +14065,7 @@
       <c r="BY27" s="41"/>
     </row>
     <row r="28" spans="1:77">
-      <c r="A28" s="98" t="str">
+      <c r="A28" s="112" t="str">
         <f>iNPUT!$W27</f>
         <v>C</v>
       </c>
@@ -13757,7 +14094,7 @@
       <c r="J28" s="18"/>
       <c r="K28" s="17"/>
       <c r="L28" s="13"/>
-      <c r="N28" s="98" t="str">
+      <c r="N28" s="112" t="str">
         <f>iNPUT!$W27</f>
         <v>C</v>
       </c>
@@ -13786,7 +14123,7 @@
       <c r="W28" s="18"/>
       <c r="X28" s="40"/>
       <c r="Y28" s="41"/>
-      <c r="AA28" s="98" t="str">
+      <c r="AA28" s="112" t="str">
         <f>iNPUT!$W27</f>
         <v>C</v>
       </c>
@@ -13815,7 +14152,7 @@
       <c r="AJ28" s="18"/>
       <c r="AK28" s="40"/>
       <c r="AL28" s="41"/>
-      <c r="AN28" s="98" t="str">
+      <c r="AN28" s="112" t="str">
         <f>iNPUT!$W27</f>
         <v>C</v>
       </c>
@@ -13844,7 +14181,7 @@
       <c r="AW28" s="18"/>
       <c r="AX28" s="40"/>
       <c r="AY28" s="41"/>
-      <c r="BA28" s="98" t="str">
+      <c r="BA28" s="112" t="str">
         <f>iNPUT!$W27</f>
         <v>C</v>
       </c>
@@ -13873,7 +14210,7 @@
       <c r="BJ28" s="18"/>
       <c r="BK28" s="40"/>
       <c r="BL28" s="41"/>
-      <c r="BN28" s="98" t="str">
+      <c r="BN28" s="112" t="str">
         <f>iNPUT!$W27</f>
         <v>C</v>
       </c>
@@ -13904,7 +14241,7 @@
       <c r="BY28" s="41"/>
     </row>
     <row r="29" spans="1:77">
-      <c r="A29" s="98"/>
+      <c r="A29" s="112"/>
       <c r="B29" s="17">
         <f>iNPUT!X28</f>
         <v>1.1013855232485499</v>
@@ -13928,7 +14265,7 @@
       <c r="J29" s="18"/>
       <c r="K29" s="17"/>
       <c r="L29" s="13"/>
-      <c r="N29" s="98"/>
+      <c r="N29" s="112"/>
       <c r="O29" s="40">
         <f>iNPUT!Y28</f>
         <v>1.0021741004692162</v>
@@ -13952,7 +14289,7 @@
       <c r="W29" s="18"/>
       <c r="X29" s="40"/>
       <c r="Y29" s="41"/>
-      <c r="AA29" s="98"/>
+      <c r="AA29" s="112"/>
       <c r="AB29" s="40">
         <f>iNPUT!Z28</f>
         <v>0.98191768914400268</v>
@@ -13976,7 +14313,7 @@
       <c r="AJ29" s="18"/>
       <c r="AK29" s="40"/>
       <c r="AL29" s="41"/>
-      <c r="AN29" s="98"/>
+      <c r="AN29" s="112"/>
       <c r="AO29" s="40">
         <f>iNPUT!AA28</f>
         <v>1.022273297832756</v>
@@ -14000,7 +14337,7 @@
       <c r="AW29" s="18"/>
       <c r="AX29" s="40"/>
       <c r="AY29" s="41"/>
-      <c r="BA29" s="98"/>
+      <c r="BA29" s="112"/>
       <c r="BB29" s="40">
         <f>iNPUT!AB28</f>
         <v>1.05191754131068</v>
@@ -14024,7 +14361,7 @@
       <c r="BJ29" s="18"/>
       <c r="BK29" s="40"/>
       <c r="BL29" s="41"/>
-      <c r="BN29" s="98"/>
+      <c r="BN29" s="112"/>
       <c r="BO29" s="40">
         <f>iNPUT!AC28</f>
         <v>1.0376261218664282</v>
@@ -14050,7 +14387,7 @@
       <c r="BY29" s="41"/>
     </row>
     <row r="30" spans="1:77">
-      <c r="A30" s="98"/>
+      <c r="A30" s="112"/>
       <c r="B30" s="17">
         <f>iNPUT!X29</f>
         <v>4.0644799557446987E-2</v>
@@ -14074,7 +14411,7 @@
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
       <c r="L30" s="13"/>
-      <c r="N30" s="98"/>
+      <c r="N30" s="112"/>
       <c r="O30" s="40">
         <f>iNPUT!Y29</f>
         <v>9.7049278148202467E-2</v>
@@ -14098,7 +14435,7 @@
       <c r="W30" s="40"/>
       <c r="X30" s="40"/>
       <c r="Y30" s="41"/>
-      <c r="AA30" s="98"/>
+      <c r="AA30" s="112"/>
       <c r="AB30" s="40">
         <f>iNPUT!Z29</f>
         <v>0.10705427995695281</v>
@@ -14122,7 +14459,7 @@
       <c r="AJ30" s="40"/>
       <c r="AK30" s="40"/>
       <c r="AL30" s="41"/>
-      <c r="AN30" s="98"/>
+      <c r="AN30" s="112"/>
       <c r="AO30" s="40">
         <f>iNPUT!AA29</f>
         <v>0.15181631458424055</v>
@@ -14146,7 +14483,7 @@
       <c r="AW30" s="40"/>
       <c r="AX30" s="40"/>
       <c r="AY30" s="41"/>
-      <c r="BA30" s="98"/>
+      <c r="BA30" s="112"/>
       <c r="BB30" s="40">
         <f>iNPUT!AB29</f>
         <v>0.18813543421736822</v>
@@ -14170,7 +14507,7 @@
       <c r="BJ30" s="40"/>
       <c r="BK30" s="40"/>
       <c r="BL30" s="41"/>
-      <c r="BN30" s="98"/>
+      <c r="BN30" s="112"/>
       <c r="BO30" s="40">
         <f>iNPUT!AC29</f>
         <v>0.17159726904537331</v>
@@ -14196,7 +14533,7 @@
       <c r="BY30" s="41"/>
     </row>
     <row r="31" spans="1:77">
-      <c r="A31" s="98"/>
+      <c r="A31" s="112"/>
       <c r="B31" s="17">
         <f>iNPUT!X30</f>
         <v>1.2565671330488828</v>
@@ -14220,7 +14557,7 @@
       <c r="J31" s="17"/>
       <c r="K31" s="17"/>
       <c r="L31" s="13"/>
-      <c r="N31" s="98"/>
+      <c r="N31" s="112"/>
       <c r="O31" s="40">
         <f>iNPUT!Y30</f>
         <v>0.99238145307944292</v>
@@ -14244,7 +14581,7 @@
       <c r="W31" s="40"/>
       <c r="X31" s="40"/>
       <c r="Y31" s="41"/>
-      <c r="AA31" s="98"/>
+      <c r="AA31" s="112"/>
       <c r="AB31" s="40">
         <f>iNPUT!Z30</f>
         <v>0.79382748154782623</v>
@@ -14268,7 +14605,7 @@
       <c r="AJ31" s="40"/>
       <c r="AK31" s="40"/>
       <c r="AL31" s="41"/>
-      <c r="AN31" s="98"/>
+      <c r="AN31" s="112"/>
       <c r="AO31" s="40">
         <f>iNPUT!AA30</f>
         <v>0.76385260317053183</v>
@@ -14292,7 +14629,7 @@
       <c r="AW31" s="40"/>
       <c r="AX31" s="40"/>
       <c r="AY31" s="41"/>
-      <c r="BA31" s="98"/>
+      <c r="BA31" s="112"/>
       <c r="BB31" s="40">
         <f>iNPUT!AB30</f>
         <v>0.78604788018501004</v>
@@ -14316,7 +14653,7 @@
       <c r="BJ31" s="40"/>
       <c r="BK31" s="40"/>
       <c r="BL31" s="41"/>
-      <c r="BN31" s="98"/>
+      <c r="BN31" s="112"/>
       <c r="BO31" s="40">
         <f>iNPUT!AC30</f>
         <v>0.74863415419982982</v>
@@ -14342,7 +14679,7 @@
       <c r="BY31" s="41"/>
     </row>
     <row r="32" spans="1:77">
-      <c r="A32" s="98" t="str">
+      <c r="A32" s="112" t="str">
         <f>iNPUT!$W31</f>
         <v>i</v>
       </c>
@@ -14364,7 +14701,7 @@
       <c r="J32" s="17"/>
       <c r="K32" s="17"/>
       <c r="L32" s="13"/>
-      <c r="N32" s="98" t="str">
+      <c r="N32" s="112" t="str">
         <f>iNPUT!$W31</f>
         <v>i</v>
       </c>
@@ -14386,7 +14723,7 @@
       <c r="W32" s="40"/>
       <c r="X32" s="40"/>
       <c r="Y32" s="41"/>
-      <c r="AA32" s="98" t="str">
+      <c r="AA32" s="112" t="str">
         <f>iNPUT!$W31</f>
         <v>i</v>
       </c>
@@ -14408,7 +14745,7 @@
       <c r="AJ32" s="40"/>
       <c r="AK32" s="40"/>
       <c r="AL32" s="41"/>
-      <c r="AN32" s="98" t="str">
+      <c r="AN32" s="112" t="str">
         <f>iNPUT!$W31</f>
         <v>i</v>
       </c>
@@ -14430,7 +14767,7 @@
       <c r="AW32" s="40"/>
       <c r="AX32" s="40"/>
       <c r="AY32" s="41"/>
-      <c r="BA32" s="98" t="str">
+      <c r="BA32" s="112" t="str">
         <f>iNPUT!$W31</f>
         <v>i</v>
       </c>
@@ -14452,7 +14789,7 @@
       <c r="BJ32" s="40"/>
       <c r="BK32" s="40"/>
       <c r="BL32" s="41"/>
-      <c r="BN32" s="98" t="str">
+      <c r="BN32" s="112" t="str">
         <f>iNPUT!$W31</f>
         <v>i</v>
       </c>
@@ -14476,7 +14813,7 @@
       <c r="BY32" s="41"/>
     </row>
     <row r="33" spans="1:77">
-      <c r="A33" s="98"/>
+      <c r="A33" s="112"/>
       <c r="B33" s="17">
         <f>iNPUT!X32</f>
         <v>0.44052245167630055</v>
@@ -14493,7 +14830,7 @@
       <c r="J33" s="17"/>
       <c r="K33" s="17"/>
       <c r="L33" s="13"/>
-      <c r="N33" s="98"/>
+      <c r="N33" s="112"/>
       <c r="O33" s="40">
         <f>iNPUT!Y32</f>
         <v>0.48589617127015244</v>
@@ -14510,7 +14847,7 @@
       <c r="W33" s="40"/>
       <c r="X33" s="40"/>
       <c r="Y33" s="41"/>
-      <c r="AA33" s="98"/>
+      <c r="AA33" s="112"/>
       <c r="AB33" s="40">
         <f>iNPUT!Z32</f>
         <v>0.50959079887582692</v>
@@ -14527,7 +14864,7 @@
       <c r="AJ33" s="40"/>
       <c r="AK33" s="40"/>
       <c r="AL33" s="41"/>
-      <c r="AN33" s="98"/>
+      <c r="AN33" s="112"/>
       <c r="AO33" s="40">
         <f>iNPUT!AA32</f>
         <v>0.52056240064491432</v>
@@ -14544,7 +14881,7 @@
       <c r="AW33" s="40"/>
       <c r="AX33" s="40"/>
       <c r="AY33" s="41"/>
-      <c r="BA33" s="98"/>
+      <c r="BA33" s="112"/>
       <c r="BB33" s="40">
         <f>iNPUT!AB32</f>
         <v>0.55629045996093429</v>
@@ -14561,7 +14898,7 @@
       <c r="BJ33" s="40"/>
       <c r="BK33" s="40"/>
       <c r="BL33" s="41"/>
-      <c r="BN33" s="98"/>
+      <c r="BN33" s="112"/>
       <c r="BO33" s="40">
         <f>iNPUT!AC32</f>
         <v>0.58916430002571485</v>
@@ -14580,7 +14917,7 @@
       <c r="BY33" s="41"/>
     </row>
     <row r="34" spans="1:77">
-      <c r="A34" s="98"/>
+      <c r="A34" s="112"/>
       <c r="B34" s="17">
         <f>iNPUT!X33</f>
         <v>-0.55921292430839542</v>
@@ -14607,7 +14944,7 @@
       <c r="J34" s="17"/>
       <c r="K34" s="17"/>
       <c r="L34" s="13"/>
-      <c r="N34" s="98"/>
+      <c r="N34" s="112"/>
       <c r="O34" s="40">
         <f>iNPUT!Y33</f>
         <v>-0.68873749954530628</v>
@@ -14634,7 +14971,7 @@
       <c r="W34" s="40"/>
       <c r="X34" s="40"/>
       <c r="Y34" s="41"/>
-      <c r="AA34" s="98"/>
+      <c r="AA34" s="112"/>
       <c r="AB34" s="40">
         <f>iNPUT!Z33</f>
         <v>-0.74707198238064243</v>
@@ -14661,7 +14998,7 @@
       <c r="AJ34" s="40"/>
       <c r="AK34" s="40"/>
       <c r="AL34" s="41"/>
-      <c r="AN34" s="98"/>
+      <c r="AN34" s="112"/>
       <c r="AO34" s="40">
         <f>iNPUT!AA33</f>
         <v>-0.7617106457069821</v>
@@ -14688,7 +15025,7 @@
       <c r="AW34" s="40"/>
       <c r="AX34" s="40"/>
       <c r="AY34" s="41"/>
-      <c r="BA34" s="98"/>
+      <c r="BA34" s="112"/>
       <c r="BB34" s="40">
         <f>iNPUT!AB33</f>
         <v>-0.73022128650571505</v>
@@ -14715,7 +15052,7 @@
       <c r="BJ34" s="40"/>
       <c r="BK34" s="40"/>
       <c r="BL34" s="41"/>
-      <c r="BN34" s="98"/>
+      <c r="BN34" s="112"/>
       <c r="BO34" s="40">
         <f>iNPUT!AC33</f>
         <v>-0.72918696237881975</v>
@@ -14744,7 +15081,7 @@
       <c r="BY34" s="41"/>
     </row>
     <row r="35" spans="1:77">
-      <c r="A35" s="98"/>
+      <c r="A35" s="112"/>
       <c r="B35" s="17">
         <f>iNPUT!X34</f>
         <v>-1.1080831491884311</v>
@@ -14773,7 +15110,7 @@
       <c r="J35" s="17"/>
       <c r="K35" s="17"/>
       <c r="L35" s="13"/>
-      <c r="N35" s="98"/>
+      <c r="N35" s="112"/>
       <c r="O35" s="40">
         <f>iNPUT!Y34</f>
         <v>-0.90398892123836094</v>
@@ -14802,7 +15139,7 @@
       <c r="W35" s="40"/>
       <c r="X35" s="40"/>
       <c r="Y35" s="41"/>
-      <c r="AA35" s="98"/>
+      <c r="AA35" s="112"/>
       <c r="AB35" s="40">
         <f>iNPUT!Z34</f>
         <v>-0.78999989450121089</v>
@@ -14831,7 +15168,7 @@
       <c r="AJ35" s="40"/>
       <c r="AK35" s="40"/>
       <c r="AL35" s="41"/>
-      <c r="AN35" s="98"/>
+      <c r="AN35" s="112"/>
       <c r="AO35" s="40">
         <f>iNPUT!AA34</f>
         <v>-0.73994364197659579</v>
@@ -14860,7 +15197,7 @@
       <c r="AW35" s="40"/>
       <c r="AX35" s="40"/>
       <c r="AY35" s="41"/>
-      <c r="BA35" s="98"/>
+      <c r="BA35" s="112"/>
       <c r="BB35" s="40">
         <f>iNPUT!AB34</f>
         <v>-0.74288617455081363</v>
@@ -14889,7 +15226,7 @@
       <c r="BJ35" s="40"/>
       <c r="BK35" s="40"/>
       <c r="BL35" s="41"/>
-      <c r="BN35" s="98"/>
+      <c r="BN35" s="112"/>
       <c r="BO35" s="40">
         <f>iNPUT!AC34</f>
         <v>-0.72226837358776963</v>
@@ -14920,7 +15257,7 @@
       <c r="BY35" s="41"/>
     </row>
     <row r="36" spans="1:77">
-      <c r="A36" s="98" t="str">
+      <c r="A36" s="112" t="str">
         <f>iNPUT!$W35</f>
         <v>f</v>
       </c>
@@ -14938,7 +15275,7 @@
       <c r="J36" s="17"/>
       <c r="K36" s="17"/>
       <c r="L36" s="13"/>
-      <c r="N36" s="98" t="str">
+      <c r="N36" s="112" t="str">
         <f>iNPUT!$W35</f>
         <v>f</v>
       </c>
@@ -14956,7 +15293,7 @@
       <c r="W36" s="40"/>
       <c r="X36" s="40"/>
       <c r="Y36" s="41"/>
-      <c r="AA36" s="98" t="str">
+      <c r="AA36" s="112" t="str">
         <f>iNPUT!$W35</f>
         <v>f</v>
       </c>
@@ -14974,7 +15311,7 @@
       <c r="AJ36" s="40"/>
       <c r="AK36" s="40"/>
       <c r="AL36" s="41"/>
-      <c r="AN36" s="98" t="str">
+      <c r="AN36" s="112" t="str">
         <f>iNPUT!$W35</f>
         <v>f</v>
       </c>
@@ -14992,7 +15329,7 @@
       <c r="AW36" s="40"/>
       <c r="AX36" s="40"/>
       <c r="AY36" s="41"/>
-      <c r="BA36" s="98" t="str">
+      <c r="BA36" s="112" t="str">
         <f>iNPUT!$W35</f>
         <v>f</v>
       </c>
@@ -15010,7 +15347,7 @@
       <c r="BJ36" s="40"/>
       <c r="BK36" s="40"/>
       <c r="BL36" s="41"/>
-      <c r="BN36" s="98" t="str">
+      <c r="BN36" s="112" t="str">
         <f>iNPUT!$W35</f>
         <v>f</v>
       </c>
@@ -15030,7 +15367,7 @@
       <c r="BY36" s="41"/>
     </row>
     <row r="37" spans="1:77">
-      <c r="A37" s="98"/>
+      <c r="A37" s="112"/>
       <c r="B37" s="17">
         <f>iNPUT!X36</f>
         <v>-0.67371659652937421</v>
@@ -15047,7 +15384,7 @@
       <c r="J37" s="17"/>
       <c r="K37" s="17"/>
       <c r="L37" s="13"/>
-      <c r="N37" s="98"/>
+      <c r="N37" s="112"/>
       <c r="O37" s="40">
         <f>iNPUT!Y36</f>
         <v>-0.56552448711475367</v>
@@ -15064,7 +15401,7 @@
       <c r="W37" s="40"/>
       <c r="X37" s="40"/>
       <c r="Y37" s="41"/>
-      <c r="AA37" s="98"/>
+      <c r="AA37" s="112"/>
       <c r="AB37" s="40">
         <f>iNPUT!Z36</f>
         <v>-0.50611286301863179</v>
@@ -15081,7 +15418,7 @@
       <c r="AJ37" s="40"/>
       <c r="AK37" s="40"/>
       <c r="AL37" s="41"/>
-      <c r="AN37" s="98"/>
+      <c r="AN37" s="112"/>
       <c r="AO37" s="40">
         <f>iNPUT!AA36</f>
         <v>-0.48947427477664363</v>
@@ -15098,7 +15435,7 @@
       <c r="AW37" s="40"/>
       <c r="AX37" s="40"/>
       <c r="AY37" s="41"/>
-      <c r="BA37" s="98"/>
+      <c r="BA37" s="112"/>
       <c r="BB37" s="40">
         <f>iNPUT!AB36</f>
         <v>-0.49674376212038945</v>
@@ -15115,7 +15452,7 @@
       <c r="BJ37" s="40"/>
       <c r="BK37" s="40"/>
       <c r="BL37" s="41"/>
-      <c r="BN37" s="98"/>
+      <c r="BN37" s="112"/>
       <c r="BO37" s="40">
         <f>iNPUT!AC36</f>
         <v>-0.48280647576136076</v>
@@ -15134,7 +15471,7 @@
       <c r="BY37" s="41"/>
     </row>
     <row r="38" spans="1:77">
-      <c r="A38" s="98"/>
+      <c r="A38" s="112"/>
       <c r="B38" s="17">
         <f>iNPUT!X37</f>
         <v>-0.43505866882907795</v>
@@ -15151,7 +15488,7 @@
       <c r="J38" s="17"/>
       <c r="K38" s="17"/>
       <c r="L38" s="13"/>
-      <c r="N38" s="98"/>
+      <c r="N38" s="112"/>
       <c r="O38" s="40">
         <f>iNPUT!Y37</f>
         <v>-0.33748801418901325</v>
@@ -15168,7 +15505,7 @@
       <c r="W38" s="40"/>
       <c r="X38" s="40"/>
       <c r="Y38" s="41"/>
-      <c r="AA38" s="98"/>
+      <c r="AA38" s="112"/>
       <c r="AB38" s="40">
         <f>iNPUT!Z37</f>
         <v>-0.31686732862040362</v>
@@ -15185,7 +15522,7 @@
       <c r="AJ38" s="40"/>
       <c r="AK38" s="40"/>
       <c r="AL38" s="41"/>
-      <c r="AN38" s="98"/>
+      <c r="AN38" s="112"/>
       <c r="AO38" s="40">
         <f>iNPUT!AA37</f>
         <v>-0.35968907798149036</v>
@@ -15202,7 +15539,7 @@
       <c r="AW38" s="40"/>
       <c r="AX38" s="40"/>
       <c r="AY38" s="41"/>
-      <c r="BA38" s="98"/>
+      <c r="BA38" s="112"/>
       <c r="BB38" s="40">
         <f>iNPUT!AB37</f>
         <v>-0.40387501543544635</v>
@@ -15219,7 +15556,7 @@
       <c r="BJ38" s="40"/>
       <c r="BK38" s="40"/>
       <c r="BL38" s="41"/>
-      <c r="BN38" s="98"/>
+      <c r="BN38" s="112"/>
       <c r="BO38" s="40">
         <f>iNPUT!AC37</f>
         <v>-0.3914749310811112</v>
@@ -15238,7 +15575,7 @@
       <c r="BY38" s="41"/>
     </row>
     <row r="39" spans="1:77">
-      <c r="A39" s="98"/>
+      <c r="A39" s="112"/>
       <c r="B39" s="17">
         <f>iNPUT!X38</f>
         <v>7.182869421559368E-2</v>
@@ -15265,7 +15602,7 @@
       <c r="J39" s="17"/>
       <c r="K39" s="17"/>
       <c r="L39" s="13"/>
-      <c r="N39" s="98"/>
+      <c r="N39" s="112"/>
       <c r="O39" s="40">
         <f>iNPUT!Y38</f>
         <v>-0.18186326708037942</v>
@@ -15292,7 +15629,7 @@
       <c r="W39" s="40"/>
       <c r="X39" s="40"/>
       <c r="Y39" s="41"/>
-      <c r="AA39" s="98"/>
+      <c r="AA39" s="112"/>
       <c r="AB39" s="40">
         <f>iNPUT!Z38</f>
         <v>-0.32572352515003716</v>
@@ -15319,7 +15656,7 @@
       <c r="AJ39" s="40"/>
       <c r="AK39" s="40"/>
       <c r="AL39" s="41"/>
-      <c r="AN39" s="98"/>
+      <c r="AN39" s="112"/>
       <c r="AO39" s="40">
         <f>iNPUT!AA38</f>
         <v>-0.32571708079094031</v>
@@ -15346,7 +15683,7 @@
       <c r="AW39" s="40"/>
       <c r="AX39" s="40"/>
       <c r="AY39" s="41"/>
-      <c r="BA39" s="98"/>
+      <c r="BA39" s="112"/>
       <c r="BB39" s="40">
         <f>iNPUT!AB38</f>
         <v>-0.30679490541420562</v>
@@ -15373,7 +15710,7 @@
       <c r="BJ39" s="40"/>
       <c r="BK39" s="40"/>
       <c r="BL39" s="41"/>
-      <c r="BN39" s="98"/>
+      <c r="BN39" s="112"/>
       <c r="BO39" s="40">
         <f>iNPUT!AC38</f>
         <v>-0.33520678509531276</v>
@@ -15402,7 +15739,7 @@
       <c r="BY39" s="41"/>
     </row>
     <row r="40" spans="1:77">
-      <c r="A40" s="98" t="str">
+      <c r="A40" s="112" t="str">
         <f>iNPUT!$W39</f>
         <v>o</v>
       </c>
@@ -15434,7 +15771,7 @@
       <c r="J40" s="17"/>
       <c r="K40" s="17"/>
       <c r="L40" s="13"/>
-      <c r="N40" s="98" t="str">
+      <c r="N40" s="112" t="str">
         <f>iNPUT!$W39</f>
         <v>o</v>
       </c>
@@ -15466,7 +15803,7 @@
       <c r="W40" s="40"/>
       <c r="X40" s="40"/>
       <c r="Y40" s="41"/>
-      <c r="AA40" s="98" t="str">
+      <c r="AA40" s="112" t="str">
         <f>iNPUT!$W39</f>
         <v>o</v>
       </c>
@@ -15498,7 +15835,7 @@
       <c r="AJ40" s="40"/>
       <c r="AK40" s="40"/>
       <c r="AL40" s="41"/>
-      <c r="AN40" s="98" t="str">
+      <c r="AN40" s="112" t="str">
         <f>iNPUT!$W39</f>
         <v>o</v>
       </c>
@@ -15530,7 +15867,7 @@
       <c r="AW40" s="40"/>
       <c r="AX40" s="40"/>
       <c r="AY40" s="41"/>
-      <c r="BA40" s="98" t="str">
+      <c r="BA40" s="112" t="str">
         <f>iNPUT!$W39</f>
         <v>o</v>
       </c>
@@ -15562,7 +15899,7 @@
       <c r="BJ40" s="40"/>
       <c r="BK40" s="40"/>
       <c r="BL40" s="41"/>
-      <c r="BN40" s="98" t="str">
+      <c r="BN40" s="112" t="str">
         <f>iNPUT!$W39</f>
         <v>o</v>
       </c>
@@ -15596,7 +15933,7 @@
       <c r="BY40" s="41"/>
     </row>
     <row r="41" spans="1:77">
-      <c r="A41" s="98"/>
+      <c r="A41" s="112"/>
       <c r="B41" s="17">
         <f>iNPUT!X40</f>
         <v>-1.1663392356213738</v>
@@ -15611,7 +15948,7 @@
       <c r="J41" s="17"/>
       <c r="K41" s="17"/>
       <c r="L41" s="13"/>
-      <c r="N41" s="98"/>
+      <c r="N41" s="112"/>
       <c r="O41" s="40">
         <f>iNPUT!Y40</f>
         <v>-1.0987194323066811</v>
@@ -15626,7 +15963,7 @@
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="41"/>
-      <c r="AA41" s="98"/>
+      <c r="AA41" s="112"/>
       <c r="AB41" s="40">
         <f>iNPUT!Z40</f>
         <v>-1.0090365853669565</v>
@@ -15641,7 +15978,7 @@
       <c r="AJ41" s="40"/>
       <c r="AK41" s="40"/>
       <c r="AL41" s="41"/>
-      <c r="AN41" s="98"/>
+      <c r="AN41" s="112"/>
       <c r="AO41" s="40">
         <f>iNPUT!AA40</f>
         <v>-1.0576609664556682</v>
@@ -15656,7 +15993,7 @@
       <c r="AW41" s="40"/>
       <c r="AX41" s="40"/>
       <c r="AY41" s="41"/>
-      <c r="BA41" s="98"/>
+      <c r="BA41" s="112"/>
       <c r="BB41" s="40">
         <f>iNPUT!AB40</f>
         <v>-1.1216523945706711</v>
@@ -15671,7 +16008,7 @@
       <c r="BJ41" s="40"/>
       <c r="BK41" s="40"/>
       <c r="BL41" s="41"/>
-      <c r="BN41" s="98"/>
+      <c r="BN41" s="112"/>
       <c r="BO41" s="40">
         <f>iNPUT!AC40</f>
         <v>-1.0963541387817155</v>
@@ -15688,7 +16025,7 @@
       <c r="BY41" s="41"/>
     </row>
     <row r="42" spans="1:77">
-      <c r="A42" s="98"/>
+      <c r="A42" s="112"/>
       <c r="B42" s="17">
         <f>iNPUT!X41</f>
         <v>-0.50283796746758314</v>
@@ -15703,7 +16040,7 @@
       <c r="J42" s="17"/>
       <c r="K42" s="17"/>
       <c r="L42" s="13"/>
-      <c r="N42" s="98"/>
+      <c r="N42" s="112"/>
       <c r="O42" s="40">
         <f>iNPUT!Y41</f>
         <v>-0.55787894499094515</v>
@@ -15718,7 +16055,7 @@
       <c r="W42" s="40"/>
       <c r="X42" s="40"/>
       <c r="Y42" s="41"/>
-      <c r="AA42" s="98"/>
+      <c r="AA42" s="112"/>
       <c r="AB42" s="40">
         <f>iNPUT!Z41</f>
         <v>-0.63806585244307823</v>
@@ -15733,7 +16070,7 @@
       <c r="AJ42" s="40"/>
       <c r="AK42" s="40"/>
       <c r="AL42" s="41"/>
-      <c r="AN42" s="98"/>
+      <c r="AN42" s="112"/>
       <c r="AO42" s="40">
         <f>iNPUT!AA41</f>
         <v>-0.65237764172362789</v>
@@ -15748,7 +16085,7 @@
       <c r="AW42" s="40"/>
       <c r="AX42" s="40"/>
       <c r="AY42" s="41"/>
-      <c r="BA42" s="98"/>
+      <c r="BA42" s="112"/>
       <c r="BB42" s="40">
         <f>iNPUT!AB41</f>
         <v>-0.67207834608978656</v>
@@ -15763,7 +16100,7 @@
       <c r="BJ42" s="40"/>
       <c r="BK42" s="40"/>
       <c r="BL42" s="41"/>
-      <c r="BN42" s="98"/>
+      <c r="BN42" s="112"/>
       <c r="BO42" s="40">
         <f>iNPUT!AC41</f>
         <v>-0.71449081389277147</v>
@@ -15780,7 +16117,7 @@
       <c r="BY42" s="41"/>
     </row>
     <row r="43" spans="1:77">
-      <c r="A43" s="98"/>
+      <c r="A43" s="112"/>
       <c r="B43" s="17">
         <f>iNPUT!X42</f>
         <v>0.39880910034284534</v>
@@ -15795,7 +16132,7 @@
       <c r="J43" s="17"/>
       <c r="K43" s="17"/>
       <c r="L43" s="13"/>
-      <c r="N43" s="98"/>
+      <c r="N43" s="112"/>
       <c r="O43" s="40">
         <f>iNPUT!Y42</f>
         <v>0.46201136647134694</v>
@@ -15810,7 +16147,7 @@
       <c r="W43" s="40"/>
       <c r="X43" s="40"/>
       <c r="Y43" s="41"/>
-      <c r="AA43" s="98"/>
+      <c r="AA43" s="112"/>
       <c r="AB43" s="40">
         <f>iNPUT!Z42</f>
         <v>0.49219164563902967</v>
@@ -15825,7 +16162,7 @@
       <c r="AJ43" s="40"/>
       <c r="AK43" s="40"/>
       <c r="AL43" s="41"/>
-      <c r="AN43" s="98"/>
+      <c r="AN43" s="112"/>
       <c r="AO43" s="40">
         <f>iNPUT!AA42</f>
         <v>0.51670475991754072</v>
@@ -15840,7 +16177,7 @@
       <c r="AW43" s="40"/>
       <c r="AX43" s="40"/>
       <c r="AY43" s="41"/>
-      <c r="BA43" s="98"/>
+      <c r="BA43" s="112"/>
       <c r="BB43" s="40">
         <f>iNPUT!AB42</f>
         <v>0.48995207604981444</v>
@@ -15855,7 +16192,7 @@
       <c r="BJ43" s="40"/>
       <c r="BK43" s="40"/>
       <c r="BL43" s="41"/>
-      <c r="BN43" s="98"/>
+      <c r="BN43" s="112"/>
       <c r="BO43" s="40">
         <f>iNPUT!AC42</f>
         <v>0.46115442794268457</v>
@@ -17356,84 +17693,84 @@
     <row r="59" spans="1:77">
       <c r="A59" s="14"/>
       <c r="B59" s="17"/>
-      <c r="C59" s="99" t="s">
+      <c r="C59" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="D59" s="99"/>
-      <c r="E59" s="99"/>
-      <c r="F59" s="99"/>
-      <c r="G59" s="99"/>
-      <c r="H59" s="99"/>
+      <c r="D59" s="109"/>
+      <c r="E59" s="109"/>
+      <c r="F59" s="109"/>
+      <c r="G59" s="109"/>
+      <c r="H59" s="109"/>
       <c r="I59" s="17"/>
       <c r="J59" s="17"/>
       <c r="K59" s="17"/>
       <c r="L59" s="13"/>
       <c r="N59" s="39"/>
       <c r="O59" s="40"/>
-      <c r="P59" s="99" t="s">
+      <c r="P59" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="Q59" s="99"/>
-      <c r="R59" s="99"/>
-      <c r="S59" s="99"/>
-      <c r="T59" s="99"/>
-      <c r="U59" s="99"/>
+      <c r="Q59" s="109"/>
+      <c r="R59" s="109"/>
+      <c r="S59" s="109"/>
+      <c r="T59" s="109"/>
+      <c r="U59" s="109"/>
       <c r="V59" s="40"/>
       <c r="W59" s="40"/>
       <c r="X59" s="40"/>
       <c r="Y59" s="41"/>
       <c r="AA59" s="39"/>
       <c r="AB59" s="40"/>
-      <c r="AC59" s="99" t="s">
+      <c r="AC59" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="AD59" s="99"/>
-      <c r="AE59" s="99"/>
-      <c r="AF59" s="99"/>
-      <c r="AG59" s="99"/>
-      <c r="AH59" s="99"/>
+      <c r="AD59" s="109"/>
+      <c r="AE59" s="109"/>
+      <c r="AF59" s="109"/>
+      <c r="AG59" s="109"/>
+      <c r="AH59" s="109"/>
       <c r="AI59" s="40"/>
       <c r="AJ59" s="40"/>
       <c r="AK59" s="40"/>
       <c r="AL59" s="41"/>
       <c r="AN59" s="39"/>
       <c r="AO59" s="40"/>
-      <c r="AP59" s="99" t="s">
+      <c r="AP59" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="AQ59" s="99"/>
-      <c r="AR59" s="99"/>
-      <c r="AS59" s="99"/>
-      <c r="AT59" s="99"/>
-      <c r="AU59" s="99"/>
+      <c r="AQ59" s="109"/>
+      <c r="AR59" s="109"/>
+      <c r="AS59" s="109"/>
+      <c r="AT59" s="109"/>
+      <c r="AU59" s="109"/>
       <c r="AV59" s="40"/>
       <c r="AW59" s="40"/>
       <c r="AX59" s="40"/>
       <c r="AY59" s="41"/>
       <c r="BA59" s="39"/>
       <c r="BB59" s="40"/>
-      <c r="BC59" s="99" t="s">
+      <c r="BC59" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="BD59" s="99"/>
-      <c r="BE59" s="99"/>
-      <c r="BF59" s="99"/>
-      <c r="BG59" s="99"/>
-      <c r="BH59" s="99"/>
+      <c r="BD59" s="109"/>
+      <c r="BE59" s="109"/>
+      <c r="BF59" s="109"/>
+      <c r="BG59" s="109"/>
+      <c r="BH59" s="109"/>
       <c r="BI59" s="40"/>
       <c r="BJ59" s="40"/>
       <c r="BK59" s="40"/>
       <c r="BL59" s="41"/>
       <c r="BN59" s="39"/>
       <c r="BO59" s="40"/>
-      <c r="BP59" s="99" t="s">
+      <c r="BP59" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="BQ59" s="99"/>
-      <c r="BR59" s="99"/>
-      <c r="BS59" s="99"/>
-      <c r="BT59" s="99"/>
-      <c r="BU59" s="99"/>
+      <c r="BQ59" s="109"/>
+      <c r="BR59" s="109"/>
+      <c r="BS59" s="109"/>
+      <c r="BT59" s="109"/>
+      <c r="BU59" s="109"/>
       <c r="BV59" s="40"/>
       <c r="BW59" s="40"/>
       <c r="BX59" s="40"/>
@@ -18360,100 +18697,100 @@
     <row r="72" spans="1:77">
       <c r="A72" s="14"/>
       <c r="B72" s="17"/>
-      <c r="C72" s="100" t="s">
+      <c r="C72" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="D72" s="100"/>
-      <c r="E72" s="100"/>
-      <c r="F72" s="100"/>
-      <c r="G72" s="100"/>
-      <c r="H72" s="100" t="s">
+      <c r="D72" s="110"/>
+      <c r="E72" s="110"/>
+      <c r="F72" s="110"/>
+      <c r="G72" s="110"/>
+      <c r="H72" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="I72" s="100"/>
-      <c r="J72" s="100"/>
-      <c r="K72" s="100"/>
-      <c r="L72" s="101"/>
+      <c r="I72" s="110"/>
+      <c r="J72" s="110"/>
+      <c r="K72" s="110"/>
+      <c r="L72" s="111"/>
       <c r="N72" s="39"/>
       <c r="O72" s="40"/>
-      <c r="P72" s="100" t="s">
+      <c r="P72" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="Q72" s="100"/>
-      <c r="R72" s="100"/>
-      <c r="S72" s="100"/>
-      <c r="T72" s="100"/>
-      <c r="U72" s="100" t="s">
+      <c r="Q72" s="110"/>
+      <c r="R72" s="110"/>
+      <c r="S72" s="110"/>
+      <c r="T72" s="110"/>
+      <c r="U72" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="V72" s="100"/>
-      <c r="W72" s="100"/>
-      <c r="X72" s="100"/>
-      <c r="Y72" s="101"/>
+      <c r="V72" s="110"/>
+      <c r="W72" s="110"/>
+      <c r="X72" s="110"/>
+      <c r="Y72" s="111"/>
       <c r="AA72" s="39"/>
       <c r="AB72" s="40"/>
-      <c r="AC72" s="100" t="s">
+      <c r="AC72" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="AD72" s="100"/>
-      <c r="AE72" s="100"/>
-      <c r="AF72" s="100"/>
-      <c r="AG72" s="100"/>
-      <c r="AH72" s="100" t="s">
+      <c r="AD72" s="110"/>
+      <c r="AE72" s="110"/>
+      <c r="AF72" s="110"/>
+      <c r="AG72" s="110"/>
+      <c r="AH72" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="AI72" s="100"/>
-      <c r="AJ72" s="100"/>
-      <c r="AK72" s="100"/>
-      <c r="AL72" s="101"/>
+      <c r="AI72" s="110"/>
+      <c r="AJ72" s="110"/>
+      <c r="AK72" s="110"/>
+      <c r="AL72" s="111"/>
       <c r="AN72" s="39"/>
       <c r="AO72" s="40"/>
-      <c r="AP72" s="100" t="s">
+      <c r="AP72" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="AQ72" s="100"/>
-      <c r="AR72" s="100"/>
-      <c r="AS72" s="100"/>
-      <c r="AT72" s="100"/>
-      <c r="AU72" s="100" t="s">
+      <c r="AQ72" s="110"/>
+      <c r="AR72" s="110"/>
+      <c r="AS72" s="110"/>
+      <c r="AT72" s="110"/>
+      <c r="AU72" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="AV72" s="100"/>
-      <c r="AW72" s="100"/>
-      <c r="AX72" s="100"/>
-      <c r="AY72" s="101"/>
+      <c r="AV72" s="110"/>
+      <c r="AW72" s="110"/>
+      <c r="AX72" s="110"/>
+      <c r="AY72" s="111"/>
       <c r="BA72" s="39"/>
       <c r="BB72" s="40"/>
-      <c r="BC72" s="100" t="s">
+      <c r="BC72" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="BD72" s="100"/>
-      <c r="BE72" s="100"/>
-      <c r="BF72" s="100"/>
-      <c r="BG72" s="100"/>
-      <c r="BH72" s="100" t="s">
+      <c r="BD72" s="110"/>
+      <c r="BE72" s="110"/>
+      <c r="BF72" s="110"/>
+      <c r="BG72" s="110"/>
+      <c r="BH72" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="BI72" s="100"/>
-      <c r="BJ72" s="100"/>
-      <c r="BK72" s="100"/>
-      <c r="BL72" s="101"/>
+      <c r="BI72" s="110"/>
+      <c r="BJ72" s="110"/>
+      <c r="BK72" s="110"/>
+      <c r="BL72" s="111"/>
       <c r="BN72" s="39"/>
       <c r="BO72" s="40"/>
-      <c r="BP72" s="100" t="s">
+      <c r="BP72" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="BQ72" s="100"/>
-      <c r="BR72" s="100"/>
-      <c r="BS72" s="100"/>
-      <c r="BT72" s="100"/>
-      <c r="BU72" s="100" t="s">
+      <c r="BQ72" s="110"/>
+      <c r="BR72" s="110"/>
+      <c r="BS72" s="110"/>
+      <c r="BT72" s="110"/>
+      <c r="BU72" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="BV72" s="100"/>
-      <c r="BW72" s="100"/>
-      <c r="BX72" s="100"/>
-      <c r="BY72" s="101"/>
+      <c r="BV72" s="110"/>
+      <c r="BW72" s="110"/>
+      <c r="BX72" s="110"/>
+      <c r="BY72" s="111"/>
     </row>
     <row r="73" spans="1:77">
       <c r="A73" s="14"/>
@@ -19619,42 +19956,42 @@
       <c r="BY82" s="44"/>
     </row>
     <row r="83" spans="1:102">
-      <c r="CA83" s="102" t="s">
+      <c r="CA83" s="108" t="s">
         <v>224</v>
       </c>
-      <c r="CB83" s="102"/>
-      <c r="CC83" s="102"/>
-      <c r="CD83" s="102"/>
-      <c r="CE83" s="102" t="s">
+      <c r="CB83" s="108"/>
+      <c r="CC83" s="108"/>
+      <c r="CD83" s="108"/>
+      <c r="CE83" s="108" t="s">
         <v>225</v>
       </c>
-      <c r="CF83" s="102"/>
-      <c r="CG83" s="102"/>
-      <c r="CH83" s="102"/>
-      <c r="CI83" s="102" t="s">
+      <c r="CF83" s="108"/>
+      <c r="CG83" s="108"/>
+      <c r="CH83" s="108"/>
+      <c r="CI83" s="108" t="s">
         <v>226</v>
       </c>
-      <c r="CJ83" s="102"/>
-      <c r="CK83" s="102"/>
-      <c r="CL83" s="102"/>
-      <c r="CM83" s="102" t="s">
+      <c r="CJ83" s="108"/>
+      <c r="CK83" s="108"/>
+      <c r="CL83" s="108"/>
+      <c r="CM83" s="108" t="s">
         <v>227</v>
       </c>
-      <c r="CN83" s="102"/>
-      <c r="CO83" s="102"/>
-      <c r="CP83" s="102"/>
-      <c r="CQ83" s="102" t="s">
+      <c r="CN83" s="108"/>
+      <c r="CO83" s="108"/>
+      <c r="CP83" s="108"/>
+      <c r="CQ83" s="108" t="s">
         <v>228</v>
       </c>
-      <c r="CR83" s="102"/>
-      <c r="CS83" s="102"/>
-      <c r="CT83" s="102"/>
-      <c r="CU83" s="102" t="s">
+      <c r="CR83" s="108"/>
+      <c r="CS83" s="108"/>
+      <c r="CT83" s="108"/>
+      <c r="CU83" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="CV83" s="102"/>
-      <c r="CW83" s="102"/>
-      <c r="CX83" s="102"/>
+      <c r="CV83" s="108"/>
+      <c r="CW83" s="108"/>
+      <c r="CX83" s="108"/>
     </row>
     <row r="84" spans="1:102">
       <c r="A84" t="s">
@@ -20958,6 +21295,45 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:L72"/>
+    <mergeCell ref="N28:N31"/>
+    <mergeCell ref="N32:N35"/>
+    <mergeCell ref="N36:N39"/>
+    <mergeCell ref="N40:N43"/>
+    <mergeCell ref="AA28:AA31"/>
+    <mergeCell ref="AA32:AA35"/>
+    <mergeCell ref="AA36:AA39"/>
+    <mergeCell ref="P59:U59"/>
+    <mergeCell ref="P72:T72"/>
+    <mergeCell ref="U72:Y72"/>
+    <mergeCell ref="AA40:AA43"/>
+    <mergeCell ref="AC59:AH59"/>
+    <mergeCell ref="AC72:AG72"/>
+    <mergeCell ref="AH72:AL72"/>
+    <mergeCell ref="AN28:AN31"/>
+    <mergeCell ref="AN32:AN35"/>
+    <mergeCell ref="AN36:AN39"/>
+    <mergeCell ref="AN40:AN43"/>
+    <mergeCell ref="AP59:AU59"/>
+    <mergeCell ref="AP72:AT72"/>
+    <mergeCell ref="AU72:AY72"/>
+    <mergeCell ref="BA28:BA31"/>
+    <mergeCell ref="BA32:BA35"/>
+    <mergeCell ref="BA36:BA39"/>
+    <mergeCell ref="BA40:BA43"/>
+    <mergeCell ref="BC59:BH59"/>
+    <mergeCell ref="BC72:BG72"/>
+    <mergeCell ref="BH72:BL72"/>
+    <mergeCell ref="BN28:BN31"/>
+    <mergeCell ref="BN32:BN35"/>
+    <mergeCell ref="BN36:BN39"/>
+    <mergeCell ref="BN40:BN43"/>
     <mergeCell ref="CI83:CL83"/>
     <mergeCell ref="CM83:CP83"/>
     <mergeCell ref="CQ83:CT83"/>
@@ -20967,45 +21343,6 @@
     <mergeCell ref="BU72:BY72"/>
     <mergeCell ref="CA83:CD83"/>
     <mergeCell ref="CE83:CH83"/>
-    <mergeCell ref="BC59:BH59"/>
-    <mergeCell ref="BC72:BG72"/>
-    <mergeCell ref="BH72:BL72"/>
-    <mergeCell ref="BN28:BN31"/>
-    <mergeCell ref="BN32:BN35"/>
-    <mergeCell ref="BN36:BN39"/>
-    <mergeCell ref="BN40:BN43"/>
-    <mergeCell ref="AP59:AU59"/>
-    <mergeCell ref="AP72:AT72"/>
-    <mergeCell ref="AU72:AY72"/>
-    <mergeCell ref="BA28:BA31"/>
-    <mergeCell ref="BA32:BA35"/>
-    <mergeCell ref="BA36:BA39"/>
-    <mergeCell ref="BA40:BA43"/>
-    <mergeCell ref="AC59:AH59"/>
-    <mergeCell ref="AC72:AG72"/>
-    <mergeCell ref="AH72:AL72"/>
-    <mergeCell ref="AN28:AN31"/>
-    <mergeCell ref="AN32:AN35"/>
-    <mergeCell ref="AN36:AN39"/>
-    <mergeCell ref="AN40:AN43"/>
-    <mergeCell ref="AA28:AA31"/>
-    <mergeCell ref="AA32:AA35"/>
-    <mergeCell ref="AA36:AA39"/>
-    <mergeCell ref="P59:U59"/>
-    <mergeCell ref="P72:T72"/>
-    <mergeCell ref="U72:Y72"/>
-    <mergeCell ref="AA40:AA43"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:L72"/>
-    <mergeCell ref="N28:N31"/>
-    <mergeCell ref="N32:N35"/>
-    <mergeCell ref="N36:N39"/>
-    <mergeCell ref="N40:N43"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -21013,11 +21350,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:ED263"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="Q67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB45" sqref="AB45:AC45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21055,48 +21392,48 @@
         <f>iNPUT!F32</f>
         <v>0.16505362280931193</v>
       </c>
-      <c r="J1" s="109" t="str">
+      <c r="J1" s="115" t="str">
         <f>'FORWARD 1'!CA83</f>
         <v>Forward 1</v>
       </c>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109" t="str">
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115" t="str">
         <f>'FORWARD 1'!CE83</f>
         <v>Forward 2</v>
       </c>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109" t="str">
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115" t="str">
         <f>'FORWARD 1'!CI83</f>
         <v>Forward 3</v>
       </c>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109" t="str">
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115" t="str">
         <f>'FORWARD 1'!CM83</f>
         <v>Forward 4</v>
       </c>
-      <c r="W1" s="109"/>
-      <c r="X1" s="109"/>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="109" t="str">
+      <c r="W1" s="115"/>
+      <c r="X1" s="115"/>
+      <c r="Y1" s="115"/>
+      <c r="Z1" s="115" t="str">
         <f>'FORWARD 1'!CQ83</f>
         <v>Forward 5</v>
       </c>
-      <c r="AA1" s="109"/>
-      <c r="AB1" s="109"/>
-      <c r="AC1" s="109"/>
-      <c r="AD1" s="109" t="str">
+      <c r="AA1" s="115"/>
+      <c r="AB1" s="115"/>
+      <c r="AC1" s="115"/>
+      <c r="AD1" s="115" t="str">
         <f>'FORWARD 1'!CU83</f>
         <v>Forward 6</v>
       </c>
-      <c r="AE1" s="109"/>
-      <c r="AF1" s="109"/>
-      <c r="AG1" s="109"/>
+      <c r="AE1" s="115"/>
+      <c r="AF1" s="115"/>
+      <c r="AG1" s="115"/>
       <c r="AI1" t="s">
         <v>180</v>
       </c>
@@ -23501,10 +23838,10 @@
       </c>
       <c r="AF20" s="39"/>
       <c r="AG20" s="40"/>
-      <c r="AH20" s="100" t="s">
+      <c r="AH20" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="AI20" s="100"/>
+      <c r="AI20" s="110"/>
       <c r="AJ20" s="62"/>
       <c r="AK20" s="40"/>
       <c r="AL20" s="40"/>
@@ -23538,10 +23875,10 @@
       </c>
       <c r="AY20" s="39"/>
       <c r="AZ20" s="40"/>
-      <c r="BA20" s="100" t="s">
+      <c r="BA20" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="BB20" s="100"/>
+      <c r="BB20" s="110"/>
       <c r="BC20" s="62"/>
       <c r="BD20" s="40"/>
       <c r="BE20" s="40"/>
@@ -23575,10 +23912,10 @@
       </c>
       <c r="BR20" s="39"/>
       <c r="BS20" s="40"/>
-      <c r="BT20" s="100" t="s">
+      <c r="BT20" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="BU20" s="100"/>
+      <c r="BU20" s="110"/>
       <c r="BV20" s="62"/>
       <c r="BW20" s="40"/>
       <c r="BX20" s="40"/>
@@ -23612,10 +23949,10 @@
       </c>
       <c r="CK20" s="39"/>
       <c r="CL20" s="40"/>
-      <c r="CM20" s="100" t="s">
+      <c r="CM20" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="CN20" s="100"/>
+      <c r="CN20" s="110"/>
       <c r="CO20" s="62"/>
       <c r="CP20" s="40"/>
       <c r="CQ20" s="40"/>
@@ -23649,10 +23986,10 @@
       </c>
       <c r="DD20" s="39"/>
       <c r="DE20" s="40"/>
-      <c r="DF20" s="100" t="s">
+      <c r="DF20" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="DG20" s="100"/>
+      <c r="DG20" s="110"/>
       <c r="DH20" s="62"/>
       <c r="DI20" s="40"/>
       <c r="DJ20" s="40"/>
@@ -23686,10 +24023,10 @@
       </c>
       <c r="DW20" s="39"/>
       <c r="DX20" s="40"/>
-      <c r="DY20" s="100" t="s">
+      <c r="DY20" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="DZ20" s="100"/>
+      <c r="DZ20" s="110"/>
       <c r="EA20" s="62"/>
       <c r="EB20" s="40"/>
       <c r="EC20" s="40"/>
@@ -24245,11 +24582,11 @@
       <c r="AB24" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="AC24" s="99" t="s">
+      <c r="AC24" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="AD24" s="99"/>
-      <c r="AE24" s="105"/>
+      <c r="AD24" s="109"/>
+      <c r="AE24" s="118"/>
       <c r="AF24" s="39"/>
       <c r="AG24" s="40"/>
       <c r="AH24" s="40"/>
@@ -24271,11 +24608,11 @@
       <c r="AU24" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="AV24" s="99" t="s">
+      <c r="AV24" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="AW24" s="99"/>
-      <c r="AX24" s="105"/>
+      <c r="AW24" s="109"/>
+      <c r="AX24" s="118"/>
       <c r="AY24" s="39"/>
       <c r="AZ24" s="40"/>
       <c r="BA24" s="40"/>
@@ -24297,11 +24634,11 @@
       <c r="BN24" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="BO24" s="99" t="s">
+      <c r="BO24" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="BP24" s="99"/>
-      <c r="BQ24" s="105"/>
+      <c r="BP24" s="109"/>
+      <c r="BQ24" s="118"/>
       <c r="BR24" s="39"/>
       <c r="BS24" s="40"/>
       <c r="BT24" s="40"/>
@@ -24323,11 +24660,11 @@
       <c r="CG24" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="CH24" s="99" t="s">
+      <c r="CH24" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="CI24" s="99"/>
-      <c r="CJ24" s="105"/>
+      <c r="CI24" s="109"/>
+      <c r="CJ24" s="118"/>
       <c r="CK24" s="39"/>
       <c r="CL24" s="40"/>
       <c r="CM24" s="40"/>
@@ -24349,11 +24686,11 @@
       <c r="CZ24" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="DA24" s="99" t="s">
+      <c r="DA24" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="DB24" s="99"/>
-      <c r="DC24" s="105"/>
+      <c r="DB24" s="109"/>
+      <c r="DC24" s="118"/>
       <c r="DD24" s="39"/>
       <c r="DE24" s="40"/>
       <c r="DF24" s="40"/>
@@ -24375,11 +24712,11 @@
       <c r="DS24" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="DT24" s="99" t="s">
+      <c r="DT24" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="DU24" s="99"/>
-      <c r="DV24" s="105"/>
+      <c r="DU24" s="109"/>
+      <c r="DV24" s="118"/>
       <c r="DW24" s="39"/>
       <c r="DX24" s="40"/>
       <c r="DY24" s="40"/>
@@ -24577,22 +24914,22 @@
       <c r="ED25" s="41"/>
     </row>
     <row r="26" spans="22:134">
-      <c r="V26" s="106" t="s">
+      <c r="V26" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="W26" s="99"/>
-      <c r="X26" s="99"/>
+      <c r="W26" s="109"/>
+      <c r="X26" s="109"/>
       <c r="Y26" s="40"/>
       <c r="Z26" s="40"/>
       <c r="AA26" s="39"/>
       <c r="AB26" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="AC26" s="99" t="s">
+      <c r="AC26" s="109" t="s">
         <v>87</v>
       </c>
-      <c r="AD26" s="99"/>
-      <c r="AE26" s="105"/>
+      <c r="AD26" s="109"/>
+      <c r="AE26" s="118"/>
       <c r="AF26" s="39"/>
       <c r="AG26" s="40"/>
       <c r="AH26" s="40"/>
@@ -24602,22 +24939,22 @@
       <c r="AL26" s="40"/>
       <c r="AM26" s="41"/>
       <c r="AN26" s="32"/>
-      <c r="AO26" s="106" t="s">
+      <c r="AO26" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="AP26" s="99"/>
-      <c r="AQ26" s="99"/>
+      <c r="AP26" s="109"/>
+      <c r="AQ26" s="109"/>
       <c r="AR26" s="40"/>
       <c r="AS26" s="40"/>
       <c r="AT26" s="39"/>
       <c r="AU26" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="AV26" s="99" t="s">
+      <c r="AV26" s="109" t="s">
         <v>87</v>
       </c>
-      <c r="AW26" s="99"/>
-      <c r="AX26" s="105"/>
+      <c r="AW26" s="109"/>
+      <c r="AX26" s="118"/>
       <c r="AY26" s="39"/>
       <c r="AZ26" s="40"/>
       <c r="BA26" s="40"/>
@@ -24627,22 +24964,22 @@
       <c r="BE26" s="40"/>
       <c r="BF26" s="41"/>
       <c r="BG26" s="32"/>
-      <c r="BH26" s="106" t="s">
+      <c r="BH26" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="BI26" s="99"/>
-      <c r="BJ26" s="99"/>
+      <c r="BI26" s="109"/>
+      <c r="BJ26" s="109"/>
       <c r="BK26" s="40"/>
       <c r="BL26" s="40"/>
       <c r="BM26" s="39"/>
       <c r="BN26" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="BO26" s="99" t="s">
+      <c r="BO26" s="109" t="s">
         <v>87</v>
       </c>
-      <c r="BP26" s="99"/>
-      <c r="BQ26" s="105"/>
+      <c r="BP26" s="109"/>
+      <c r="BQ26" s="118"/>
       <c r="BR26" s="39"/>
       <c r="BS26" s="40"/>
       <c r="BT26" s="40"/>
@@ -24652,22 +24989,22 @@
       <c r="BX26" s="40"/>
       <c r="BY26" s="41"/>
       <c r="BZ26" s="32"/>
-      <c r="CA26" s="106" t="s">
+      <c r="CA26" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="CB26" s="99"/>
-      <c r="CC26" s="99"/>
+      <c r="CB26" s="109"/>
+      <c r="CC26" s="109"/>
       <c r="CD26" s="40"/>
       <c r="CE26" s="40"/>
       <c r="CF26" s="39"/>
       <c r="CG26" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="CH26" s="99" t="s">
+      <c r="CH26" s="109" t="s">
         <v>87</v>
       </c>
-      <c r="CI26" s="99"/>
-      <c r="CJ26" s="105"/>
+      <c r="CI26" s="109"/>
+      <c r="CJ26" s="118"/>
       <c r="CK26" s="39"/>
       <c r="CL26" s="40"/>
       <c r="CM26" s="40"/>
@@ -24677,22 +25014,22 @@
       <c r="CQ26" s="40"/>
       <c r="CR26" s="41"/>
       <c r="CS26" s="32"/>
-      <c r="CT26" s="106" t="s">
+      <c r="CT26" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="CU26" s="99"/>
-      <c r="CV26" s="99"/>
+      <c r="CU26" s="109"/>
+      <c r="CV26" s="109"/>
       <c r="CW26" s="40"/>
       <c r="CX26" s="40"/>
       <c r="CY26" s="39"/>
       <c r="CZ26" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="DA26" s="99" t="s">
+      <c r="DA26" s="109" t="s">
         <v>87</v>
       </c>
-      <c r="DB26" s="99"/>
-      <c r="DC26" s="105"/>
+      <c r="DB26" s="109"/>
+      <c r="DC26" s="118"/>
       <c r="DD26" s="39"/>
       <c r="DE26" s="40"/>
       <c r="DF26" s="40"/>
@@ -24702,22 +25039,22 @@
       <c r="DJ26" s="40"/>
       <c r="DK26" s="41"/>
       <c r="DL26" s="32"/>
-      <c r="DM26" s="106" t="s">
+      <c r="DM26" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="DN26" s="99"/>
-      <c r="DO26" s="99"/>
+      <c r="DN26" s="109"/>
+      <c r="DO26" s="109"/>
       <c r="DP26" s="40"/>
       <c r="DQ26" s="40"/>
       <c r="DR26" s="39"/>
       <c r="DS26" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="DT26" s="99" t="s">
+      <c r="DT26" s="109" t="s">
         <v>87</v>
       </c>
-      <c r="DU26" s="99"/>
-      <c r="DV26" s="105"/>
+      <c r="DU26" s="109"/>
+      <c r="DV26" s="118"/>
       <c r="DW26" s="39"/>
       <c r="DX26" s="40"/>
       <c r="DY26" s="40"/>
@@ -25072,13 +25409,13 @@
       <c r="ED28" s="41"/>
     </row>
     <row r="29" spans="22:134">
-      <c r="V29" s="106" t="s">
+      <c r="V29" s="119" t="s">
         <v>140</v>
       </c>
-      <c r="W29" s="99"/>
-      <c r="X29" s="99"/>
-      <c r="Y29" s="99"/>
-      <c r="Z29" s="105"/>
+      <c r="W29" s="109"/>
+      <c r="X29" s="109"/>
+      <c r="Y29" s="109"/>
+      <c r="Z29" s="118"/>
       <c r="AA29" s="39"/>
       <c r="AB29" s="40"/>
       <c r="AC29" s="40">
@@ -25105,13 +25442,13 @@
       <c r="AL29" s="40"/>
       <c r="AM29" s="41"/>
       <c r="AN29" s="32"/>
-      <c r="AO29" s="106" t="s">
+      <c r="AO29" s="119" t="s">
         <v>140</v>
       </c>
-      <c r="AP29" s="99"/>
-      <c r="AQ29" s="99"/>
-      <c r="AR29" s="99"/>
-      <c r="AS29" s="105"/>
+      <c r="AP29" s="109"/>
+      <c r="AQ29" s="109"/>
+      <c r="AR29" s="109"/>
+      <c r="AS29" s="118"/>
       <c r="AT29" s="39"/>
       <c r="AU29" s="40"/>
       <c r="AV29" s="40">
@@ -25138,13 +25475,13 @@
       <c r="BE29" s="40"/>
       <c r="BF29" s="41"/>
       <c r="BG29" s="32"/>
-      <c r="BH29" s="106" t="s">
+      <c r="BH29" s="119" t="s">
         <v>140</v>
       </c>
-      <c r="BI29" s="99"/>
-      <c r="BJ29" s="99"/>
-      <c r="BK29" s="99"/>
-      <c r="BL29" s="105"/>
+      <c r="BI29" s="109"/>
+      <c r="BJ29" s="109"/>
+      <c r="BK29" s="109"/>
+      <c r="BL29" s="118"/>
       <c r="BM29" s="39"/>
       <c r="BN29" s="40"/>
       <c r="BO29" s="40">
@@ -25171,13 +25508,13 @@
       <c r="BX29" s="40"/>
       <c r="BY29" s="41"/>
       <c r="BZ29" s="32"/>
-      <c r="CA29" s="106" t="s">
+      <c r="CA29" s="119" t="s">
         <v>140</v>
       </c>
-      <c r="CB29" s="99"/>
-      <c r="CC29" s="99"/>
-      <c r="CD29" s="99"/>
-      <c r="CE29" s="105"/>
+      <c r="CB29" s="109"/>
+      <c r="CC29" s="109"/>
+      <c r="CD29" s="109"/>
+      <c r="CE29" s="118"/>
       <c r="CF29" s="39"/>
       <c r="CG29" s="40"/>
       <c r="CH29" s="40">
@@ -25204,13 +25541,13 @@
       <c r="CQ29" s="40"/>
       <c r="CR29" s="41"/>
       <c r="CS29" s="32"/>
-      <c r="CT29" s="106" t="s">
+      <c r="CT29" s="119" t="s">
         <v>140</v>
       </c>
-      <c r="CU29" s="99"/>
-      <c r="CV29" s="99"/>
-      <c r="CW29" s="99"/>
-      <c r="CX29" s="105"/>
+      <c r="CU29" s="109"/>
+      <c r="CV29" s="109"/>
+      <c r="CW29" s="109"/>
+      <c r="CX29" s="118"/>
       <c r="CY29" s="39"/>
       <c r="CZ29" s="40"/>
       <c r="DA29" s="40">
@@ -25237,13 +25574,13 @@
       <c r="DJ29" s="40"/>
       <c r="DK29" s="41"/>
       <c r="DL29" s="32"/>
-      <c r="DM29" s="106" t="s">
+      <c r="DM29" s="119" t="s">
         <v>140</v>
       </c>
-      <c r="DN29" s="99"/>
-      <c r="DO29" s="99"/>
-      <c r="DP29" s="99"/>
-      <c r="DQ29" s="105"/>
+      <c r="DN29" s="109"/>
+      <c r="DO29" s="109"/>
+      <c r="DP29" s="109"/>
+      <c r="DQ29" s="118"/>
       <c r="DR29" s="39"/>
       <c r="DS29" s="40"/>
       <c r="DT29" s="40">
@@ -26516,10 +26853,10 @@
       <c r="AA36" s="56">
         <v>4</v>
       </c>
-      <c r="AB36" s="107" t="s">
+      <c r="AB36" s="116" t="s">
         <v>95</v>
       </c>
-      <c r="AC36" s="107"/>
+      <c r="AC36" s="116"/>
       <c r="AD36" s="37"/>
       <c r="AE36" s="37"/>
       <c r="AF36" s="37"/>
@@ -26549,10 +26886,10 @@
       <c r="AT36" s="56">
         <v>4</v>
       </c>
-      <c r="AU36" s="107" t="s">
+      <c r="AU36" s="116" t="s">
         <v>95</v>
       </c>
-      <c r="AV36" s="107"/>
+      <c r="AV36" s="116"/>
       <c r="AW36" s="37"/>
       <c r="AX36" s="37"/>
       <c r="AY36" s="37"/>
@@ -26582,10 +26919,10 @@
       <c r="BM36" s="56">
         <v>4</v>
       </c>
-      <c r="BN36" s="107" t="s">
+      <c r="BN36" s="116" t="s">
         <v>95</v>
       </c>
-      <c r="BO36" s="107"/>
+      <c r="BO36" s="116"/>
       <c r="BP36" s="37"/>
       <c r="BQ36" s="37"/>
       <c r="BR36" s="37"/>
@@ -26615,10 +26952,10 @@
       <c r="CF36" s="56">
         <v>4</v>
       </c>
-      <c r="CG36" s="107" t="s">
+      <c r="CG36" s="116" t="s">
         <v>95</v>
       </c>
-      <c r="CH36" s="107"/>
+      <c r="CH36" s="116"/>
       <c r="CI36" s="37"/>
       <c r="CJ36" s="37"/>
       <c r="CK36" s="37"/>
@@ -26648,10 +26985,10 @@
       <c r="CY36" s="56">
         <v>4</v>
       </c>
-      <c r="CZ36" s="107" t="s">
+      <c r="CZ36" s="116" t="s">
         <v>95</v>
       </c>
-      <c r="DA36" s="107"/>
+      <c r="DA36" s="116"/>
       <c r="DB36" s="37"/>
       <c r="DC36" s="37"/>
       <c r="DD36" s="37"/>
@@ -26681,10 +27018,10 @@
       <c r="DR36" s="56">
         <v>4</v>
       </c>
-      <c r="DS36" s="107" t="s">
+      <c r="DS36" s="116" t="s">
         <v>95</v>
       </c>
-      <c r="DT36" s="107"/>
+      <c r="DT36" s="116"/>
       <c r="DU36" s="37"/>
       <c r="DV36" s="37"/>
       <c r="DW36" s="37"/>
@@ -27112,10 +27449,10 @@
       <c r="AA39" s="52">
         <v>5</v>
       </c>
-      <c r="AB39" s="104" t="s">
+      <c r="AB39" s="113" t="s">
         <v>98</v>
       </c>
-      <c r="AC39" s="104"/>
+      <c r="AC39" s="113"/>
       <c r="AD39" s="40"/>
       <c r="AE39" s="40"/>
       <c r="AF39" s="40"/>
@@ -27135,10 +27472,10 @@
       <c r="AT39" s="52">
         <v>5</v>
       </c>
-      <c r="AU39" s="104" t="s">
+      <c r="AU39" s="113" t="s">
         <v>98</v>
       </c>
-      <c r="AV39" s="104"/>
+      <c r="AV39" s="113"/>
       <c r="AW39" s="40"/>
       <c r="AX39" s="40"/>
       <c r="AY39" s="40"/>
@@ -27158,10 +27495,10 @@
       <c r="BM39" s="52">
         <v>5</v>
       </c>
-      <c r="BN39" s="104" t="s">
+      <c r="BN39" s="113" t="s">
         <v>98</v>
       </c>
-      <c r="BO39" s="104"/>
+      <c r="BO39" s="113"/>
       <c r="BP39" s="40"/>
       <c r="BQ39" s="40"/>
       <c r="BR39" s="40"/>
@@ -27181,10 +27518,10 @@
       <c r="CF39" s="52">
         <v>5</v>
       </c>
-      <c r="CG39" s="104" t="s">
+      <c r="CG39" s="113" t="s">
         <v>98</v>
       </c>
-      <c r="CH39" s="104"/>
+      <c r="CH39" s="113"/>
       <c r="CI39" s="40"/>
       <c r="CJ39" s="40"/>
       <c r="CK39" s="40"/>
@@ -27204,10 +27541,10 @@
       <c r="CY39" s="52">
         <v>5</v>
       </c>
-      <c r="CZ39" s="104" t="s">
+      <c r="CZ39" s="113" t="s">
         <v>98</v>
       </c>
-      <c r="DA39" s="104"/>
+      <c r="DA39" s="113"/>
       <c r="DB39" s="40"/>
       <c r="DC39" s="40"/>
       <c r="DD39" s="40"/>
@@ -27227,10 +27564,10 @@
       <c r="DR39" s="52">
         <v>5</v>
       </c>
-      <c r="DS39" s="104" t="s">
+      <c r="DS39" s="113" t="s">
         <v>98</v>
       </c>
-      <c r="DT39" s="104"/>
+      <c r="DT39" s="113"/>
       <c r="DU39" s="40"/>
       <c r="DV39" s="40"/>
       <c r="DW39" s="40"/>
@@ -27759,10 +28096,10 @@
       <c r="AA42" s="52">
         <v>6</v>
       </c>
-      <c r="AB42" s="104" t="s">
+      <c r="AB42" s="113" t="s">
         <v>101</v>
       </c>
-      <c r="AC42" s="104"/>
+      <c r="AC42" s="113"/>
       <c r="AD42" s="40"/>
       <c r="AE42" s="40"/>
       <c r="AF42" s="40"/>
@@ -27796,10 +28133,10 @@
       <c r="AT42" s="52">
         <v>6</v>
       </c>
-      <c r="AU42" s="104" t="s">
+      <c r="AU42" s="113" t="s">
         <v>101</v>
       </c>
-      <c r="AV42" s="104"/>
+      <c r="AV42" s="113"/>
       <c r="AW42" s="40"/>
       <c r="AX42" s="40"/>
       <c r="AY42" s="40"/>
@@ -27833,10 +28170,10 @@
       <c r="BM42" s="52">
         <v>6</v>
       </c>
-      <c r="BN42" s="104" t="s">
+      <c r="BN42" s="113" t="s">
         <v>101</v>
       </c>
-      <c r="BO42" s="104"/>
+      <c r="BO42" s="113"/>
       <c r="BP42" s="40"/>
       <c r="BQ42" s="40"/>
       <c r="BR42" s="40"/>
@@ -27870,10 +28207,10 @@
       <c r="CF42" s="52">
         <v>6</v>
       </c>
-      <c r="CG42" s="104" t="s">
+      <c r="CG42" s="113" t="s">
         <v>101</v>
       </c>
-      <c r="CH42" s="104"/>
+      <c r="CH42" s="113"/>
       <c r="CI42" s="40"/>
       <c r="CJ42" s="40"/>
       <c r="CK42" s="40"/>
@@ -27907,10 +28244,10 @@
       <c r="CY42" s="52">
         <v>6</v>
       </c>
-      <c r="CZ42" s="104" t="s">
+      <c r="CZ42" s="113" t="s">
         <v>101</v>
       </c>
-      <c r="DA42" s="104"/>
+      <c r="DA42" s="113"/>
       <c r="DB42" s="40"/>
       <c r="DC42" s="40"/>
       <c r="DD42" s="40"/>
@@ -27944,10 +28281,10 @@
       <c r="DR42" s="52">
         <v>6</v>
       </c>
-      <c r="DS42" s="104" t="s">
+      <c r="DS42" s="113" t="s">
         <v>101</v>
       </c>
-      <c r="DT42" s="104"/>
+      <c r="DT42" s="113"/>
       <c r="DU42" s="40"/>
       <c r="DV42" s="40"/>
       <c r="DW42" s="40"/>
@@ -28476,10 +28813,10 @@
       <c r="AA45" s="52">
         <v>7</v>
       </c>
-      <c r="AB45" s="104" t="s">
+      <c r="AB45" s="113" t="s">
         <v>104</v>
       </c>
-      <c r="AC45" s="104"/>
+      <c r="AC45" s="113"/>
       <c r="AD45" s="40"/>
       <c r="AE45" s="40"/>
       <c r="AF45" s="40"/>
@@ -28513,10 +28850,10 @@
       <c r="AT45" s="52">
         <v>7</v>
       </c>
-      <c r="AU45" s="104" t="s">
+      <c r="AU45" s="113" t="s">
         <v>104</v>
       </c>
-      <c r="AV45" s="104"/>
+      <c r="AV45" s="113"/>
       <c r="AW45" s="40"/>
       <c r="AX45" s="40"/>
       <c r="AY45" s="40"/>
@@ -28550,10 +28887,10 @@
       <c r="BM45" s="52">
         <v>7</v>
       </c>
-      <c r="BN45" s="104" t="s">
+      <c r="BN45" s="113" t="s">
         <v>104</v>
       </c>
-      <c r="BO45" s="104"/>
+      <c r="BO45" s="113"/>
       <c r="BP45" s="40"/>
       <c r="BQ45" s="40"/>
       <c r="BR45" s="40"/>
@@ -28587,10 +28924,10 @@
       <c r="CF45" s="52">
         <v>7</v>
       </c>
-      <c r="CG45" s="104" t="s">
+      <c r="CG45" s="113" t="s">
         <v>104</v>
       </c>
-      <c r="CH45" s="104"/>
+      <c r="CH45" s="113"/>
       <c r="CI45" s="40"/>
       <c r="CJ45" s="40"/>
       <c r="CK45" s="40"/>
@@ -28624,10 +28961,10 @@
       <c r="CY45" s="52">
         <v>7</v>
       </c>
-      <c r="CZ45" s="104" t="s">
+      <c r="CZ45" s="113" t="s">
         <v>104</v>
       </c>
-      <c r="DA45" s="104"/>
+      <c r="DA45" s="113"/>
       <c r="DB45" s="40"/>
       <c r="DC45" s="40"/>
       <c r="DD45" s="40"/>
@@ -28661,10 +28998,10 @@
       <c r="DR45" s="52">
         <v>7</v>
       </c>
-      <c r="DS45" s="104" t="s">
+      <c r="DS45" s="113" t="s">
         <v>104</v>
       </c>
-      <c r="DT45" s="104"/>
+      <c r="DT45" s="113"/>
       <c r="DU45" s="40"/>
       <c r="DV45" s="40"/>
       <c r="DW45" s="40"/>
@@ -28698,11 +29035,11 @@
       </c>
       <c r="AA46" s="39"/>
       <c r="AB46" s="40"/>
-      <c r="AC46" s="108" t="s">
+      <c r="AC46" s="117" t="s">
         <v>105</v>
       </c>
-      <c r="AD46" s="108"/>
-      <c r="AE46" s="108"/>
+      <c r="AD46" s="117"/>
+      <c r="AE46" s="117"/>
       <c r="AF46" s="40"/>
       <c r="AG46" s="39"/>
       <c r="AH46" s="40"/>
@@ -28733,11 +29070,11 @@
       </c>
       <c r="AT46" s="39"/>
       <c r="AU46" s="40"/>
-      <c r="AV46" s="108" t="s">
+      <c r="AV46" s="117" t="s">
         <v>105</v>
       </c>
-      <c r="AW46" s="108"/>
-      <c r="AX46" s="108"/>
+      <c r="AW46" s="117"/>
+      <c r="AX46" s="117"/>
       <c r="AY46" s="40"/>
       <c r="AZ46" s="39"/>
       <c r="BA46" s="40"/>
@@ -28768,11 +29105,11 @@
       </c>
       <c r="BM46" s="39"/>
       <c r="BN46" s="40"/>
-      <c r="BO46" s="108" t="s">
+      <c r="BO46" s="117" t="s">
         <v>105</v>
       </c>
-      <c r="BP46" s="108"/>
-      <c r="BQ46" s="108"/>
+      <c r="BP46" s="117"/>
+      <c r="BQ46" s="117"/>
       <c r="BR46" s="40"/>
       <c r="BS46" s="39"/>
       <c r="BT46" s="40"/>
@@ -28803,11 +29140,11 @@
       </c>
       <c r="CF46" s="39"/>
       <c r="CG46" s="40"/>
-      <c r="CH46" s="108" t="s">
+      <c r="CH46" s="117" t="s">
         <v>105</v>
       </c>
-      <c r="CI46" s="108"/>
-      <c r="CJ46" s="108"/>
+      <c r="CI46" s="117"/>
+      <c r="CJ46" s="117"/>
       <c r="CK46" s="40"/>
       <c r="CL46" s="39"/>
       <c r="CM46" s="40"/>
@@ -28838,11 +29175,11 @@
       </c>
       <c r="CY46" s="39"/>
       <c r="CZ46" s="40"/>
-      <c r="DA46" s="108" t="s">
+      <c r="DA46" s="117" t="s">
         <v>105</v>
       </c>
-      <c r="DB46" s="108"/>
-      <c r="DC46" s="108"/>
+      <c r="DB46" s="117"/>
+      <c r="DC46" s="117"/>
       <c r="DD46" s="40"/>
       <c r="DE46" s="39"/>
       <c r="DF46" s="40"/>
@@ -28873,11 +29210,11 @@
       </c>
       <c r="DR46" s="39"/>
       <c r="DS46" s="40"/>
-      <c r="DT46" s="108" t="s">
+      <c r="DT46" s="117" t="s">
         <v>105</v>
       </c>
-      <c r="DU46" s="108"/>
-      <c r="DV46" s="108"/>
+      <c r="DU46" s="117"/>
+      <c r="DV46" s="117"/>
       <c r="DW46" s="40"/>
       <c r="DX46" s="39"/>
       <c r="DY46" s="40"/>
@@ -29325,10 +29662,10 @@
       <c r="AA50" s="56">
         <v>8</v>
       </c>
-      <c r="AB50" s="107" t="s">
+      <c r="AB50" s="116" t="s">
         <v>107</v>
       </c>
-      <c r="AC50" s="107"/>
+      <c r="AC50" s="116"/>
       <c r="AD50" s="37"/>
       <c r="AE50" s="40"/>
       <c r="AF50" s="37"/>
@@ -29348,10 +29685,10 @@
       <c r="AT50" s="56">
         <v>8</v>
       </c>
-      <c r="AU50" s="107" t="s">
+      <c r="AU50" s="116" t="s">
         <v>107</v>
       </c>
-      <c r="AV50" s="107"/>
+      <c r="AV50" s="116"/>
       <c r="AW50" s="37"/>
       <c r="AX50" s="40"/>
       <c r="AY50" s="37"/>
@@ -29371,10 +29708,10 @@
       <c r="BM50" s="56">
         <v>8</v>
       </c>
-      <c r="BN50" s="107" t="s">
+      <c r="BN50" s="116" t="s">
         <v>107</v>
       </c>
-      <c r="BO50" s="107"/>
+      <c r="BO50" s="116"/>
       <c r="BP50" s="37"/>
       <c r="BQ50" s="40"/>
       <c r="BR50" s="37"/>
@@ -29394,10 +29731,10 @@
       <c r="CF50" s="56">
         <v>8</v>
       </c>
-      <c r="CG50" s="107" t="s">
+      <c r="CG50" s="116" t="s">
         <v>107</v>
       </c>
-      <c r="CH50" s="107"/>
+      <c r="CH50" s="116"/>
       <c r="CI50" s="37"/>
       <c r="CJ50" s="40"/>
       <c r="CK50" s="37"/>
@@ -29417,10 +29754,10 @@
       <c r="CY50" s="56">
         <v>8</v>
       </c>
-      <c r="CZ50" s="107" t="s">
+      <c r="CZ50" s="116" t="s">
         <v>107</v>
       </c>
-      <c r="DA50" s="107"/>
+      <c r="DA50" s="116"/>
       <c r="DB50" s="37"/>
       <c r="DC50" s="40"/>
       <c r="DD50" s="37"/>
@@ -29440,10 +29777,10 @@
       <c r="DR50" s="56">
         <v>8</v>
       </c>
-      <c r="DS50" s="107" t="s">
+      <c r="DS50" s="116" t="s">
         <v>107</v>
       </c>
-      <c r="DT50" s="107"/>
+      <c r="DT50" s="116"/>
       <c r="DU50" s="37"/>
       <c r="DV50" s="40"/>
       <c r="DW50" s="37"/>
@@ -30768,10 +31105,10 @@
       <c r="AA59" s="52">
         <v>9</v>
       </c>
-      <c r="AB59" s="104" t="s">
+      <c r="AB59" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="AC59" s="104"/>
+      <c r="AC59" s="113"/>
       <c r="AD59" s="37"/>
       <c r="AE59" s="40"/>
       <c r="AF59" s="40"/>
@@ -30791,10 +31128,10 @@
       <c r="AT59" s="52">
         <v>9</v>
       </c>
-      <c r="AU59" s="104" t="s">
+      <c r="AU59" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="AV59" s="104"/>
+      <c r="AV59" s="113"/>
       <c r="AW59" s="37"/>
       <c r="AX59" s="40"/>
       <c r="AY59" s="40"/>
@@ -30814,10 +31151,10 @@
       <c r="BM59" s="52">
         <v>9</v>
       </c>
-      <c r="BN59" s="104" t="s">
+      <c r="BN59" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="BO59" s="104"/>
+      <c r="BO59" s="113"/>
       <c r="BP59" s="37"/>
       <c r="BQ59" s="40"/>
       <c r="BR59" s="40"/>
@@ -30837,10 +31174,10 @@
       <c r="CF59" s="52">
         <v>9</v>
       </c>
-      <c r="CG59" s="104" t="s">
+      <c r="CG59" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="CH59" s="104"/>
+      <c r="CH59" s="113"/>
       <c r="CI59" s="37"/>
       <c r="CJ59" s="40"/>
       <c r="CK59" s="40"/>
@@ -30860,10 +31197,10 @@
       <c r="CY59" s="52">
         <v>9</v>
       </c>
-      <c r="CZ59" s="104" t="s">
+      <c r="CZ59" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="DA59" s="104"/>
+      <c r="DA59" s="113"/>
       <c r="DB59" s="37"/>
       <c r="DC59" s="40"/>
       <c r="DD59" s="40"/>
@@ -30883,10 +31220,10 @@
       <c r="DR59" s="52">
         <v>9</v>
       </c>
-      <c r="DS59" s="104" t="s">
+      <c r="DS59" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="DT59" s="104"/>
+      <c r="DT59" s="113"/>
       <c r="DU59" s="37"/>
       <c r="DV59" s="40"/>
       <c r="DW59" s="40"/>
@@ -34119,20 +34456,20 @@
       <c r="AA80" s="58">
         <v>12</v>
       </c>
-      <c r="AB80" s="103" t="s">
+      <c r="AB80" s="114" t="s">
         <v>124</v>
       </c>
-      <c r="AC80" s="103"/>
+      <c r="AC80" s="114"/>
       <c r="AD80" s="40"/>
       <c r="AE80" s="40"/>
       <c r="AF80" s="40"/>
       <c r="AG80" s="67">
         <v>13</v>
       </c>
-      <c r="AH80" s="103" t="s">
+      <c r="AH80" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="AI80" s="103"/>
+      <c r="AI80" s="114"/>
       <c r="AJ80" s="41" t="s">
         <v>128</v>
       </c>
@@ -34148,20 +34485,20 @@
       <c r="AT80" s="58">
         <v>12</v>
       </c>
-      <c r="AU80" s="103" t="s">
+      <c r="AU80" s="114" t="s">
         <v>124</v>
       </c>
-      <c r="AV80" s="103"/>
+      <c r="AV80" s="114"/>
       <c r="AW80" s="40"/>
       <c r="AX80" s="40"/>
       <c r="AY80" s="40"/>
       <c r="AZ80" s="67">
         <v>13</v>
       </c>
-      <c r="BA80" s="103" t="s">
+      <c r="BA80" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="BB80" s="103"/>
+      <c r="BB80" s="114"/>
       <c r="BC80" s="41" t="s">
         <v>128</v>
       </c>
@@ -34177,20 +34514,20 @@
       <c r="BM80" s="58">
         <v>12</v>
       </c>
-      <c r="BN80" s="103" t="s">
+      <c r="BN80" s="114" t="s">
         <v>124</v>
       </c>
-      <c r="BO80" s="103"/>
+      <c r="BO80" s="114"/>
       <c r="BP80" s="40"/>
       <c r="BQ80" s="40"/>
       <c r="BR80" s="40"/>
       <c r="BS80" s="67">
         <v>13</v>
       </c>
-      <c r="BT80" s="103" t="s">
+      <c r="BT80" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="BU80" s="103"/>
+      <c r="BU80" s="114"/>
       <c r="BV80" s="41" t="s">
         <v>128</v>
       </c>
@@ -34206,20 +34543,20 @@
       <c r="CF80" s="58">
         <v>12</v>
       </c>
-      <c r="CG80" s="103" t="s">
+      <c r="CG80" s="114" t="s">
         <v>124</v>
       </c>
-      <c r="CH80" s="103"/>
+      <c r="CH80" s="114"/>
       <c r="CI80" s="40"/>
       <c r="CJ80" s="40"/>
       <c r="CK80" s="40"/>
       <c r="CL80" s="67">
         <v>13</v>
       </c>
-      <c r="CM80" s="103" t="s">
+      <c r="CM80" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="CN80" s="103"/>
+      <c r="CN80" s="114"/>
       <c r="CO80" s="41" t="s">
         <v>128</v>
       </c>
@@ -34235,20 +34572,20 @@
       <c r="CY80" s="58">
         <v>12</v>
       </c>
-      <c r="CZ80" s="103" t="s">
+      <c r="CZ80" s="114" t="s">
         <v>124</v>
       </c>
-      <c r="DA80" s="103"/>
+      <c r="DA80" s="114"/>
       <c r="DB80" s="40"/>
       <c r="DC80" s="40"/>
       <c r="DD80" s="40"/>
       <c r="DE80" s="67">
         <v>13</v>
       </c>
-      <c r="DF80" s="103" t="s">
+      <c r="DF80" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="DG80" s="103"/>
+      <c r="DG80" s="114"/>
       <c r="DH80" s="41" t="s">
         <v>128</v>
       </c>
@@ -34264,20 +34601,20 @@
       <c r="DR80" s="58">
         <v>12</v>
       </c>
-      <c r="DS80" s="103" t="s">
+      <c r="DS80" s="114" t="s">
         <v>124</v>
       </c>
-      <c r="DT80" s="103"/>
+      <c r="DT80" s="114"/>
       <c r="DU80" s="40"/>
       <c r="DV80" s="40"/>
       <c r="DW80" s="40"/>
       <c r="DX80" s="67">
         <v>13</v>
       </c>
-      <c r="DY80" s="103" t="s">
+      <c r="DY80" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="DZ80" s="103"/>
+      <c r="DZ80" s="114"/>
       <c r="EA80" s="41" t="s">
         <v>128</v>
       </c>
@@ -34293,12 +34630,12 @@
       <c r="Z81" s="40"/>
       <c r="AA81" s="40"/>
       <c r="AB81" s="40"/>
-      <c r="AC81" s="99" t="s">
+      <c r="AC81" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="AD81" s="99"/>
-      <c r="AE81" s="99"/>
-      <c r="AF81" s="99"/>
+      <c r="AD81" s="109"/>
+      <c r="AE81" s="109"/>
+      <c r="AF81" s="109"/>
       <c r="AG81" s="40"/>
       <c r="AH81" s="40"/>
       <c r="AI81" s="40" t="s">
@@ -34316,12 +34653,12 @@
       <c r="AS81" s="40"/>
       <c r="AT81" s="40"/>
       <c r="AU81" s="40"/>
-      <c r="AV81" s="99" t="s">
+      <c r="AV81" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="AW81" s="99"/>
-      <c r="AX81" s="99"/>
-      <c r="AY81" s="99"/>
+      <c r="AW81" s="109"/>
+      <c r="AX81" s="109"/>
+      <c r="AY81" s="109"/>
       <c r="AZ81" s="40"/>
       <c r="BA81" s="40"/>
       <c r="BB81" s="40" t="s">
@@ -34339,12 +34676,12 @@
       <c r="BL81" s="40"/>
       <c r="BM81" s="40"/>
       <c r="BN81" s="40"/>
-      <c r="BO81" s="99" t="s">
+      <c r="BO81" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="BP81" s="99"/>
-      <c r="BQ81" s="99"/>
-      <c r="BR81" s="99"/>
+      <c r="BP81" s="109"/>
+      <c r="BQ81" s="109"/>
+      <c r="BR81" s="109"/>
       <c r="BS81" s="40"/>
       <c r="BT81" s="40"/>
       <c r="BU81" s="40" t="s">
@@ -34362,12 +34699,12 @@
       <c r="CE81" s="40"/>
       <c r="CF81" s="40"/>
       <c r="CG81" s="40"/>
-      <c r="CH81" s="99" t="s">
+      <c r="CH81" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="CI81" s="99"/>
-      <c r="CJ81" s="99"/>
-      <c r="CK81" s="99"/>
+      <c r="CI81" s="109"/>
+      <c r="CJ81" s="109"/>
+      <c r="CK81" s="109"/>
       <c r="CL81" s="40"/>
       <c r="CM81" s="40"/>
       <c r="CN81" s="40" t="s">
@@ -34385,12 +34722,12 @@
       <c r="CX81" s="40"/>
       <c r="CY81" s="40"/>
       <c r="CZ81" s="40"/>
-      <c r="DA81" s="99" t="s">
+      <c r="DA81" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="DB81" s="99"/>
-      <c r="DC81" s="99"/>
-      <c r="DD81" s="99"/>
+      <c r="DB81" s="109"/>
+      <c r="DC81" s="109"/>
+      <c r="DD81" s="109"/>
       <c r="DE81" s="40"/>
       <c r="DF81" s="40"/>
       <c r="DG81" s="40" t="s">
@@ -34408,12 +34745,12 @@
       <c r="DQ81" s="40"/>
       <c r="DR81" s="40"/>
       <c r="DS81" s="40"/>
-      <c r="DT81" s="99" t="s">
+      <c r="DT81" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="DU81" s="99"/>
-      <c r="DV81" s="99"/>
-      <c r="DW81" s="99"/>
+      <c r="DU81" s="109"/>
+      <c r="DV81" s="109"/>
+      <c r="DW81" s="109"/>
       <c r="DX81" s="40"/>
       <c r="DY81" s="40"/>
       <c r="DZ81" s="40" t="s">
@@ -38033,10 +38370,10 @@
       <c r="AA106" s="30">
         <v>15</v>
       </c>
-      <c r="AB106" s="104" t="s">
+      <c r="AB106" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="AC106" s="104"/>
+      <c r="AC106" s="113"/>
       <c r="AD106" s="40"/>
       <c r="AE106" s="40"/>
       <c r="AF106" s="40"/>
@@ -38056,10 +38393,10 @@
       <c r="AT106" s="30">
         <v>15</v>
       </c>
-      <c r="AU106" s="104" t="s">
+      <c r="AU106" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="AV106" s="104"/>
+      <c r="AV106" s="113"/>
       <c r="AW106" s="40"/>
       <c r="AX106" s="40"/>
       <c r="AY106" s="40"/>
@@ -38079,10 +38416,10 @@
       <c r="BM106" s="30">
         <v>15</v>
       </c>
-      <c r="BN106" s="104" t="s">
+      <c r="BN106" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="BO106" s="104"/>
+      <c r="BO106" s="113"/>
       <c r="BP106" s="40"/>
       <c r="BQ106" s="40"/>
       <c r="BR106" s="40"/>
@@ -38102,10 +38439,10 @@
       <c r="CF106" s="30">
         <v>15</v>
       </c>
-      <c r="CG106" s="104" t="s">
+      <c r="CG106" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="CH106" s="104"/>
+      <c r="CH106" s="113"/>
       <c r="CI106" s="40"/>
       <c r="CJ106" s="40"/>
       <c r="CK106" s="40"/>
@@ -38125,10 +38462,10 @@
       <c r="CY106" s="30">
         <v>15</v>
       </c>
-      <c r="CZ106" s="104" t="s">
+      <c r="CZ106" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="DA106" s="104"/>
+      <c r="DA106" s="113"/>
       <c r="DB106" s="40"/>
       <c r="DC106" s="40"/>
       <c r="DD106" s="40"/>
@@ -38148,10 +38485,10 @@
       <c r="DR106" s="30">
         <v>15</v>
       </c>
-      <c r="DS106" s="104" t="s">
+      <c r="DS106" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="DT106" s="104"/>
+      <c r="DT106" s="113"/>
       <c r="DU106" s="40"/>
       <c r="DV106" s="40"/>
       <c r="DW106" s="40"/>
@@ -51788,25 +52125,65 @@
     </row>
   </sheetData>
   <mergeCells count="102">
-    <mergeCell ref="AV81:AY81"/>
-    <mergeCell ref="AU106:AV106"/>
-    <mergeCell ref="BA80:BB80"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AB36:AC36"/>
-    <mergeCell ref="AB39:AC39"/>
-    <mergeCell ref="AB42:AC42"/>
-    <mergeCell ref="AB45:AC45"/>
-    <mergeCell ref="AC46:AE46"/>
-    <mergeCell ref="AH20:AI20"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="V29:Z29"/>
+    <mergeCell ref="DY80:DZ80"/>
+    <mergeCell ref="DT81:DW81"/>
+    <mergeCell ref="DS106:DT106"/>
+    <mergeCell ref="DF80:DG80"/>
+    <mergeCell ref="DA81:DD81"/>
+    <mergeCell ref="CZ106:DA106"/>
+    <mergeCell ref="DY20:DZ20"/>
+    <mergeCell ref="DT24:DV24"/>
+    <mergeCell ref="DM26:DO26"/>
+    <mergeCell ref="DT26:DV26"/>
+    <mergeCell ref="DM29:DQ29"/>
+    <mergeCell ref="DS36:DT36"/>
+    <mergeCell ref="DS39:DT39"/>
+    <mergeCell ref="DS42:DT42"/>
+    <mergeCell ref="DS45:DT45"/>
+    <mergeCell ref="DT46:DV46"/>
+    <mergeCell ref="DS50:DT50"/>
+    <mergeCell ref="DS59:DT59"/>
+    <mergeCell ref="DS80:DT80"/>
+    <mergeCell ref="CM80:CN80"/>
+    <mergeCell ref="CH81:CK81"/>
+    <mergeCell ref="CG106:CH106"/>
+    <mergeCell ref="DF20:DG20"/>
+    <mergeCell ref="DA24:DC24"/>
+    <mergeCell ref="CT26:CV26"/>
+    <mergeCell ref="DA26:DC26"/>
+    <mergeCell ref="CT29:CX29"/>
+    <mergeCell ref="CZ36:DA36"/>
+    <mergeCell ref="CZ39:DA39"/>
+    <mergeCell ref="CZ42:DA42"/>
+    <mergeCell ref="CZ45:DA45"/>
+    <mergeCell ref="DA46:DC46"/>
+    <mergeCell ref="CZ50:DA50"/>
+    <mergeCell ref="CZ59:DA59"/>
+    <mergeCell ref="CZ80:DA80"/>
+    <mergeCell ref="BN106:BO106"/>
+    <mergeCell ref="CM20:CN20"/>
+    <mergeCell ref="CH24:CJ24"/>
+    <mergeCell ref="CA26:CC26"/>
+    <mergeCell ref="CH26:CJ26"/>
+    <mergeCell ref="CA29:CE29"/>
+    <mergeCell ref="CG36:CH36"/>
+    <mergeCell ref="CG39:CH39"/>
+    <mergeCell ref="CG42:CH42"/>
+    <mergeCell ref="CG45:CH45"/>
+    <mergeCell ref="CH46:CJ46"/>
+    <mergeCell ref="CG50:CH50"/>
+    <mergeCell ref="CG59:CH59"/>
+    <mergeCell ref="CG80:CH80"/>
+    <mergeCell ref="BT20:BU20"/>
+    <mergeCell ref="BO24:BQ24"/>
+    <mergeCell ref="BO26:BQ26"/>
+    <mergeCell ref="BN36:BO36"/>
+    <mergeCell ref="BN39:BO39"/>
+    <mergeCell ref="BN42:BO42"/>
+    <mergeCell ref="BN45:BO45"/>
+    <mergeCell ref="BO46:BQ46"/>
+    <mergeCell ref="BN50:BO50"/>
+    <mergeCell ref="BN59:BO59"/>
     <mergeCell ref="BN80:BO80"/>
     <mergeCell ref="BT80:BU80"/>
     <mergeCell ref="BO81:BR81"/>
@@ -51831,65 +52208,25 @@
     <mergeCell ref="AB80:AC80"/>
     <mergeCell ref="AH80:AI80"/>
     <mergeCell ref="AC81:AF81"/>
-    <mergeCell ref="BN106:BO106"/>
-    <mergeCell ref="CM20:CN20"/>
-    <mergeCell ref="CH24:CJ24"/>
-    <mergeCell ref="CA26:CC26"/>
-    <mergeCell ref="CH26:CJ26"/>
-    <mergeCell ref="CA29:CE29"/>
-    <mergeCell ref="CG36:CH36"/>
-    <mergeCell ref="CG39:CH39"/>
-    <mergeCell ref="CG42:CH42"/>
-    <mergeCell ref="CG45:CH45"/>
-    <mergeCell ref="CH46:CJ46"/>
-    <mergeCell ref="CG50:CH50"/>
-    <mergeCell ref="CG59:CH59"/>
-    <mergeCell ref="CG80:CH80"/>
-    <mergeCell ref="BT20:BU20"/>
-    <mergeCell ref="BO24:BQ24"/>
-    <mergeCell ref="BO26:BQ26"/>
-    <mergeCell ref="BN36:BO36"/>
-    <mergeCell ref="BN39:BO39"/>
-    <mergeCell ref="BN42:BO42"/>
-    <mergeCell ref="BN45:BO45"/>
-    <mergeCell ref="BO46:BQ46"/>
-    <mergeCell ref="BN50:BO50"/>
-    <mergeCell ref="BN59:BO59"/>
-    <mergeCell ref="CM80:CN80"/>
-    <mergeCell ref="CH81:CK81"/>
-    <mergeCell ref="CG106:CH106"/>
-    <mergeCell ref="DF20:DG20"/>
-    <mergeCell ref="DA24:DC24"/>
-    <mergeCell ref="CT26:CV26"/>
-    <mergeCell ref="DA26:DC26"/>
-    <mergeCell ref="CT29:CX29"/>
-    <mergeCell ref="CZ36:DA36"/>
-    <mergeCell ref="CZ39:DA39"/>
-    <mergeCell ref="CZ42:DA42"/>
-    <mergeCell ref="CZ45:DA45"/>
-    <mergeCell ref="DA46:DC46"/>
-    <mergeCell ref="CZ50:DA50"/>
-    <mergeCell ref="CZ59:DA59"/>
-    <mergeCell ref="CZ80:DA80"/>
-    <mergeCell ref="DY80:DZ80"/>
-    <mergeCell ref="DT81:DW81"/>
-    <mergeCell ref="DS106:DT106"/>
-    <mergeCell ref="DF80:DG80"/>
-    <mergeCell ref="DA81:DD81"/>
-    <mergeCell ref="CZ106:DA106"/>
-    <mergeCell ref="DY20:DZ20"/>
-    <mergeCell ref="DT24:DV24"/>
-    <mergeCell ref="DM26:DO26"/>
-    <mergeCell ref="DT26:DV26"/>
-    <mergeCell ref="DM29:DQ29"/>
-    <mergeCell ref="DS36:DT36"/>
-    <mergeCell ref="DS39:DT39"/>
-    <mergeCell ref="DS42:DT42"/>
-    <mergeCell ref="DS45:DT45"/>
-    <mergeCell ref="DT46:DV46"/>
-    <mergeCell ref="DS50:DT50"/>
-    <mergeCell ref="DS59:DT59"/>
-    <mergeCell ref="DS80:DT80"/>
+    <mergeCell ref="AV81:AY81"/>
+    <mergeCell ref="AU106:AV106"/>
+    <mergeCell ref="BA80:BB80"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="AB39:AC39"/>
+    <mergeCell ref="AB42:AC42"/>
+    <mergeCell ref="AB45:AC45"/>
+    <mergeCell ref="AC46:AE46"/>
+    <mergeCell ref="AH20:AI20"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="V29:Z29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -51898,7 +52235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BM59"/>
   <sheetViews>
     <sheetView topLeftCell="K1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
@@ -62522,7 +62859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AH35"/>
   <sheetViews>
     <sheetView topLeftCell="U13" workbookViewId="0">
@@ -65059,7 +65396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -65071,7 +65408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -65156,7 +65493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:P59"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
